--- a/news_data/2018_02.xlsx
+++ b/news_data/2018_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,18 +22,129 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도관광협회-JDC, 관광종사자 대상 소비자 응대 교육</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사 ‘2018 에코파티 마을 공모’</t>
+  </si>
+  <si>
+    <t>서귀포 중문에서 유채꽃과 함께 관광 후 흑돼지 맛집까지, 포근한 제주도 봄나...</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 흑돼지 ‘돈이랑’ 맛집 레시피 소개</t>
+  </si>
+  <si>
+    <t>'뉴스쇼' 제주도 게스트하우스 女관광객 살인사건, 범행 동기 미궁‥어금니 아...</t>
+  </si>
+  <si>
+    <t>3월 제주도 여행 10선...놓치면 후회할 봄 관광명소는?</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 4.3 70주년 기념 다크투어리즘 상품 개발</t>
+  </si>
+  <si>
+    <t>[초점Q]'효리네 민박' 4.3사건 다뤘다, 이효리 "제주도, 관광지지만 아픔이 있...</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회장 4선 연임</t>
+  </si>
+  <si>
+    <t>제주도, 512개 관광사업체 대상 화재 취약시설 안전점검</t>
+  </si>
+  <si>
+    <t>제주도, 관광꿈나무 인재양성..학교관광교육 본격 운영</t>
+  </si>
+  <si>
+    <t>제주도, 설 연휴 관광대책 종합상황실 운영</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 동백꽃 군락지, 2월 가볼만한 곳 눈길! 제주관광공사가 추천하...</t>
+  </si>
+  <si>
+    <t>제주도, 설 연휴 관광객 상황실 운영…15만7천명 방문예상</t>
+  </si>
+  <si>
+    <t>제주도, '관광꿈나무 양성' 학교관광교육 워킹그룹 본격 운영</t>
+  </si>
+  <si>
+    <t>[3보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안 모텔서 숨진...</t>
+  </si>
+  <si>
+    <t>[2보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안서 숨진 채 발...</t>
+  </si>
+  <si>
+    <t>제주도 게스트하우스 女관광객 살인 용의자 한정민 숨진채 발견</t>
+  </si>
+  <si>
+    <t>제주도 공·항만 관광객 수용 한계치는 '1680만명'</t>
+  </si>
+  <si>
+    <t>[종합]제주도 게스트하우스 관광객 살인용의자 천안서 숨진 채 발견</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제34대 회장에 김영진</t>
+  </si>
+  <si>
+    <t>제주도 관광객 살해 용의자 수원에 있나… 목격담 속출</t>
+  </si>
+  <si>
+    <t>제주도의회, '中 자본' 금수산장 관광단지 개발 제동</t>
+  </si>
+  <si>
+    <t>제주도 게하 여성관광객 살인 용의자, 행방묘연</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회장, 34대 협회장에 당선…4선 연임</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 관광 기지개 속 흑돼지 맛집 ‘분주’</t>
+  </si>
+  <si>
+    <t>혼자 제주도 관광 온 20대 여성 살인 용의자, '경기도 안양'서 사라졌다</t>
+  </si>
+  <si>
+    <t>경찰,제주도 게스트하우스 20대여성 관광객 신체조직 국과수 보내..성폭행살해...</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 日 레저스포츠 관광객 유치 마케팅 전개</t>
+  </si>
+  <si>
+    <t>제주도 게스트하우스 피살 여성 관광객 유력 용의자 행방 묘연</t>
+  </si>
+  <si>
+    <t>경찰,제주도 20대여성 관광객 살해 용의자 게스트하우스 관리인 범행 후 2일간...</t>
+  </si>
+  <si>
+    <t>제주도 게스트하우스 피살 여성 관광객, 사인은 ‘목졸림’…용의자는?</t>
+  </si>
+  <si>
+    <t>‘제주도서 연락두절…’ 20대 여성 관광객 목졸려 숨진 채 발견</t>
+  </si>
+  <si>
+    <t>관광 도시 제주도가 앓고 있는 부작용, 오버투어리즘 [지식용어]</t>
+  </si>
+  <si>
+    <t>겨울 끝자락 제주도 서귀포 중문관광단지에서 추억 만들기, 흑돼지 맛집은 필...</t>
+  </si>
+  <si>
+    <t>제주도, 2018년도 관광진흥기금 500억원 융자 지원</t>
+  </si>
+  <si>
+    <t>제이디건설, 백령면 어르신 제주도 효도관광 후원</t>
+  </si>
+  <si>
     <t>제이디 건설, 백령 어르신 제주도 효도관광</t>
   </si>
   <si>
+    <t>"몸집 불린 관광에 제주도 '포화'...하수처리장이 대표적 문제"</t>
+  </si>
+  <si>
+    <t>'무제한 연임' 제주도관광협회장 10년 장기집권 가시화</t>
+  </si>
+  <si>
     <t>백령도 지역업체들, 지역 어르신들 모시고 제주도 효도관광</t>
   </si>
   <si>
-    <t>"몸집 불린 관광에 제주도 '포화'...하수처리장이 대표적 문제"</t>
-  </si>
-  <si>
-    <t>'무제한 연임' 제주도관광협회장 10년 장기집권 가시화</t>
-  </si>
-  <si>
     <t>34대 제주도관광협회 회장 선거 후보 단독 출마</t>
   </si>
   <si>
@@ -52,22 +163,127 @@
     <t>제주도, 해외 관광시장 다변화 등 질적성장 추진</t>
   </si>
   <si>
-    <t>제이디 건설, 백령 어르신 제주도 효도관광 | 아주경제 2022.10.04 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제이디 건설, 백령 어르신 제주도 효도관광 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제이디 건설, 백령 어르신 제주도 효도관광 기자정보, 기사등록일 박흥서 기자 입력 2018-02-08 13:23 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 백령도 지역업체들이 지난 7일 인천시 옹진군 백령도에 살고 있는 어르신 31명을 모시고 2박 3일간의 일정으로 제주도 여행을 떠났다. 지난 11년간 백령여행사에서 진행한 백령도 지역 어르신들을 위한 제주도 무료 효도관광을 올해는 백령도 업체인 제이디 건설에서 진행했다. 제이디 건설, 백령 어르신 제주도 효도관광[사진=인천시 옹진군] 김진식 대표는 “해마다 어르신들을 모시고 효도관광을 다녀오는데 즐거워하시는 아르신들을 볼 때마다 자주 해드리지 못해 죄송하다”며, “앞으로 이런 자리를 많이 만들 수 있도록 노력하겠다.”고 말했다. 이번 효도관광을 위해 해송여행사, 에이치해운, 서울우유, 아트건설, 승주건설, 나나렌트카, 이팔중기 등 지역내 업체들의 따뜻한 관심과 후원도 이어졌다. 관련기사인천 영흥화력발전소 풍력발전기 화재​인천 백령도 인근서 어선 표류… 승선원 2명 실종 #인천시 옹진군 #백령도 #제주도 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1욜로인 줄 알았는데…월 570만원 버는 리치 싱글, 알뜰·부업족 더 많다 2제로코로나에 발 묶인 중국인…국경절 '즉흥바캉스' 대세로 3빚 갚는데 월급 다 쓰겠네...뛰는 금리에 2년새 월상환액 2배 껑충 4투자 혹한기의 역설…스타트업 M&amp;A 활발한 까닭 5복지위 국감 화두는 '코로나·비대면·리베이트'... 경보제약 대표 등 증인출석 6내년부터 서울 택시 기본요금 1000원·호출료 최대 5000원 오른다 7환율 오르는데, 비자 카드 계속 사용해도 될까? 1욜로인 줄 알았는데…월 570만원 버는 리치 싱글, 알뜰·부업족 더 많다 2빚 갚는데 월급 다 쓰겠네...뛰는 금리에 2년새 월상환액 2배 껑충 3내년부터 서울 택시 기본요금 1000원·호출료 최대 5000원 오른다 4환율 오르는데, 비자 카드 계속 사용해도 될까? 5​3년 연속 국감 불려가는 송호섭 스타벅스 대표... '서머 캐리백' 논란에 거취도 주목 6尹 정부 첫 국정감사 시작…소비자물가 동향 발표 7​8월 경기도 아파트 매매량 '역대 최저'…과천시 4건 1尹 대통령 지지도 31.2%...'비속어 논란'에 4주 만에 하락세 2김민석 "10~30대 사망원인 1순위 자살...코로나 이후 증가 현상 우려" 3삼성·포스코부터 5대 은행장까지···기업들 "나 떨고 있니" 4감사원, '文 서면조사' 논란에 "노태우·김영삼‧이명박‧박근혜도 조사" 5이재명, 감사원 '文 서면조사' 통보에..."유신 공포정치 연상" 6합참 "북한, 동쪽으로 탄도미사일 발사...제원 분석 중" 7서울시, 평양과 올림픽 공동유치에 28조원 추산… "꼼수 대북지원 여부 조사 필요" 1무비자입국 허용에 방한일본인 1000% '껑충'…관광시장 회복 '가속화' 2'임실엔가을'…치즈축제 열기 속 가을꽃 향연 3방한 일본인 200여명, 제주 드림타워 찾았다 4안성시, 남사당 바우덕이 축제 폐막‥.잊지 못할 추억 전해 5볼거리 먹거리 찍을거리 많은 전남 "사나흘 머물면서 즐기세요" 6대구 동구청, 동대구역 동고가교 방면 1차로 주행 가능 7가족·친구·외국인 3000명 함께…"걸으며 역사 배우는 시간" 1투자 혹한기의 역설…스타트업 M&amp;A 활발한 까닭 2과방위, 진통 끝 일반증인 명단 합의…이통3사 수장은 제외 3대기업까지 옥죄는 高금리...영업이익으로 이자도 못 낸다 4"화면 벗어나 몸으로 느낀다" 네이버웹툰 '문유', CGV 4DX로 개봉 56G 필수인 저궤도 위성통신 속도 내는 韓 정부·기업...원웹 "우리도 참가 희망" 6신차보다 비싼 중고 전기차···보조금보다 많은 웃돈 '돈벌이 악용' 7캐스퍼, ​출시 1년만에 누적 판매량 4만5000대···'경차 1위' 오늘의 1분 뉴스 신용 1억+전세대출 5억…月 이자 259만원 낸다 감사원 ‘文조사’ 통보 직후 당정은 정부조직개편 논의 3000명의 시민들 북적… “건강·추억 모두 챙겼죠” 10월 첫째 날 3대 지수 일제 상승 ​3년 연속 국감 불려가는 송호섭 스타벅스 대표 서학개미, 글로벌 증시 공포 속 '아찔한 베팅'…3Q 실적 발표 '변곡점' 보험대출 7%, 주담대 8%, 카드론 15% 금리 쇼크 머지 않았다 포토뉴스 마산해양신도시 인근 바다 물고기 떼죽음 제4354주년 개천절 경축식 김연아, '여신 등장' 3년 만에 열린 '뉴발란스 런온 서울' 아주 글로벌 中國語 English 日本語 Tiếng Việt 韩汽油价格每升下降约合人民币8.34元 No hurry in selling HMM to new company, not foreign company or private equity fund ムーディーズ、「韓国の輸出減少傾向、来年初めまで続く」と予想 Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 뛰는 금리에 2년새 월상환액 2배 껑충 내년부터 서울 택시 기본요금 4800원 합참 "북한, 동쪽으로 탄도미사일 발사...제원 분석 중" 삼성·포스코부터 5대 은행장까지···기업들 "나 떨고 있니" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
-  </si>
-  <si>
-    <t>백령도 지역업체들, 지역 어르신들 모시고 제주도 효도관광 - 매일일보 × 정치 전체 국회·정당 대통령·대통령실 외교·안보 여의도 25시 국제일반 경제 전체 정책 산업 금융·증권 건설·부동산 유통 제약·바이오 중기·벤처 국제경제 사회 전체 행정 교육 사건·사고 법조·검찰 환경·과학 문화·체육 전체 문화일반 공연·전시 출판 스포츠·레저 관광 종교 MI특별기획 MI카드뉴스 전국 전체 서울 인천·경기 세종·충청 대구·경북 부산·경남 광주·전남 전주·전북 강원·제주 기획 전체 연중기획 특집기획 S부장의 시시비비 BIZ 포커스[보도자료] 풍문레이다 전화성의 스타트~UP 2018 평창 동계올림픽 NO 재팬 피플 전체 사설 기자수첩 데스크칼럼 인터뷰 세상사람들 독자기고 동정 인사 부고 NOTICE 시작페이지로 설정 즐겨찾기 추가 2022-10-04 (화) HOME 전체기사보기 로그인 회원가입 정치 국회·정당 청와대·대통령 외교·안보 여의도 25시 北 동해상으로 탄도미사일 또 발사…이틀에 한번 꼴 北 동해상으로 탄도미사일 또 발사…이틀에 한번 꼴 [매일일보 김연지기자] 북한이 동해상으로 또 탄도미사일을 발사했다. 군 당국은 사거리와 고도, 속도 등 제원을 분석 중이다. 합동참모본부는 4일 북한이 단거리 탄도미사일(SRBM)... '감사원 文 조사'…與 "文, 겸허히 응대해야 " 野 "선넘는 행태 점입가경" 2022-10-03 김대기 "野 정략적 공세에 내각·여권 모두 단호히 대응해주길" 2022-10-03 野 "국민대·숙대 총장, 국감 출석 거부하면 동행명령장 발부" 2022-10-03 與 '이재명·문재인', 野 '윤석열·김건희' 정조준…국감 파행 가능성 2022-10-03 당정 "정부 조직개편 방안 논의 시작" 2022-10-03 '文 서면조사' 두고 정국 급랭…野 "무례한 짓" vs 與 "성역 없어" '文 서면조사' 두고 정국 급랭…野 "무례한 짓" vs 與 "성역 없어" [매일일보 김연지 기자] '서해 공무원 피격 사건'과 관련해 감사원이 최근 문재인 전 대통령 측에 서면 조사를 받으라고 통보하면서 여야 간 골이 깊어지고 있다. 윤석열 대통령의 순... 경제 정책 산업 금융·증권 건설·부동산 유통 제약·보건 중기·벤처 네오위즈, 신작 ‘마스터 오브 나이츠’ 국내 사전예약 실시 네오위즈, 신작 ‘마스터 오브 나이츠’ 국내 사전예약 실시 [매일일보 박효길 기자] 네오위즈가 ‘마스터 오브 나이츠: 일곱 개의 시련’의 국내 정식 출시를 앞두고 사전예약을 진행한다고 4일 밝혔다.네오위즈가 개발 중인 신작 ‘마스터 오브 ... 컴투스그룹 ‘멤버십 NFT 프로젝트’, ‘붕어빵 타이쿤’으로 스타트 2022-10-04 티웨이항공, 사내 공모전 통해 승무원 안전의식 강화 2022-10-04 NHN, 게임사업 본사로 통합 완료…그룹 모태인 ‘게임’ 방점 2022-10-04 동원F&amp;B, 컵커피 ‘덴마크 오리진’ 누적 판매 1500만개 돌파 2022-10-04 ‘새출발기금’ 출범… 소상공인·자영업자 재기 돕는다 2022-10-04 비상교육, 옥스포드 대학출판부와 ‘디지털 영어 학습 솔루션’ 베트남 수출 비상교육, 옥스포드 대학출판부와 ‘디지털 영어 학습 솔루션’ 베트남 수출 [매일일보] 비상교육이 옥스포드 대학출판부의 대표 영어 학습 콘텐츠를 토대로 개발한 디지털 영어 학습 솔루션을 베트남에 수출한다고 4일 밝혔다.비상교육은 옥스포드 대학출판부의 중등... 사회 행정 교육 사건·사고 법조·검찰 환경·과학 검찰, '성남FC 의혹' 두산건설 전 대표 등 2명 불구속 기소 검찰, '성남FC 의혹' 두산건설 전 대표 등 2명 불구속 기소 [매일일보 김정인 기자] 검찰이 '성남FC 후원금 의혹'과 관련, 성남시 전 전략추진팀장과 두산건설 전 대표를 30일 불구속 기소했다.수원지검 성남지청 형사3부(유민종 부장검사)는... [내일 날씨] 전국 대체로 맑아…일교차 15도 이상 2022-09-28 경찰, ‘화재 참사’ 대전 현대아울렛 압수수색 2022-09-28 한국외대, 28~30일 가을 대동제 'QUINQUTRIA: LIGHT UP' 개최 2022-09-27 성신여대, '2022 가을 수정제' 29일 개막 2022-09-27 세종대 박기웅 교수 연구팀, 랜섬웨어 대응 국제공동연구 착수 2022-09-27 대전 현대아울렛 화재 7명 사망 확인… “유독가스 급격히 확산” 대전 현대아울렛 화재 7명 사망 확인… “유독가스 급격히 확산” [매일일보 이채원 기자] 26일 오전 7시 45분쯤 대전 유성구 용산동 현대 프리미엄아울렛에서 화재가 발생해 7명이 사망한 것으로 파악됐다. 26일 대전시 소방본부 등에 따르면 이... 문화·체육 문화일반 공연·전시 출판 스포츠·레저 관광 종교 테일러메이드, 제2회 미드아마추어 챔피언십 성료 테일러메이드, 제2회 미드아마추어 챔피언십 성료 [매일일보 한종훈 기자] 제2회 테일러메이드 미드아마추어 챔피언십이 막을 내렸다.이번 대회는 8월 22일 충청호남권, 24일 영남권, 31일 수도권 세 차례 예선전을 거쳐 9월 3... [HOT GEAR] 볼빅, 무광 컬러 반반 볼 ‘비비드콤비’ 2022-10-04 ‘가을 여왕’ 김수지 등장… 개인 타이틀 경쟁 ‘안갯속’ 2022-10-04 KPGA 우승 이형준, 세계랭킹 489위로 껑충 2022-10-03 문화재청,  1일 '한복생활' 국가무형문화재 지정 기념행사 개최 2022-10-03 세계적인 그래픽 아티스트 '장 줄리앙' DDP서 '그러면, 거기' 展 개최 2022-10-03 2주 연속 우승… 역시 가을엔 ‘김수지’ 2주 연속 우승… 역시 가을엔 ‘김수지’ [매일일보 한종훈 기자] ‘가을 여왕’ 김수지가 KLPGA 투어 대회 2주 연속 우승 트로피를 들어 올렸다.김수지는 2일 인천광역시 베어즈베스트 청라 골프클럽에서 열린 KLPGA ... MI특별기획 [기획]분업구조 붕괴…갈수록 멀어지는 한중 경제 [기획]분업구조 붕괴…갈수록 멀어지는 한중 경제 [매일일보 이재영 기자]한중 무역 분업구조가 점차 붕괴되는 양상이다. 최근 잇따라 중장기 대규모 투자 계획을 발표한 삼성, SK 등 대기업의 전략에서 미국과 국내 투자는 부각됐지만... [기획]한중 30년, 中 진출기업 실적 내리막길 타나 2022-09-15 [기획] 중국서 밀린 갤럭시, 해외서도 폴더블 격돌 2022-09-15 [기획]현대차, 녹색 신차로 중국 새길 모색 2022-09-15 [기획] 중국 큰손 기다리는 '면세업계' 2022-09-12 [기획] ‘독이 든 성배’로 전락한 中…“기술유출 공포감도” 2022-09-12 [기획] 갈림길에 선 韓‧中관계…소비재 기업도 긴장 [기획] 갈림길에 선 韓‧中관계…소비재 기업도 긴장 [매일일보 이용 기자] 한·중 수교 30주년을 맞이한 가운데, 양국 정부의 수교 내용에 따라 국내 기업의 대중국 사업이 다시 활기를 띌 수 있을 것이란 전망이 나온다.12일 정치권... MI카드뉴스 [카드뉴스] 창사 이래 초유의 사태…포스코 태풍 피해 복구 ‘총력전’ [카드뉴스] 창사 이래 초유의 사태…포스코 태풍 피해 복구 ‘총력전’ [매일일보 김명현 기자·그래픽 서형선 기자] [카드뉴스] P2P업계 “규제완화” 한목소리 2022-09-14 [카드뉴스] 폭우가 만들어낸 영화보다 참혹했던 ‘반지하 비극’ 2022-08-29 [MI카드뉴스] 역대 최악의 침수차 사태…보상은? 2022-08-17 [카드뉴스] ‘125조’ 규모 금융민생안정 2022-08-08 [카드뉴스] 멸종위기 1급 ‘나팔고둥’ 잡지마세요 2022-07-28 [카드뉴스] 누가 카카오에게 모빌리티 지분을 팔게 했을까 [카드뉴스] 누가 카카오에게 모빌리티 지분을 팔게 했을까 [매일일보 박효길 기자·그래픽 송미연 기자] 전국 서울 인천·경기 세종·충청 대구·경북 부산·경남 광주·전남 전주·전북 강원·제주 마포구 홍대 앞 책의 향기가 물씬~ 마포구 홍대 앞 책의 향기가 물씬~ [매일일보 심기성 기자] 마포구가 오는 7일부터 9일까지 3일 동안 홍대 앞에 위치한 서교예술실험센터와 서울생활문화센터서교에서 ‘제18회 서울와우북페스티벌’이 개최된다고 4일 밝혔... 금천구, 사회적 고립 위험가구 ‘동네방네 AI 친구’ 시범운영 2022-10-04 구로구, 침수피해 주민 부동산 중개보수 최대 80만원 감면 2022-10-04 영등포구, 문래동 철공 기술 ‘소공인특별전’ 연다 2022-10-04 다시 뛰는 부천…시민과 함께 혁신 미래도시 완성한다 2022-10-04 2022학년도 서부권역 교육장 협의회 칠곡에서 개최 2022-10-04 한국서예 제11회 구미지부 회원 전시·제5회 경북학생서예공모대전 전시회 한국서예 제11회 구미지부 회원 전시·제5회 경북학생서예공모대전 전시회 [매일일보 이정수 기자] (사)한국서예협회 구미시지부에서는 지난달 24일 오후 3시 구미새마을운동테마공원 글로벌 별관에서 제11회 구미지부 회원전 전시회와 제5회 경북학생서예공모대... 기획 넷마블장애인선수단, ‘2022 추계전국장애인조정대회’서 17개 메달 획득 넷마블장애인선수단, ‘2022 추계전국장애인조정대회’서 17개 메달 획득 [매일일보 박효길 기자] 넷마블문화재단은 지난 23일, 24일 양일간 미사리조정경기장에서 열린 ‘2022 추계전국장애인조정대회’에서 넷마블장애인선수단이 총 17개 메달(금10, 은... NHN, 사내 경매 수익으로 성남시에 어린이 도서 기부 2022-09-28 NC문화재단, 전국 지역아동센터·도서관에 그림책 4천여권 기부 2022-09-27 롯데정보통신-서울매그넷고등학교, 진로 멘토링 활동 전개 2022-09-27 넥슨재단, 전남교육청-초등컴퓨팅교사협회와 ‘하이파이브 챌린지’ 맞손 2022-09-26 공영홈쇼핑, 포장김치 ‘물가안정’ 쿠폰 지원 2022-09-21 홈앤쇼핑, MZ세대 환경서포터즈 ‘홈앤그리너’ 발대식 개최 홈앤쇼핑, MZ세대 환경서포터즈 ‘홈앤그리너’ 발대식 개최 [매일일보 나기호 기자] 홈앤쇼핑은 지난 20일 마곡동 본사에서 이원섭 홈앤쇼핑 대표이사, 이미경 환경재단 대표, 홈앤그리너 11팀(30명)과 함께 환경서포터즈 발대식을 가졌다고 ... 피플 사설 기자수첩 데스크칼럼 인터뷰 세상사람들 독자기고 동정 인사 부고 [전문가 기고] 마포 소각장 준공영제로 위기대응 해야 [전문가 기고] 마포 소각장 준공영제로 위기대응 해야 [매일일보] 수도권매립지 생활폐기물 직매립 금지가 현실화 되면서 서울시 등 수도권 폐기물 처리가 쟁점화 되고 있다.서울시는 생활폐기물 처리 용량 확보를 위해 마포에 하루 1000t... [동정] 오성환 당진시장 2022-10-03 [MI인터뷰] 박종현 하킷 디비전 리더 “글로벌 진출 새 역사 쓸 것” 2022-10-03 [기고] 정부는 규제를, 스타트업은 시장에 대한 올바른 이해와 분석을 2022-10-03 [기자수첩] 증시 변동성 대응, ‘벼락치기’는 이번이 마지막이길 2022-10-03 [데스크칼럼] 6개월 연속 무역적자 극복 방안은 무엇? 2022-10-03 이미지없음[인사] 서울주택도시공사(SH) ◇인사 발령△도시공간사업본부장 나용환 지면보기 검색버튼 기사검색 검색 상세검색 닫기 이전 다음 백령도 지역업체들, 지역 어르신들 모시고 제주도 효도관광 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 전국 인천·경기 백령도 지역업체들, 지역 어르신들 모시고 제주도 효도관광 김양훈 기자 승인 2018.02.08 12:17 댓글 0 페이스북 트위터 카카오스토리 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [매일일보 김양훈 기자] 인천 옹진군 백령도 지역업체들이 지난 7일 인천 옹진군 백령도에 살고 있는 어르신 31명을 모시고 2박 3일간의 일정으로 제주도 여행을 떠났다.지난 11년간 백령여행사에서 진행한 백령도 지역 어르신들을 위한 제주도 무료 효도관광을 올해는 백령도 업체인 제이디 건설에서 진행했다.김진식 대표는 “해마다 어르신들을 모시고 효도관광을 다녀오는데 즐거워하시는 아르신들을 볼 때마다 자주 해드리지 못해 죄송하다”며, “앞으로 이런 자리를 많이 만들 수 있도록 노력하겠다”라고 말했다.이번 효도관광을 위해 해송여행사, 에이치해운, 서울우유, 아트건설, 승주건설, 나나렌트카, 이팔중기 등 지역내 업체들의 따뜻한 관심과 후원도 이어졌다. 저작권자 © 매일일보 무단전재 및 재배포 금지 트윗하기 김양훈 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 인기기사 SK하이닉스, 내달 청주 반도체 신규 공장 착공 SK하이닉스, 내달 청주 반도체 신규 공장 착공 중부권 랜드마크 된 대전신세계…1년간 매출 8000억원 달성 강소슬 기자 강원대학교 ‘2022년 백령대동제’ 3년 만에 대면 개최 황경근 기자 카카오게임즈표 블록체인 ‘보라’, 하반기 공략 시동 박효길 기자 신풍제약 잇따른 악재… 코로나 치료제로 부진 털어낼까 이용 기자 경기도교육청, 태풍 피해 최소화 위해 학교 시설물 안전점검 나헌영 기자 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 베스트 클릭 뉴스 1친환경 흐름에...빨라지는 디젤車 퇴출시계 2배달 시장 침체…대행업계 경쟁구도 재편 3與 '이재명·문재인', 野 '윤석열·김건희' 정조준…국감 파행 가능성 4野 "국민대·숙대 총장, 국감 출석 거부하면 동행명령장 발부" 5'감사원 文 조사'…與 "文, 겸허히 응대해야 " 野 "선넘는 행태 점입가경" 6가상자산 국감 ‘자금세탁’ 최대쟁점 72주 연속 우승… 역시 가을엔 ‘김수지’ 8김대기 "野 정략적 공세에 내각·여권 모두 단호히 대응해주길" 9KPGA 우승 이형준, 세계랭킹 489위로 껑충 10[기고] 정부는 규제를, 스타트업은 시장에 대한 올바른 이해와 분석을 애드버토리얼 미래에셋생명, 실속형 ‘온라인 항문&amp;폴립 수술보험’ 출시 미래에셋생명, 실속형 ‘온라인 항문&amp;폴립 수술보험’ 출시 홍석경 기자 [AD] 금호석유화학그룹,금호리조트에 럭셔리 캠핑을 더하다 ‘아산 스파포레’ [AD] 금호석유화학그룹,금호리조트에 럭셔리 캠핑을 더하다 ‘아산 스파포레’ PR 기자 [AD] 메리츠증권, 韓·美 국채 10년물 ETN 8종 상장 [AD] 메리츠증권, 韓·美 국채 10년물 ETN 8종 상장 이채원 기자 미래에셋생명, 언택트 대응해 경영 전반 ‘디지털 혁신’ 추진 미래에셋생명, 언택트 대응해 경영 전반 ‘디지털 혁신’ 추진 홍석경 기자 데스크칼럼 [데스크칼럼] 6개월 연속 무역적자 극복 방안은 무엇? [데스크칼럼] 6개월 연속 무역적자 극복 방안은 무엇? 송영택 기자 [데스크칼럼]집값 급락…위기에 빠진 분양 시장 [데스크칼럼]집값 급락…위기에 빠진 분양 시장 김간언 기자 [데스크칼럼]기후변화처럼 균형발전도 급하다 [데스크칼럼]기후변화처럼 균형발전도 급하다 이재영 기자 기자수첩 [기자수첩] 증시 변동성 대응, ‘벼락치기’는 이번이 마지막이길 [기자수첩] 증시 변동성 대응, ‘벼락치기’는 이번이 마지막이길 이채원 기자 [기자수첩] 국감장은 '콜로세움'이 아니다 [기자수첩] 국감장은 '콜로세움'이 아니다 김정인 기자 [기자수첩] 마포 화두 ‘광역자원회수시설’…지역구 의원실은 미온? [기자수첩] 마포 화두 ‘광역자원회수시설’…지역구 의원실은 미온? 신승엽 기자 [기자수첩] 세입자 울리는 '전세사기' 대처방법 [기자수첩] 세입자 울리는 '전세사기' 대처방법 최재원 기자 신문사소개 기사제보 광고문의 불편신고 고충처리인 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 영등포구 여의대방로65길 20 호성빌딩 신관 제호 : 매일일보 발행·편집인 : 나정영 청소년보호책임자 : 심주현 발행일 : 2022-10-04 (화) 대표전화 : 02)784-7114 팩스 : 02)3775-2119 발행처 : (주)매일일보 일간신문등록번호 : 서울 가 09920 인터넷신문등록번호 : 서울 아00231 등록일 : 2006-08-07 모든 기사의 소유권은 본사가 보유하고 있으며 발행인의 허가 없이는 기사나 사진의 무단 전재, 복사를 금합니다. [콘텐츠 문의] Copyright © 2022 매일일보. All rights reserved. mail to webmaster@m-i.kr 위로</t>
-  </si>
-  <si>
-    <t>"몸집 불린 관광에 제주도 '포화'...하수처리장이 대표적 문제" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "몸집 불린 관광에 제주도 '포화'...하수처리장이 대표적 문제" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 "몸집 불린 관광에 제주도 '포화'...하수처리장이 대표적 문제" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.02.05 17:22 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제2공항 범도민행동-성산반대위, '관광 패러다임 전환 토론회' ▲ 5일 열린 제주관광 패러다임 전환을 위한 토론회. ⓒ헤드라인제주 최근 5년간 제주를 찾는 관광객은 크게 늘어났지만 그에 따른 기반시설을 갖추지 못하고 관광객 늘리기에만 급급하면서  '오버투어리즘'의 부작용이 심화되고 있다는 지적이 제기됐다.관광객 수용력 초과의 단적인 예로, 지난 2016년 용량 초과로 정화되지 못한 오염수가 바다로 유출됐던 제주시 도두동의 제주하수처리장 사태가 지적됐다.5일 제주시 벤처마루 10층 대강당에서 열린 '제주관광 패러다임 전환을 위한 토론회'에서 홍익대학교 과학기술연구원의 김성훈 연구원은 이같이 지적했다.'제주 관광정책과 환경.사회적 수용력'을 주제로 발표한 김 연구원은 "제주도의 관광산업은 군사정권 시대 지역성장이론에 따라 지역특화산업으로 지목되면서 본격 육성됐다"면서 "국외 관광객을 유치하기 위해 개발 중심 관광지 개발을 추진했고, 1990년대에는 제주개발계획에 이어 제주국제자유도시조성계획이 적극 추진되면서 관광.휴양산업의 양적 성장과 관광지 개발이 급속 진행됐다"고 설명했다.이어 "양적 성장을 위해 중앙정부와 지방정부가 도시계획을 적극 지원해 왔고, 관광지 개발 관련 도시계획권한이 지방으로 이전된 이후 개발허가가 증가하고 이중 대부분은 중산간에 집중됐다"면서 "소규모 도시개발 역시 2010년대 들어 지속적으로 확대됐는데, 도두 하수처리장 포화문제와 같은 명확한 실패사례를 볼때 개발행위 허가가 기반시설 용량과 보조를 맞춰 이뤄졌는지 의문"이라고 꼬집었다.그는 "국토부는 올해(2018년) 제주공항의 수송용량이 포화될 것으로 예측하고, 제주 제2공항 건설을 발표했는데, 한국개발연구원(KDI)의 사전타당성검토 결과를 모두 신뢰한다고 해도, 오름 및 철새, 동굴 등 환경파괴가 우려된다"면서 "현 도시기본계획의 계획인구 기준이 제2공항 예비타당성조사의 수요량에 미치지 못해 제2공항 건설에 따른 추가 인구증가를 감안하면 기존 도시관리 전략은 수정돼야 한다"고 지적했다. ▲ 5일 열린 제주관광 패러다임 전환을 위한 토론회. ⓒ헤드라인제주 김 연구원은 "현 제주도 도시계획 인구는 유독 관광객이 많은 제주도의 특수성을 반영하는데, 체류인구는 상주인구와 달리 관광수요가 집중되는 성수기에 급증하고 비수기에 급감하는 불안정한 양상을 보이므로 도시관리에 상당한 돌발적 변수가 될 수 있다"면서 "상주인구 또한 최근 5년간 제주인구 증가의 주 요인이 자연증가가 아닌, 전입에 따른 사회적 증가라는 점에서 제주 관광산업이 성장과 직간접적인 영향을 주고받았을 것이라 판단된다"며 제주도의 도시인구 증가를 견인한 것이 제주도의 관광산업 성장 때문으로 진단했다.그는 "급격한 도시인구 증가는 기반시설용량과 직결돼 제주도가 미처 대비하기 전에 부작용을 발생시켰다"면서 "그 대표적인 사례가 2016년 발생한 도두 하수처리장 용량 포화 문제"라고 말했다.이어 "이 사건은 국토계획법에 따라 기반시설용량과 개발행위허가를 연동해 관리해야 함에도, 사전에 개발행위허가를 제한하지 못했다는 점에서 제주도 도시관리 능력의 한계를 드러냈다"면서 "이는 제주도는 관광산업의 양적성장을 추동할 수 있어도 그 부담을 효과적으로 제어할 능력은 아직 갖추지 못했다는 것"이라고 꼬집었다.김 연구원은 "지금껏 제주도의 도시계획은 관광산업 성장을 견인하고자 다방면에서 개발위주의 정책을 펼쳐왔으나, 그 부작용이 속속 가시화되고 있고, 제주하수처리장 문제를 보면 성장을 뒷받침할 역량이 아직 부족한 것이 현실"이라며 "이런 상황에서 제주도는 관광산어 육성방향을 새로 모색하고, 성장에 따른 부담을 관리할 수 있는 능력을 시급히 갖출 필요가 있다"고 제언했다.이어 "아울러 주권자로서 도민이 최근의 양적성장 결과를 반추하고, 스스로 자신의 미래를 판단하고 결정할 수 있도록 정보를 공유하는 것이 진정한 협치의 자세를 취하는 것"이라고 강조했다.한편 이날 김 연구원의 주제발표에 이어 이상범 한국환경정책평가연구원 연구원이 '제주 관광정책과 오버투어리즘'을 주제로 발제에 나섰다.이어 △제주참여환경연대 홍영철 대표 △제주제2공항성산읍반대대책위원회 강원보 집행위원장 △이상봉 제주특별자치도의회 의원 △육지사는제주사름 박찬식 대표가 참여한 지정 토론이 진행됐다.&lt;헤드라인제주&gt; ▲ 5일 열린 제주관광 패러다임 전환을 위한 토론회. ⓒ헤드라인제주 ▲ 5일 열린 제주관광 패러다임 전환을 위한 토론회. ⓒ헤드라인제주 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 도민 2018-02-05 19:01:23 | 223.***.***.89 더보기 삭제하기 수정하기 한 10명 왔냐? ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 어휴 ㅉㅉ 답글쓰기 3 0 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>'무제한 연임' 제주도관광협회장 10년 장기집권 가시화 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 '무제한 연임' 제주도관광협회장 10년 장기집권 가시화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 '무제한 연임' 제주도관광협회장 10년 장기집권 가시화 기자명 변미루 기자 입력 2018.02.04 16:46 수정 2018.02.05 10:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 김영진 제주특별자치도관광협회 회장.후보 단독출마 4선 연임 사실상 확정한해 예산 150억원 집행 막강한 권한대의원 투표방식 놓고 형평성 문제도 김영진 제주특별자치도관광협회장의 10년 장기집권이 가시화 될 전망이다. 일각에서는 무제한 연임이 가능한 선거제도에 대한 견제의 목소리가 나오고 있다.4일 제주도관광협회에 따르면 지난 1~2일 제34대 제주도관광협회장 후보 등록기간을 운영한 결과 김영진 현 회장이 단독 출마했다. 선거는 오는 2월 13일 대의원 투표방식으로 치러질 예정이다.김 회장은 2011년 보궐선거에 당선된 이후 3선을 연임했다. 올해 4선에 성공하게 되면 2021년 2월까지 10년의 장기집권을 달성하는 셈이다. 제주도관광협회장은 무보수 명예직이지만, 한 해 협회에 책정된 예산 150억원(2018년도 기준)을 집행하는 막강한 권한을 갖는다. 또 회장의 업무추진 경비를 본회의 예산에 편성해 사용할 수 있다.도관광협회는 1962년 설립된 이후 정관상 연임 제한을 둔 적이 없다. 이를 바탕으로 고(故) 김길웅 전 회장의 경우 제 13~15대·17~19대·22대·26대까지 총 8선을 연임하기도 했다. 이같은 관행이 수십년간 이어지면서 결국 권력에 대한 견제가 약해질 수 있다는 지적이 나온다.직선제가 아닌 대의원 투표방식에 대해서도 형평성 문제가 제기되고 있다. 도관광협회 대의원은 총 134명(당연직 46·선출직 88)으로 총회를 통해 출석 과반수 득표로 당선자를 결정한다. 하지만 임원인 당연직을 제외한 선출직은 19개 분과위원회별 회원수와 회비 납부실적을 5대 5 비율로 반영해 이사회에서 정한다. 결국 회비를 많이 납부하는 분과일수록 대의원으로 선출될 가능성이 높아지는 구조다. 실제로 관광호텔업분과는 회원사가 40여곳으로 국내여행업분과 180곳의 22.2%에 불과하지만 선출직 대의원은 14명으로 여행업 10명보다 많다. 이는 일부 호텔이 한해 최고 2000만원까지 회비를 납부하는 반면 여행업의 경우 통상적으로 60만원 수준에 그치기 때문이다.이와 관련해 김영진 회장은 "20여년 전에도 직선제에 대한 논의가 있었지만 협회 운영비 등 현실적인 문제를 고려해 협의점을 찾은 것"이라며 "투표권을 보다 많은 회원들이 행사할 수 있도록 지난해 선출직도 44명에서 88명으로 늘렸다. 연임 제한 문제는 공론화 과정을 거쳐 협의해나갈 부분"이라고 말했다. 변미루 기자 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>34대 제주도관광협회 회장 선거 후보 단독 출마 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 34대 제주도관광협회 회장 선거 후보 단독 출마 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 34대 제주도관광협회 회장 선거 후보 단독 출마 부남철 기자 승인 2018.02.03 12:36 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 김영진 현 회장만 등록...오는 13일 선거 [제주일보=부남철기자] 오는 13일 치러지는 제34대 제주특별자치도 관광협회(이하 도관광협회) 회장 선거 출마자가 단독 후보로 결정됐다.도관광협회 선거관리위원회는 지난 1일부터 2일 오후6시까지 제34대 회장 선거 입후보자 등록을 받은 결과 김영진 현 회장만이 서류를 접수했다고 밝혔다.이에 따라 도관광협회는 오는 13일 대의원 투표 방식으로 회장을 선출한다. 총 대의원수는 134명으로 당연직 46명, 선출직 88명이다.선출직 대의원은 분과위원회에서 선출하고, 당연직은 협회 임원이 해당된다. 출석 대의원 과반수 득표자가 관광협회 회장으로 당선된다.　한편 김영진 회장은 2011년 2월 열린 제31대 제주도관광협회 회장 보궐선거에서 당선된 이후 남은 임기 1년간 회장직을 맡았다. 당시 홍명표 전 회장 사임으로 보궐선거가 치러지기도 했다.이후 2012년 2월 제32대 회장선거에서 만장일치로 회장에 추대됐다.2015년 2월 경선으로 치러진 33대 회장 선거에서는 89%의 득표율을 기록하며 당선됐다. 부남철 기자  bunch@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 부남철 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>하와이 관광객 2배, 제주도의 랜드마크 ‘제주드림타워’ &lt; 부동산 &lt; 경제 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 하와이 관광객 2배, 제주도의 랜드마크 ‘제주드림타워’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 부동산 하와이 관광객 2배, 제주도의 랜드마크 ‘제주드림타워’ 기자명 김영명 기자 입력 2018.02.02 10:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (서울=국제뉴스) 김영명 기자 = 제주도는 전 세계적으로 찾는 관광지다. 관광객 수로 보면 세계 5대 휴양지인 하와이보다 2배가 넘는다. 제주도의 자연환경과 섬나라라는 정의 자체가 외국인에게는 매력적으로 어필된 것이다.이러한 제주도 부동산은 최근 움직임이 심상치 않다. 제주도 현재 헬스케어타운, 신화역사공원(제주신화월드 신화테마파크), 제주국제영어교육도시, 제2신공항 등 크고 작은 사업이 진행되고 있다.관광지인만큼 수익형부동산들도 많은데 그 중에서도 관광객이 많은 만큼 투자대비 수익률이 높다는 점을 강조하는 수익형 호텔분양이 활발하다.하지만 분양 후 발생되는 유지, 관리비용으로 인해 추후 이를 유지하기가 쉽지 않다. 또 시행사가 분양을 완료하고 나면 책임질 것이 없기 때문에 수익발생이 안되면 여기에 대한 보장을 받을 길이 없어 많은 분쟁이 일어나는 경우도 있어 주의가 필요하다.전문가들은 제주도 수익형 호텔 투자 시에는 진짜 시행사와 운영사를 체크해야 하며 법적 효력이 있는 임대차계약서로 계약조건, 소유권과 사업지역, 실질적인 수익률에 대해 꼼꼼하게 따져봐야 한다고 조언하고 있다.최근에는 이러한 문제요소를 개선하기 위해 분양 이후 추가비용 전액무상으로 처리해 준다는 조건을 내거는 경우도 등장하고 있다. 물론 해당 내용은 모두 법적 문서로 계약서에 명시한다.신흥 제주도 랜드마크로 불리는 ‘제주드림타워 리조트’는 카지노시설과 백화점과 같은 60개의 전문 부띠끄 쇼핑몰, 10개의 글로벌 레스토랑, 스카이라운지, 찜질방, 스파, 실내외 수영장 등을 갖춘 복합리조트다. 시행사가 토지를 소유하면서 전체 분양이 아닌 전체 시설의 약 40%만을 분양하고, 나머지 60%는 시행사 자체 보유분으로 수분양자와 함께한다.세계적 호텔 체인 그랜드 하얏트(Grand Hayatt)와 공식 계약을 체결한 제주 드림타워는 국내 최대 규모 카지노호텔로서 계약서상 명시된 분양 이후 운영 및 관리비는 0원이다. 분양가의 일정 비율을 20년간 우선 지급하는 조건이다. 분양계약서와 동시에 롯데관광과 임대차계약서를 작성한다.단지는 서귀포나 중문과 같이 관광지에 들어오는 호텔이 아닌, 제주국제공항과 가장 가까운 5성급호텔로 제주도 공항의 3km거리, 차로 5분 거리에 자리해 있다.일대 노형동 이마트 자리는 제주도에서 가장 비싼 땅값을 자랑해 ‘제주의 명동’이라 불린다. 또 노형오거리는 중국인 관광객들이 가장 많이 찾는 바오젠 거리, 롯데시네마, CGV, 관공서등 여러 주요시설이 인접해 있으며 신라면세점, 롯데면세점은 500~600m 거리로 도보권 이용이 가능하다.제주 드림타워는 총 169m 높이로 제주도 고도제한선 55m의 3배를 뛰어넘는 높이로 들어온다. 또 62m 높이에 도심 속 초고층 야외수영장이 있어 싱가포르의 마리나베이샌즈 호텔을 연상시킨다. 김영명 기자 youngmyeong@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>제주도관광협회-JDC, 관광종사자 대상 소비자 응대 교육 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회-JDC, 관광종사자 대상 소비자 응대 교육 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회-JDC, 관광종사자 대상 소비자 응대 교육 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.02.28 15:54 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)와 제주국제자유도시개발센터(이사장 이광희)는 지난 26일부터 28일까지 제주웰컴센터에서 '여행객 소비자 분쟁 및 민원응대 스킬'교육을 진행했다.지역내 관광종사자들이 참석한 이번 교육은 관광만족도를 제고하고, 사업체와 여행객간 분쟁에 대한 대응 방안을 마련하기 위해 실시됐다.교육 내용은 여행소비자 분쟁 해결 기준 및 절차, 악성고객 대처법, 소비자 분쟁 사례 등으로 구성됐다.관광협회 관계자는 "앞으로도 2018 '제주방문의 해'를 맞아 입도 관광객 환대분위기 조성에 기여하기 위해 현장 교육 사업 등을 지속적으로 시행해 나가겠다"고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사 ‘2018 에코파티 마을 공모’ | 일요신문 본문바로가기 제1587호 뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 전국뉴스 제주도-제주관광공사 ‘2018 에코파티 마을 공모’ [제1346호] 2018.02.25 09:00 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 지역주민 주도형 생태관광 활짝 [일요신문] 제주도와 제주관광공사가 자연이 주는 여유와 행복을 찾아 매력 가득한 제주 생태자원을 즐길 수 있는 ‘2018 생태관광 에코파티 사업의 마을 공모’를 추진한다. 제주도와 제주관광공사는 올해 ‘에코파티’ 개최 마을을 전녀보다 2배 이상 증가한 13곳 마을에서 총 16회 진행할 계획이다. 에코파티는 관광객들을 생태관광지와 주변 마을에 초대해 다양한 힐링 체험 프로그램을 진행하는 생태 문화 이벤트다. 지난해부터 제주관광공사에서 제주생태관광협회와 함께 지역주민이 주도하는 지속가능한 관광개발 사업의 일환으로 추진해오고 있다. 지난해에는 서귀포시 무릉2리, 선흘1리, 예래동, 청수리, 하례1리, 한남리 등에서 성황리에 개최됐으며 총 300명 이상의 관광객과 도민이 참가, 제주의 다양한 생태자원들을 경험하고 체험해 보는 시간을 가졌다. 특히 에코파티는 지난해부터 소셜커머스 등 온라인 오픈마켓으로 직접 모객하고 제주의 생태자원을 활용해 내국인 관광객 유치에 기여했다는 점에서 큰 호평을 받기도 했다. 제주관광공사는 생태관광의 저변 확대를 위해 올해에도 테마파티 형태인 에코파티를 추진한다. 공사는 올해 생태관광 사업이 3년차인 만큼 자립형 생태마을 구축과 1회성 행사가 아닌 확대 개최를 통해 운영의 내실을 기할 방침이다. 무엇보다 올해는 ‘에코파티’ 개최 마을을 대상으로 컨설팅을 집중 지원할 계획이며 전년보다 2배 이상 증가한 13곳의 마을에서 에코파티를 총 16회 진행할 계획이다. 에코파티 참여마을 공모는 26일까지 진행되며 생태 및 문화적 자원을 가지고 있는 마을로서 2인 이상의 해설사를 보유한 지역이라면 어느 곳이든 참여 가능하다. 공모는 지원양식을 접수한 마을을 대상으로 생태자원 현황 등 에코파티 취지의 적합성 등을 평가해 선정하는 방식으로 진행되며 선정된 마을에는 개최 지원금이 제공된다. 제주관광공사 관계자는 “에코파티를 통해 도내·외 관광객을 대상으로 제주 생태관광의 가치를 널리 알릴 것으로 기대한다”며 “마을 차원에서는 에코파티를 독자적으로 추진할 수 있도록 지속가능한 역량 기반 구축에 최선의 노력을 다할 것”이라고 말했다. 현성식 기자 ilyo99@ilyo.co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. #제주도 #생태관광 #에코파티 #마을 공모 #지역주민 주도 #해설사 #생태자원 #테마파티 #제주관광공사 #힐 전국뉴스 많이 본 뉴스 인천시 "시설 입소 안 했어도 집에서 돌봐준다" 온라인 기사 ( 2022.09.05 14:49 ) 관리비로 보수공사까지…경기도 '아파트 부적정 업무처리' 실태 온라인 기사 ( 2022.09.15 17:22 ) 시·경찰·시민 첨예 대립…거제경찰서 이전 대상지 논란 새 국면 온라인 기사 ( 2022.10.06 21:21 ) 전국뉴스 기사 더보기 많이 본 뉴스 1 '줄 서는 식당' 류진, 압도적 비주얼과 맛에 푹 빠져 폭풍 먹방 2 무비자 일본여행 앞두고 예약 ’500%’ 폭증…백신 3차례 맞으면 코로나 검사도 면제 3 '최강야구' 독립리그 최강팀 성남 맥파이스와 대결, 이홍구 제자들 찾아 4 '가요무대' 최진희, 박재란, 김충훈, 박혜신, 박건, 윤향기, 전유진, 임창제, 이정옥, 임주리, 류지광, 조정민, 더블레스, 이은하 출연 5 '톡파원 25시' 소유, 아이즈원 출신 이채원과 노르웨이 오슬로 여행 떠나 6 '오은영 리포트 결혼지옥' 외도로 상처받은 노부부 출연 "충격 커" 7 민주당 "친일 국방 논란, 반일 색깔론 선동으로 잠재울 수 없다" 8 '동상이몽2' 오상진, 아내 김소영 폭풍 내조 속내 "한량처럼 살고파" 썸타임즈 무서운 중2가 온다! 여자 육상 단거리 샛별 배윤진 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 일요신문U “한국 골프의 미래” 일요신문-초등연맹회장배 현장 속으로… 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 스타채널 디 오리지널 필로폰 혐의 돈스파이크, 연예계 마약 수사 트리거 되나 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 전국뉴스 많이 본 뉴스 1 인천시 "시설 입소 안 했어도 집에서 돌봐준다" 2 관리비로 보수공사까지…경기도 '아파트 부적정 업무처리' 실태 3 시·경찰·시민 첨예 대립…거제경찰서 이전 대상지 논란 새 국면 4 인천시 '관광·마이스'로 수도권 협력 앞장 5 고양시 '몽골 숲 조성' 10년간 대장정 마무리 수순 일요 eye전문가 칼럼 아트 스펙트럼 ‘문화도시’란 자신만의 이야기를 갖춘 도시 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1587호 발행일 : 2022년 10월 19일 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 11일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>서귀포 중문에서 유채꽃과 함께 관광 후 흑돼지 맛집까지, 포근한 제주도 봄나들이 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 서귀포 중문에서 유채꽃과 함께 관광 후 흑돼지 맛집까지, 포근한 제주도 봄나들이 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 서귀포 중문에서 유채꽃과 함께 관광 후 흑돼지 맛집까지, 포근한 제주도 봄나들이 기자명 이수호 기자 승인 2018.02.23 16:24 댓글 0 조회수 : 3412 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 기세등등했던 동장군도 서서히 물러나고 반가운 봄이 다가오고 있다.이맘때면 꼭 놓치지 말아야 할 풍경이 있으니, 바로 유채꽃이 만발한 제주도다.3월 제주도에 가면 샛노랗게 물든 유채꽃밭을 구경할 수 있는데, 특히 ‘중문관광단지’에 가면 유채꽃뿐 아니라 제주도만이 가지는 자연경관과 각종 테마체험, 제주특산 음식까지 모두 한 코스로 관광이 가능하다. 먼저 ‘엉덩물 계곡’에서 유채꽃의 매력을 만끽해보자. 계곡을 중심으로 온통 유채꽃으로 둘러싸여 천천히 산책하며 사진으로 남겨두면 좋은 추억이 될 것이다. 중문달빛걷기, 엉덩물계곡 표지판을 따라 가면 찾기 쉽다.계곡을 떠나 넓은 제주바다를 보고 싶다면 4가지 색을 띄는 모래로 유명한 ‘색달해수욕장’에가보자. 반달모양의 색달 해변을 따라 거닐면 그보다 좋은 힐링이 없다. 두 번째는 중문에 오면 꼭 들러야 하는 ‘천제연 폭포’다. 3단으로 쏟아져 내려오는 천제연 폭포의 모습은 감동 그 자체, 자연의 경이로움에 감탄하게 된다.천제연 폭포에 이어 ‘지삿개 주상절리’의 웅장한 모습도 중문 관광의 필수 코스다. 제주 바다의 거센 파도와 맞부딪혀 만들어낸 주상절리의 모습은 장관 중의 장관이다. 제주도에 왔으니 흑돼지 한 상 식사도 빠질 수 없다. 중문동에 위치한 복분자 흑돼지 전문점 ‘돈가득’은 품질 좋은 제주산 흑돼지만을 취급하고 참숯만을 사용하여 굽는데, 굽기 직전 복분자를 뿌려 잡내를 없앤다.두툼한 흑돼지 근고기의 부드러운 육질과 입안에서 터지는 육즙, 참숯으로 구워 훈연의 향과 은은한 복분자 향까지 더해져 중독성 강한 ‘돈가득’만의 흑돼지 메뉴를 탄생시켰다.그 맛이 인정받아 관광객뿐 아니라 현지 주민들도 많이 찾는다고 하는데, MBC에브리원 ‘맛있을 지도’ 라는 먹방 프로그램에도 소개된 바 있다. 유난히 길게 느껴졌던 겨울을 뒤로 하고 유채꽃 피는 제주도로 떠나는 봄나들이, 희망차게 한해를 보낼 수 있는 원동력이 될 것이다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 흑돼지 ‘돈이랑’ 맛집 레시피 소개 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 제주도 중문관광단지 흑돼지 ‘돈이랑’ 맛집 레시피 소개 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 제주도 중문관광단지 흑돼지 ‘돈이랑’ 맛집 레시피 소개 유지형 승인 2018.02.23 15:46 수정 2018.02.23 15:46 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × ▲ (사진 제공 : 돈이랑) 제주도 여행 트랜드는 과거 유명 관광지를 찾는 것에서 이제는 맛집 탐방으로 변화하는 추세다. 사회생활을 은퇴한 나이대의 노인층은 물론 삶의 풍요와 함께 휴식을 중요성을 깨닫고 있는 젊은 세대까지 현실의 빡빡함을 접어두고 자신만의 시간을 찾아 나서는 것이 맛집 탐방의 모습으로 표출되고 있는 것이다. 제주도 하면 떠오르는 맛집의 기준은 우선 제주도에서만 맛볼 수 있는 메뉴가 필수적이다. 제주도 중문관광단지 흑돼지 전문점인 ‘돈이랑’의 경우 맛집 레시피의 기초는 해당 지역에서만 맛볼 수 있는 메뉴에서 시작한다고 이야기하고 있다. 흑돼지 전문점인 돈이랑이 이야기하는 맛집 레시피의 시작은 흑돼지 청정사육단계부터 시작한다. 현재 돈이랑은 흑돼지 청정사육단계 HACCP 인증을 획득하고 무항상제 명품 흑돼지로 국내 유명백화점에 납품을 하고 있다.  돈이랑이 말하는 흑돼지 청정사육은 우선 지한 180미터에서 퍼올린 미네랄의 보고 화산암반수로 흑돼지를 사육하고 있으며, 이는 곧 위생적이고 미네랄이 풍부한 흑돼지 고기를 맛볼 수 있다는 것이다. 또한 돈이랑이 말하는 흑돼지 맛집 레시피의 두번째는 은은한 연탄불에서 직접구운 흑돼지 요리로 두툼한 흑돼지가 연탄불 구이에 바삭함과 부드러운 맛을 함께 느낄 수 있다는 것이다. 돈이랑 관계자는 “연탄불 구이에서 최상의 맛을 위해서는 고기를 어떠한 두께로 제공하느냐에 달려 있다. 고기 두께에 따라 바삭함과 부드러운 맛이 차이가 나기 때문이다.”며 “맛집 레시피가 메뉴의 재료의 우수성 부터 조리방법에 이르기까지 완벽해 하지만 추가적으로 고객에 대한 서비스 도 중요하다. 현재 돈이랑은 매장내 숙련된 직원들이 방문 고객들에게 레스토랑의 코스요리처럼 격식을 제공함은 물론 있는 저녁식사의 추억을 위해서 픽업서비스와 밤 12시까지 심야영업을 준비를 하고 있다”고 전했다.  한편 돈이랑은 연예인이 제주도를 방문하면 즐겨 찾는 곳으로 유명세를 타고 있으며, 손님맞이를 위해 버스까지 주차가 가능한 넓은 주차장을 운영하고 있다. /온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>‘뉴스쇼’ 제주도 게스트하우스 女관광객 살인사건, 범행 동기 미궁‥어금니 아빠 이영학 사형 - 김수현 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-11 12:32 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2[최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3[최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4[브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5'울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 6[브랜드파워] 4일 하루 득표량 순위는 영탁(25.4%)·김기태(23.2%)·이승윤·장민호·송가인·김희재·진해성·이찬원·박서진·양준일 순 7[최고의앨범] 6일 하루 득표량 순위는 영탁(3.2%)·장민호(2.1%)·이승윤·송가인·김기태·양준일·김희재·박서진·이찬원·박창근 순 8[댓글 순위] 영탁 200회째 1위, 김기태·이찬원·강혜연·방탄소년단 진 TOP5…진해성·김희재·방탄소년단 지민·김다현·방탄소년단 뷔 뒤이어 9[최고의앨범] 5일 하루 득표량 순위는 영탁(3.9%)·장민호(2.6%)·이승윤·송가인·김기태·김희재·이찬원·양준일·박서진·박창근 순 10[브랜드파워] 5일 하루 득표량 순위는 영탁(26.3%)·김기태(24.0%)·이승윤·장민호·송가인·김희재·이찬원·진해성·박서진·박창근 순 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 "멤버 단톡방서 제외?"…이달의 소녀 츄, '소속사 갈등설' 재수면 이달의 소녀 츄, '스테이지 업' 공연 MC 발탁 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 스타쉽, 아이브(IVE) 공연 취소 경북대 측 주장에 추가 입장…“계약금 전달된 바 없어” (전문) '출장 십오야', 스타쉽 협업 성사…아이브→이동욱 출연할까 ‘뉴스쇼’ 제주도 게스트하우스 女관광객 살인사건, 범행 동기 미궁‥어금니 아빠 이영학 사형 김수현 기자 승인 2018.02.22 08:28 댓글 제보하기 반론요청 이 기사를 공유합니다 × 제주도 게스트하우스 여성 관광객 살인사건이 언급됐다. 21일 방송된 CBS 라디오 ‘김현정의 뉴스쇼(98,1MHZ)’에서는 사회 이슈를 전했다. CBS ‘김현정 뉴스쇼’ 홈페이지 캡쳐 이날 김현정pd는 ‘제주도 게스트 하우스 20대 여성 여행객 살인사건’을 언급했다. 설 전에 일어난 이 사건은 용의자 자살로 잊혀져갔지만 아직 밝혀지지 않는 부분이 많다는 것. 쉽진 않겠지만, 범행 동기와 배경, 과정을 확인해야한다는 것이다. 또한, 강간 범죄로 문제가 된 용의자가 게스트하우스를 계속 일할 수 있었다는 점에 대해 “게스트하우스 관리 문제가 있다”면서 그럼에도 고용했던 소유자의 책임이 드러나지 않아 계속적으로 확인해야한다고 전했다. 한편, 어금니 아빠로 사회를 경악시킨 이영학은 사형이 선고돼 화제가 돼고 있다.김수현 기자 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #뉴스쇼 #김현정 #이영학사형 #제주도게스트하우스 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2018/02/22 08:28 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 ‘어금니 아빠’ 이영학, 오늘 1심 선고 예정돼…피해자 아버지 “사형 선고해달라” ‘뉴스쇼’ 김성태 임종석 군기잡기, 국회 품격은 어디에‥국민 실망감만 커져 ‘뉴스쇼’ 검찰 내 성폭력 사건 진상규명 촉구, 미투운동 봇물→이재정 의원 동참 제주도, ‘지방분권 개헌촉구’ 서명부 국회에 전달…2만여명 참여 ‘사형 선고’ 이영학,  하루만에 1심 불복하고 항소장 제출…‘잃을 게 없다’ 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 진해성 가수의 콘서트 직관후기 ‘내눈에 너만보여’ [F레터] 주접은 행복…김기태 가수에게 우리들의 노래를 들려주다 [F레터] 오늘은 특별한 날…내 삶에 스며든 별을 만나러 가는 날 ‘진해성’이 있다 [F레터] 진해성 가수와 함께하는 트롯전국체전 성남콘서트 [F레터] 진해성의 판타지 만약에…귀한 찰라, 귀한 경험을 순간 완전무결한 환상의 결과이고 진해성의 판타지다 독자 추천 뉴스 1 1010 [최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2 992 [최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3 956 [최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4 933 [브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5 884 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 댓글많은뉴스 1 468 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 2 251 영탁, 신사답게 원더케이 뮤직비디오 200만 뷰…"말이 필요 없는 최고의 퍼포먼스 가창력" 3 240 '박지의 귀환' 영탁, 부산 콘서트에서 '영혼의단짝' 광민이 형이 밝힌 영탁이의 '장점과 담점' 4 174 '공연 역사의 새로운 역사를 쓴 위대한 탁쇼' 영탁, 서울 앙코르 콘서트 개최 확정…초광속 매진 행렬에 '티켓 대란'예상 5 165 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 신화 신혜성, 음주운전 혐의에…과거 전진 ‘면허 100일 정지’ 재조명 2 [TOP이슈] 신화 신혜성, 도난차량서 음주 측정 거부→체포…음주운전만 두 번째 3 [TOP이슈] "안타깝고 속상해"…이채연 측, 데뷔 앨범 디자인 유사성 논란 해명 4 남우현도 울림 떠난다…인피니트 멤버 전원 계약 종료 5 “코로나 후유증으로 컨디션 난조”…BAE173 남도현, 활동 중단 6 [TOP이슈] 영화는 2편…‘7년째 불륜’ 홍상수-김민희, 부국제 불참 7 “미련 못 버려”…아이브 VS 경북대 축제 갈등, 섭외 담당 에이전시 공식 사과 8 “구두 확답-출연료 송금 완료” 경북대 측, 대동제 아이브 공연 취소→스타쉽 주장에 반박 9 [TOP이슈] '친부 폭행' 박수홍, 와이프와 안정 중…'미우새' 댓글창 비난 폭주 10 "흉기로 XX"…박수홍, 친부에게 폭행 당해→병원으로 긴급 후송 11 [TOP이슈] "호주서 골프하고 싶다고"…박연수, 딸 송지아 음해에 분노→아들 송지욱 반응 언급 12 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 13 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 14 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 15 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 '필로폰 투약' 돈스파이크, 오늘(5일) 검찰 송치…母 가슴에 대못 박아 [이슈종합] [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘더 플레이어 케이팝 퀘스트-최종회’ 펠라즈 2기, 플레이어 더보이즈 스릴 라이드 ‘승’…데뷔곡 ‘도깨비집’ 최초 공개 [종합] '구해줘! 홈즈' 소유진, 김호영, 2PM 닉쿤 '무승부'…대형정원부터 테라스 주택까지, 7억원대 경기남부 매물 총출동 [종합] '작은 아씨들' 최종화 김고은, 300억의 주인공 됐다…추자현 "엄지원이 살인했다" 폭로⟶빌런 엄지원 사망 [종합] '뭉쳐야찬다2' 위례 FC를 상대로 완벽한 승리, 류은규 MOM 등극…이형택, '폭풍 성장'에 감탄 [종합] '도시어부4' 이태곤, '감성돔' 1인자 등극…구본승 "꼴찌하면 커피차, 사무장하겠다" 공약 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
+  </si>
+  <si>
+    <t>3월 제주도 여행 10선...놓치면 후회할 봄 관광명소는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 3월 제주도 여행 10선...놓치면 후회할 봄 관광명소는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 3월 제주도 여행 10선...놓치면 후회할 봄 관광명소는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.02.21 14:08 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사(사장 박홍배)는 21일 '봄 향기 너울거리는 제주'라는 테마를 주제로 관광지, 자연, 체험, 축제, 음식 등 5가지 분류에 대해서 놓치지 말아야 할 '3월 제주 관광 추천 10선'을 선정해 발표했다.◇ 하늘로 피어오르는 들불의 소원 : 제주들불축제 ▲ &lt;사진=제주관광공사&gt; 올해 꼭 이루고 싶은 바람이 있다면 제주들불에 불을 놓아 소원을 하늘로 날려 보자. 오름에 불을 놓아 안녕과 평화를 기원했던 옛 선조들처럼 새별오름에 불을 붙여 소원을 하늘로 피워 올리는 모습은 잊지 못할 제주의 밤을 만든다. 소와 말 등 가축 방목을 위해 늦겨울에서 초봄 사이 목야지 들판에 불을 놓았던 ‘방애’라는 제주의 독특한 풍습을 승화시킨 제주들불축제는 3월 1일부터 3월 4일까지 펼쳐진다. 올해는 삼성혈 불씨 채화를 시작으로 무사 안녕 횃불 대행진, 소릿길 체험, 연날리기 등 제주의 색과 멋을 듬뿍 담아 가족 나들이를 나와 즐기기 충분하다. 행사 기간에는 셔틀버스와 대중교통을 이용하면 조금 더 편리하게 행사장을 방문할 수 있다.◇ 아직 아물지 않은 4·3의 상처 : 무명천할머니삶터 ▲ &lt;사진=제주관광공사&gt; 우리나라 유일의 손바닥 선인장 자생지인 월령리에는 강식당의 인기로 동네 곳곳에 웃음소리가 묻어난다. 하지만 따듯한 봄기운 사이에 여전히 먹먹한 곳이 있다. 올해 제주는 4.3 70주년이지만 그때의 상처는 여전히 아물지 않았다. 4.3의 아픔을 위로하기 위해 유적지가 아닌 故진아영 할머니의 삶이 고스란히 묻어있는 무명천할머니삶터를 방문해보자. 제주 4.3 당시 총탄을 맞아 턱을 심하게 다쳐 평생을 무명천으로 턱을 두르고 살아와 무명천 할머니로 불리는 故진아영 할머니. 무명천 할머니 삶터는 2004년 할머니가 세상을 뜨시기 전까지 살아생전의 모습을 그대로 보존하고 있다. 턱을 두르고 있는 무명천 때문에 제대로 말하지도, 먹지도 못했던 故진아영 할머니의 아픔을 온전히 이해할 수는 없겠지만 할머니의 삶터와 주변에 조성된 무명천 할머니 길을 거닐다 보면 4.3의 아픈 흔적을 살펴볼 수 있지 않을까. ◇ 역사·문화·사람의 향기가 난다! : 공항에서 바로 떠나는 제주원도심 여행 ▲ &lt;사진=제주관광공사&gt; ⓒ헤드라인제주 제주 원도심엔 봄 향기 나는 제주의 역사, 문화, 사람들의 모습이 가득하다. 탐라부터 조선을 거쳐 제주의 중심이었던 제주목관아와 관덕정에서는 그 시절 관청의 모습을 엿볼 수 있다. 제주를 든든하게 방어해준 제주성지와 오현단. 소박한 골목길에 펼쳐진 야외미술관 남수각 하늘길 벽화거리부터 오래된 여관을 개조해 만든 산지천 갤러리까지 이어지는 코스는 봄기운 물씬 나는 3월이면 두 발로 부담 없이 거닐기 좋은 장소이다. 제주목관아를 배경으로 펼쳐지는 야외 공연은 원도심을 더욱 특별하게 만든다. 3월 30일과 31일 양일간 열리는 목관아 달빛콘서트는 제주의 밤을 뜨겁게 달군다. 제주의 과거와 현재가 공존하는 목관아 달빛콘서트에서 색다른 제주의 밤을 기록해보자.◇ 한라산 노루와 친구가 되어 ‘봄’ :  노루생태관찰원 ▲ &lt;사진=제주관광공사&gt; 따뜻한 주말, 아이가 특별한 친구를 만날 수 있는 곳이다. 노루 200여 마리가 서식하고 있는 노루생태관찰원에서는 노루를 가까이에서 만나 직접 먹이를 줄 수 있다. 3월에는 오전 9시부터 오후 6시까지 개방되는데 노루 먹이 주는 시간인 오전 8시 30분, 오후 4시경에 방문하면 더 많은 노루를 관찰할 수 있다. 전시실에서는 제주 노루의 종류와 생김새를 살펴보고 다른 나라 노루들과 비교할 수 있으니 유익한 자연체험학습장이다. 노루생태관찰원은 아이 뿐만 아니라 어른도 힐링 할 수 있는 공간이다. 부담 없이 정상까지 오를 수 있는 거친오름 곳곳에서 만나는 노루들은 색다른 반가움을 선사한다. 절물자연휴양림과 사려니숲길과도 가까워 봄기운 가득 채우는 나들이 코스로도 적합하다. ◇ 오감을 자극하는 꽃의 향기 :  ‘꽃’을 맛보다. 카페앤드, 카페제주이야기 ▲ &lt;사진=제주관광공사&gt; ⓒ헤드라인제주 제주 여행도 좋지만, 제주 美행을 경험해보자. 산방산 가까이 있는 아기자기한 카페 앤드에서는 다양한 꽃차를 만날 수 있다. 목련, 금계국, 메리골드, 구절초. 이름만으로도 예쁜 꽃들이 차로 우러나 아리따움을 한껏 뽐낸다. 향긋함과 온몸으로 번지는 건강함은 꽃차가 주는 선물이다. 카페 앤드는 덕수리 골목에 있지만, 산방산, 제주조각공원과 가까워 어렵지 않게 찾아갈 수 있다. 꽃을 오감으로 맛볼 수 있는 곳이 한 곳 더 있다. 제주시 구좌읍 행원리에 위치한 카페 제주이야기에선 전복과 꽃이 어우러진 전복꽃밥을 만날 수 있다. 직접 키운 꽃들로 만든 전복꽃밥과 천연꽃 방향제, 향수 만들기 등 다양한 꽃 체험이 가능하다. 드라이플라워로 커스텀 향수를 만드는 체험은 특별히 추천할만하다. 카페 제주이야기는 구좌농공단지 근처에 위치해 찾기도 쉽다.◇ 캔버스 위에서 만나는 제주의 봄 : 왈종 미술관, 제주현대미술관 ▲ &lt;사진=제주관광공사&gt; ⓒ헤드라인제주 꽃과 새들이 전하는 봄소식을 아름답게 담아낸 미술관. 독특한 외관의 왈종미술관은 작가 이왈종이 도자기로 빚은 건물모형을 건축가와 함께 재현해냈다. 전시실에는 눈을 사로잡는 독특한 화풍의 제주의 자연이 기다리고 있다. 이왈종 작가가 캔버스 위에 펼쳐낸 꽃, 새, 제주의 봄을 감상해보자. 미술관 옥상 정원에서는 한 폭의 그림 같은 서귀포 풍광을 한눈에 담을 수 있다. 제주시 한경면 저지리에 위치한 제주현대미술관에는 곶자왈 내음이 가득하다. 분관에는 50여 년 동안 제주의 자연을 담아낸 박광진 작가의 &lt;자연의 소리&gt; 展이 마련돼 있다. 그중 유채꽃은 제주의 봄을 가장 미적인 감각으로 살려낸 작품으로 유채꽃 향기가 화폭 가득 넘쳐난다. 바다를 머금은 왈종미술관과 곶자왈을 품고 있는 제주현대미술관에서 캔버스 위의 제주의 봄을 한껏 느껴보자.◇ 숲이 내뿜는 새생명의 향기를 느낄 수 있는 고근산 ▲ &lt;사진=제주관광공사&gt; ⓒ헤드라인제주 봄을 가장 먼저 만나는 서귀포에서, 고근산은 싱그러움을 머금고 있다. 겨우내 붉게 물들었던 삼나무와 편백이 초록의 싱그러움을 머금어 짙은 숲의 향기를 내뿜는다. 서귀포시 시내권에 위치한 ‘외로운 산’이라는 이름을 가진 고근산은 왕복 30분 코스로 가볍게 오르기 좋다. 상쾌한 공기를 마시며 걷다 보면 어느덧 정상에 다다라 서귀포 바다와 한라산을 모두 바라볼 수 있다. 고근산 정상에서 한라산과 서귀포 바다를 배경으로 사진 한 장 남기기에도 좋다. 여기까지만 둘러보고 하산한다면 고근산을 절반만 보는 셈이다. 정상에서 조금 더 들어가면 만날 수 있는 화구 둘레길에선 한라산이 옆에 있는 듯한 친근함이 느껴진다. 서귀포의 동쪽과 서쪽을 두루 살펴볼 수 있는 화구 둘레길은 숨은 명소로 꼽힌다. 서귀포의 좋은 기운이 담긴 고근산에 봄 인사를 나누러 가보는 건 어떨까.◇ 포근한 추억 ‘한 컷’의 향연, 제주스냅촬영명소 : 아침미소목장, 명월리 ‘팽나무’, 조천스위스마을 ▲ &lt;사진=제주관광공사&gt; ⓒ헤드라인제주 SNS를 넘기다 손이 멈추는 사진이 있다. 파란 하늘 아래 푸른 초원이 펼쳐진 아침미소목장은 인생사진 포인트로 유명하다. 연인, 친구와 함께 때로는 혼자서 푸르른 봄과 만나기 좋은 곳이다. 아기자기한 의자와 인디언 텐트는 사진에 감성을 더한다. 제주시 한림읍에 위치한 명월리 마을은 청풍명월에 걸맞게 팽나무가 곳곳에 뿌리 깊게 자리 잡았다. 싱그러운 잎이 돋아날 때면, 카메라를 켜는 것만으로도 충분히 예쁜 봄의 풍경을 담아낼 수 있다. 빨강, 노랑, 연두 다양한 색으로 외벽을 물든 조천스위스마을은 봄과 가장 가까운 모습을 하고 있다. 이국적인 건물과 곳곳에 숨어있는 벽화와 포토존은 인생 사진 남기기 좋은 곳이다. 카페와 수공예품 상점 등 독특한 감성의 작은 가게를 구경하는 재미도 쏠쏠하다.◇ 봄바람에 흔들리는 튤립의 속삭임 : 상효원 튤립축제, 한림공원 튤립축제 ▲ &lt;사진=제주관광공사&gt; ⓒ헤드라인제주 살랑거리는 봄바람을 따라 일렁이는 튤립의 향기는 코끝을 맴돈다. 3월 1일부터 4월 8일까지 열리는 상효원 튤립축제에서는 600여 평 규모의 플라워 가든을 가득 채운 다양한 튤립을 만날 수 있다. 사랑을 뜻하는 빨간 튤립, 영원한 사랑을 의미하는 자주색 튤립 등 색깔마다 다양한 꽃말을 가진 튤립이 관람객들의 시선을 이끈다. 한림공원에서도 울긋불긋 다양한 종류의 튤립이 관람객을 맞이한다. 사랑하는 사람의 손을 잡고 아펠둔, 키스 넬리스, 로얄 버진 등 다양한 품종의 튤립이 만들어내는 꽃길을 걸어보자. 한림공원 튤립축제는 3월 말부터 시작돼 4월 중순까지 진행된다. 추운 겨울을 이겨낸 튤립은 따듯할수록 꽃봉오리를 더 활짝 피워낸다. 만개한 튤립 꽃밭에서 가족과 함께 연인과 함께 즐거운 봄의 추억을 만들어 보자. ◇ 스치기만 해도 침샘을 자극하는 고소한 향기 : 제주서문공설시장 정육형식당 ▲ &lt;사진=제주관광공사&gt; ⓒ헤드라인제주 향긋한 봄나물로 입맛을 돋우는 것도 좋지만 고소한 향기로 잠들었던 입맛을 깨워보자. 제주 공항에서 10분 정도 거리에 위치한 제주서문공설시장에서 쫄깃하고 육즙이 풍부한 고기를 만날 수 있다. 제주에선 흑돼지와 제주 한우를 빼놓을 수 없는데, 제주서문공설시장은 그 고소한 맛을 제대로 맛볼 수 있는 곳이다. 정육점에서 품질 좋은 고기를 구매하고 마음에 드는 식당을 찾아 고기의 맛을 즐길 수 있다. 제주서문공설시장에서는 고기와 함께 제주의 숨은 맛도 즐길 수 있다. 품질 좋은 고기와 푸짐한 양 그리고 저렴한 가격은 제주도민과 관광객의 발길을 이끈다. 제주 최초의 정육형 식당이면서 육류소비특화시장인 제주서문공설시장에서 제주 흑돼지와 제주 한우의 진정한 맛을 즐겨보는 건 어떨까.제주관광공사 3월 추천 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 4.3 70주년 기념 다크투어리즘 상품 개발 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 4.3 70주년 기념 다크투어리즘 상품 개발 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 4.3 70주년 기념 다크투어리즘 상품 개발 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2018.02.20 16:22 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 4.3 70주년을 기념해 제주역사를 올바르게 인식할 수 있는 교육기회를 제공하고자 다양한 다크투어리즘 상품을 개발한다고 20일 밝혔다.우선 개별관광객을 대상으로 다양한 다크투어리즘 체험 프로그램을 운영하고 이벤트 및 홍보를 진행할 기획이벤트 업체를 오는 3월 6일까지 모집할 계획이다.또 제주도내 여행업체를 대상으로 4.3 등 다크투어 프로그램 상품개발을 유도하는 한편 체험프로그램 운영 업체를 지원할 방침이다.이밖에도 관광협회는 4.3 70주년 2018 제주방문의 해의 성공을 위해 언론매체 및 블로거 취재지원, 팸투어, 전국 박람회 참가 홍보관 운영, 수학여행 유치 홍보마케팅 지원사업 등을 추진할 계획이다.보다 자세한 사항은 제주관광협회 홈페이지 내 공고를 참고하거나 담당부서(064-741-8794)로 문의하면 확인할 수 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[초점Q]'효리네 민박' 4.3사건 다뤘다, 이효리 "제주도, 관광지지만 아픔이 있는 땅" - 스포츠Q(큐) × 전체기사 스포츠일반 전체 아마스포츠 농구 배구 골프 e스포츠‧게임 당구 테니스 격투기 경마·승마 미식축구 장애인스포츠 야구 전체 프로야구 해외야구 아마야구 리틀야구 축구 전체 K리그 대표팀 해외축구 아마축구 스포츠산업 전체 스포츠포럼 스포츠경영 스포츠정책 엔터테인먼트 전체 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 전체 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 여행‧레저 금융·부동산 IT·자동차 대회·행사 산업일반 뉴스&amp;이슈 전체 시사Q 이코노Q 토픽세상 오피니언 포토 전체 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 tvQ 전체 민기홍의 머니뭐니 랭킹 겸 차트 혹은 밸붕방지톡 UPDATED. 2022-10-11 12:44 (화) 기사검색 검색 스포츠 아마스포츠 농구 배구 골프 테니스 미식축구 격투기 장애인스포츠 e스포츠 경마 당구 야구 프로야구 해외야구 아마야구 리틀야구 축구 K리그 대표팀 해외축구 아마축구 스포츠산업 스포츠포럼 스포츠경영 스포츠정책 엔터 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 재테크·주거 대회·행사 뉴스&amp;이슈 시사Q 이코노Q 토픽세상 오피니언 포토 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 로그인 회원가입 RSS SNS 트위터 페이스북 블로그 스포츠Q 포스트 카카오스토리 플러스친구 매거진SQ 포스트 유튜브 네이버TV 이전 다음 [초점Q]'효리네 민박' 4.3사건 다뤘다, 이효리 "제주도, 관광지지만 아픔이 있는 땅" 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 엔터테인먼트 방송·TV [초점Q]'효리네 민박' 4.3사건 다뤘다, 이효리 "제주도, 관광지지만 아픔이 있는 땅" 이현석 기자 승인 2018.02.19 08:40 댓글 0 기사공유하기 페이스북 트위터 카카오스토리 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [스포츠Q(큐) 이현석 기자] ‘효리네 민박’을 찾은 손님의 4.3 기념관 방문에 '애월댁' 이효리가 제주의 슬픈 역사를 짚어냈다. 이효리는 관광지 제주도를 “아픔이 있는 땅”이라고 이야기했다.18일 오후 방송된 JTBC '효리네 민박2’에서는 자매 손님들이 너븐숭이 4.3 기념관을 방문하는 장면이 그려졌다. 모르고 지났던 제주의 아픔을 마주할수 있는 시간이었다. ‘효리네 민박’을 찾은 손님의 4.3 기념관 방문에 '애월댁' 이효리가 제주의 슬픈 역사를 짚어냈다. [사진 = JTBC ‘효리네 민박 2’ 방송 화면 캡처] 이들이 찾은 4.3 기념관은 제주 4.3 사건 당시 목숨을 잃은 북촌리 주민 443명을 포함한 희생자들을 추모하기 위한 기념관이다. 제주 4.3 사건은 1947년 3월 1일을 기점으로 1948년 4월 3일부터 1954년 9월 21일까지 제주도에서 발생한 무력충돌과 그 진압과정에서 주민들이 희생당한 사건을 말한다.이날 방송에서 자매 손님들은 올레길 산책 도중 너븐숭이 4.3 기념관을 방문했다. 이들은 해설사와 유적지를 동행하며 북촌리 주민들이 피신했다고 알려진 ‘인공 동굴’과 희생된 어린아이들의 무덤인 ‘애기무덤’ 등을 찾았다. ‘애기무덤’에는 추모객들이 아이들을 위해 남기고 간 물건들로 가득했다. 자매 손님들은 무덤 앞에서 안타까운 표정을 보이며 시청자들에게 슬픔을 전했다.기념관에서 돌아온 자매 손님들은 회장님 이효리에게 낮에 방문한 제주의 비극적인 역사에 대해 말문을 열었다. “우리가 역사에 무지한 것도 무의식적으로 역사를 학살해버리는 것”이라며 4.3 기념관을 방문한 소감을 밝혔다.이런 역사가 아직  많이 알려지지 않았다는 손님의 말에 이효리는 영화 '지슬 - 끝나지 않은 세월2’ (Jiseul, 2012) 이야기를 꺼내기도 했다. 이효리는 ‘지슬’이 감자의 제주 방언이라고 설명하며 4.3 사건 당시 피신해 살던 주민들이 감자로 끼니를 떼우던 아픔이 녹아있음을 전했다. “우리는 제주도에서 먹고 놀기만 했다”는 다른 손님의 농담섞인 발언에 이효리는 “우리도 그래, 사실은”이라며 허심탄회하게 답했다. 역사에 대한 무지함을 인정하는 게 역사를 알아가는 첫 단계라는 것을 암시하는, 짧지만 굵직한 말이었다.‘핫 플레이스’가 된 제주의 슬픈 역사는 최근 방송에서 종종 다뤄졌다. 지난해 11월 방송된 tvN '알쓸신잡 (알아두면 쓸데없는 신비한 잡학사전) 2' 제주편에서는 황교익을 비롯한 출연자들이 제주 4.3 사건에 대해 진중한 이야기를 나누는 모습이 방송되기도 했다. 탁 트인 경치, 에메랄드 빛 바다, 풍성한 먹거리, 유명 연예인의 카페까지. ‘핫 플레이스’ 제주도에는 보고 싶은 것이 많다. 하지만 ‘효리네 민박’을 찾은 한 손님의 말마따나 우리가 들어야 할 이야기도 많다. “‘알아야 될 걸 모르고 그냥 살았구나’라고 느낀거냐”는 이효리의 무덤덤한 물음은 제주도를 ‘관광지’로만 찾는 우리 모두에게 향해 있었다. Tag #효리네 민박 #효리네 민박2 #이효리 도전과 열정, 위로와 영감 그리고 스포츠큐(Q) 저작권자 © 스포츠Q(큐) 무단전재 및 재배포 금지 트윗하기 이현석 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 인기기사 채팅 만남 男에게 수면제 먹이고 코인 빼돌린 간큰 女 대통령의 관심사, 토르티야 가격 내년 건강보험료율 인상, 직장인 얼마나 더 내나 지구는 대체 얼마나 아픈 걸까? 기후변화 심각 'TV 필수'라 생각하는 국민 비율 얼마나 될까 주요기사 이대호라서... 이런 은퇴식 또 있을까? 이대호라서... 이런 은퇴식 또 있을까? '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 포토Q [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 영탁 '품격있는 인사' [포토Q] 영탁 '품격있는 인사' [포토Q] 나나 '시선 끄는 타투' [포토Q] 나나 '시선 끄는 타투' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 오늘의 인기기사 스포츠 연예 라이프 1'피겨왕자' 차준환, 챌린저 쇼트 1위보다 기쁜 건? 21픽 신호진, OK금융이 그리는 미래는? [프로배구] 3넥슨 '블루 아카이브' 아트북, 일본 아마존 도서 흥행 돌풍 4엔씨소프트, '2022 글로벌 리크루팅' 온라인 설명회 진행 5넷마블, 2022년 3분기 '대한민국 100대 브랜드' 선정 6컴투스 '서머너즈 워' 뉴욕 코믹콘 출격, 글로벌 팬 만난다 7위메이드 'Gold Club' 온보딩 계약, 위믹스 생태계 확장 본격화 8위메이드, 단기 금융거래 플랫폼 CLST 전략적 시드 투자 9우즈 오버랩 김주형, 얼마나 대단하냐면 [PGA] 10컴투스 글로벌 콘텐츠문학상, 선호 장르-대세 주제는? 1염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 2정직한후보2, 김진태 도지사 글 때문에 '난감' 3남궁민 '치트키', 천원짜리 변호사 OTT도 1위! 4지코, '새삥'으로 음원차트 독주 시작 [Q차트] 5세븐틴 이어 블랙핑크도… '더블 밀리언셀러' 시대 온다 6평창·강릉 다음은 부천? 사라지는 지역영화제 7예능·드라마 공세…디즈니+, 구독자 몰이 나선다 8당당함 무기로, '4세대 걸그룹' 10월 컴백 대전 9'경북대 축제 논란' 아이브, 전말 밝혀졌다 10"안 할 이유 없었다" 김혜수는 왜 '슈룹'을 택했을까 [SQ현장] 1광양 아파트 분양, 용강지구 푸르지오 센터파크 2슈퍼주니어 이특·신동, 쿠팡라이브 출연…제품 개발 참여까지 3롯데건설, 지능형 스마트 계측기술 개발한다 4CJ올리브영 '즐거운 동행', K뷰티 유망주 찾는다 5"미래성장동력 육성" 콜마그룹, 2500억원 투자 펀드 참여 6배스킨라빈스 플래그십 스토어, 부산행 7식품업계 트렌드, 가심비 잡는 프리미엄화 8교원그룹 '데모데이' 성료, 유망 스타트업 8곳 소개 9'백해무익' 담배, 태워서 발생하는 문제점은? 10BBQ, 오클라호마 진출... 미국 20번째 주 최신뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 디케이 유 '훈남 무술가' [포토Q] 디케이 유 '훈남 무술가' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' 포토뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 회사소개 취재요청 독자투고 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 금천구 서부샛길 606 (대성디폴리스지식산업센터) A-1702호 대표전화 : 02-6959-1222 청소년보호책임자 : 이두영 법인명 : (주)와이케이미디어 제호 : 스포츠Q(큐) 등록번호 : 서울 아 02891 등록일 : 2013-11-18 발행일 : 2013-11-18 발행·편집인 : 이두영 스포츠Q(큐) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 스포츠Q(큐). All rights reserved. 기사문의 · 제보 : webmaster@sportsq.co.kr 광고문의 : biz@sportsq.co.kr 위로</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회장 4선 연임 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 김영진 제주도관광협회장 4선 연임 입력 : 2018-02-19 03:00:00 수정 : 2018-02-18 13:42:12 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 김영진 제주도관광협회 회장(왼쪽에서 두번째)이 지난 13일 34대 회장 당선증을 받고 기념촬영하고 있다. 제주도관광협회 제공 김영진(51) 제주도관광협회 회장이 4선 연임에 성공했다. 18일 제주도관광협회에 따르면 지난 13일 열린 정기 대의원총회에서 회장 선거에 단독 출마한 김영진 회장이 참석 대의원 110명의 만장일치로 34대 제주도관광협회 회장에 당선됐다. 김영진 회장은 “고질적인 제주관광의 체질 혁신에 능동적으로 움직이고, 급변하는 관광환경에 대응할 수 있는 지원체계를 마련하겠다”며 “업계의 걸림돌로 작용하는 각종 불합리한 규제를 발굴하고 개선해 나가겠다”고 말했다. 김 회장은 “신용사업을 추진해 경영 안정자금을 지원하고 수익금을 회원사 지원사업에 재투자하는 등 회원사 권익 향상에 노력하겠다”고 밝혔다. 2011년 2월 제31대 제주도관광협회 회장 보궐선거에 당선된 김 회장은 이번 당선으로 4선 연임과 함께 오는 2021년 2월까지 회장직을 맡게 된다. 관광협회 정관상 회장 연임 제한규정은 없고, 회장 임기는 3년이다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20180218001165 0101070100000 0 2018-02-19 3:2:52 2018-02-18 13:42:12 0 김영진 제주도관광협회장 4선 연임 Cube 임성준 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도, 512개 관광사업체 대상 화재 취약시설 안전점검 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 512개 관광사업체 대상 화재 취약시설 안전점검 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 512개 관광사업체 대상 화재 취약시설 안전점검 기자명 고병수 기자 입력 2018.02.18 10:49 수정 2018.02.18 11:24 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 관광사업체 등 다중이용시설에 대한 화재 취약시설 안전진단을 위한 현장점검을 실시해 화재 및 안전사고를 사전에 예방해 나갈 계획이라고 18일 밝혔다.道는 2018년도 국가안전대진단 일환으로 다중이용시설 관광사업체에 대해 안전점검 추진계획을 수립해 3월 30일까지 관광진흥법상의 유원시설, 야영장, 관광숙박시설 등 관광사업체 512개소에 대해 안전진단을 실시할 계획이다.  512개 관광사업체 중 유원시설 58개, 야영장 47개, 관광숙박시설 407개 등이다.지난 2월 13일에는 道 단위 민·관합동 점검반을 6명으로 꾸려 제주시내 관광숙박시설 3개소에 대해 화재예방을 위한 시설물의 구조적 안전상황 및 안전규정 준수여부, 안전관리 체계 등 현장점검을 실시했다.현장점검에는 건축, 소방, 전기 등 화재 발생위험이 없는지를 살펴보고 화재 및 안전사고가 발생하지 않도록 종사자 교육을 당부했다.행정시에서는 자체 점검반을 꾸려 행정시별 유원시설, 야영장, 관광숙박시설 합동점검 및 자체점검을 실시할 계획이다. 행정시 단위 민관합동점검반은 유원시설업, 야영장업에 대해 화재 등 안전사고 취약한 등록야영장 20% 이상 자체 선정하고 관광숙박업은 시설노후, 화재 및 붕괴 취약 관광숙박 시설을 자체적으로 5% 이상 선정해 합동 점검할 계획이며, 나머지 시설은 자체 점검할 계획이다.점검결과 현장에서 시정 가능한 사항은 관리주체가 즉시 시정토록 조치하고, 시설물의 재해 및 재난 예방과 안정성 확보 등을 위해 필요한 경우 안전진단 전문기관에 의한 정밀안전진단을 실시할 예정이다.중대한 결함이나 위험요인 발견시 재난방지를 위한 신속한 보수·보강, 사용제한, 사용금지, 철거, 대피명령, 위험구역 설정 등 긴급  안전조치를 시행해 나갈 계획이다.관계자는 "관광숙박시설에 대한 안전진단은 우리사회 전반의 안전관리 실태를 점검하고 진단하는 예방 활동으로 도민의 안전관리에 대한 관심과 관광사업체의 자발적인 참여가 무엇보다 필요하다"며 "안전점검을 통해 화재 및 안전 취약요인을 사전에 개선해 나가겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광꿈나무 인재양성..학교관광교육 본격 운영 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광꿈나무 인재양성..학교관광교육 본격 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광꿈나무 인재양성..학교관광교육 본격 운영 기자명 고병수 기자 입력 2018.02.18 10:47 수정 2018.02.18 11:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 교육청․유관기관․단체 등과 상호협력...관광친절 중심 학교 교육 시동 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 제주지역 학생들의 관광산업에 대한 이해와 관광의 중요성에 대한 교육을  위해 학교관광교육 워킹그룹을 구성·운영한다고 18일 밝혔다. 지난해 12월 수립한 제주특별자치도 관광교육 종합계획에는 관광유관기관․단체 등과 상호협력, 관광친절 중심의 학교 교육을 본격 실시하도록 제시한바 있다.학교관광교육 워킹그룹 구성은 道 2명, 학계 3명, 교육청 6명, 관광공사 1명, 관광협회 1명, 평생교육원 1명, 전문가 2명 등 총 16명으로 구성됐다.워킹그룹은 학교교육 현장의 의견을 최대한 수렴하고 실제로 학교에서 진행하는 교육에 ‘관광 꿈나무 인재양성사업’을 접목시키는 교육프로그램 개발 등에 대한 수립․자문 역할 등을 충실히 수행한다.초등학교 때부터 학교 관광교육 활성화 관련 사업(관광교육 선도학교 운영에 관한 사항, 현장체험학습 프로그램 개발, 교과과정에서의 관광교육 강화, 학교관광교육 교재 개발‧보급‧운영 등) 및 학교 관광교육을 위한 필요사항 등 자문도 함께 해나갈 계획이다. 이를 통해 제주의 관광산업 및 관련 직업에 대한 이해도를 한층 더 높혀 미래의 관광 전문인력 양성과 도민․관광객 등이 다함께 만족하는 관광산업 질적 성장 기반을 착실히 구축하는 데 뒷받침할 것으로 기대되고 있다.관계자는 "제주도는 관광산업이 차지하는 비중이 매우 높으며 관광산업의 양적성장에서 질적성장으로 미래지향적인 트렌드 변화가 필요한 실정”이라며 “제주관광 꿈나무 인재양성을 위한 교육을 본격 실시해 나갈 계획"이라고 했다.또한 "학교관광교육 워킹그룹을 구성 운영해 제주 미래의 관광 전문인력 양성, 학교 관광교육 활성화 및 제주관광질적성장 기반 구축에 마중물 역할을 할 수 있을 것”이라며 “그 소임을 다할 수 있도록 지원을 아끼지 않겠다"고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 설 연휴 관광대책 종합상황실 운영 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 설 연휴 관광대책 종합상황실 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도, 설 연휴 관광대책 종합상황실 운영 기자명 이소진 기자 입력 2018.02.17 09:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도는 오는 18일까지 설 연휴기간 동안 15만7000여명의 관광객이 제주를 찾을 것으로 예상되는 가운데 내도 관광객의 불편사항을 해소하기 위해 관광대책 종합상황실을 운영한다고 17일 밝혔다.관광대책 종합상황실은 도 관광정책과가 총괄하며, 도, 행정시, 유관기관 합동, 5개 반으로 편성됐다. 주로 제주국제공항과 여객터미널, 제주관광정보센터 등에서 관광안내 및 관광불편신고 접수·처리 등을 진행한다. 종합상황반인 도 관광정책과는 내·외국인 등 관광객 내도현황 파악, 관광지 불편신고 사항 접수·처리, 그리고 기상이변 시 공항 체류객 종합관리 등을 추진해 나갈 예정이다.특히 제주관광공사는 관광정보센터(☏ 740-6000)를 운영해 관광객 교통편·숙박 및 관광지 안내와 관광불편사항 접수 처리 등을 추진하며, 행정시에서도 이를 위한 관광 상황반을 운영할 계획이다.카지노반은 연휴기간 동안 카지노업체 현장 방문 지도 감독 및 이용객 불편사항 신고 접수 처리 등을 실시한다.도 관계자는 "설 연휴 관광대책 종합상황실 운영을 통해 제주도를 찾는 귀성객과 관광객들의 불편을 최소화하고, 편안한 설 연휴를 즐길 수 있도록 만전을 기할 계획"이라고 밝혔다. 이소진 기자 lllrayoung@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 동백꽃 군락지, 2월 가볼만한 곳 눈길! 제주관광공사가 추천하는 선흘곶자왈동백동산 위미리도 요즘 뜨거운 여행지 - 스포츠Q(큐) × 전체기사 스포츠일반 전체 아마스포츠 농구 배구 골프 e스포츠‧게임 당구 테니스 격투기 경마·승마 미식축구 장애인스포츠 야구 전체 프로야구 해외야구 아마야구 리틀야구 축구 전체 K리그 대표팀 해외축구 아마축구 스포츠산업 전체 스포츠포럼 스포츠경영 스포츠정책 엔터테인먼트 전체 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 전체 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 여행‧레저 금융·부동산 IT·자동차 대회·행사 산업일반 뉴스&amp;이슈 전체 시사Q 이코노Q 토픽세상 오피니언 포토 전체 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 tvQ 전체 민기홍의 머니뭐니 랭킹 겸 차트 혹은 밸붕방지톡 UPDATED. 2022-10-11 12:44 (화) 기사검색 검색 스포츠 아마스포츠 농구 배구 골프 테니스 미식축구 격투기 장애인스포츠 e스포츠 경마 당구 야구 프로야구 해외야구 아마야구 리틀야구 축구 K리그 대표팀 해외축구 아마축구 스포츠산업 스포츠포럼 스포츠경영 스포츠정책 엔터 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 재테크·주거 대회·행사 뉴스&amp;이슈 시사Q 이코노Q 토픽세상 오피니언 포토 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 로그인 회원가입 RSS SNS 트위터 페이스북 블로그 스포츠Q 포스트 카카오스토리 플러스친구 매거진SQ 포스트 유튜브 네이버TV 이전 다음 제주도 서귀포 동백꽃 군락지, 2월 가볼만한 곳 눈길! 제주관광공사가 추천하는 선흘곶자왈동백동산 위미리도 요즘 뜨거운 여행지 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 라이프 제주도 서귀포 동백꽃 군락지, 2월 가볼만한 곳 눈길! 제주관광공사가 추천하는 선흘곶자왈동백동산 위미리도 요즘 뜨거운 여행지 이두영 기자 승인 2018.02.15 22:40 댓글 0 기사공유하기 페이스북 트위터 카카오스토리 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [스포츠Q(큐) 이두영 기자] 벌써 전국 이곳저곳서 봄꽃 소식이 들려온다. 매화,동백,복수초,노루발풀 꽃 등 나무꽃과 야생화 등은 엄동설한이 얼마 남지 않았음을 입증한다. 봄이 가장 먼저 오는 길목은 제주도다. 곧 유채꽃이 노랗게 피어 날 참이다.2018년 봄을 앞두고 제주관광공사가 추천하는 베스트 여행지 10선 중 화산섬 제주만이 갖고 있는 매혹적인 자연경관 5곳을 꼽아본다. 선흘 동백동산.&lt;제주관광공사 제공&gt; ＃1. 봄내음 가득한 옛 동네-제주특별자치도 서귀포시 서홍동1세기 전, 제주도에서 가장 먼저 온주밀감을 생산한 마을로 알려진 곳이 서홍동이다. 옛 흔적이 느껴지는 돌담과 집들, 서귀포 시내가 조망되는 탁 트인 분위기가 방문자의 기분을 한껏 고조시킨다. 들렁모루 정상까지 올라가면 일상의 묵은 때가 싹 씻겨나가는 듯한 홀가분한 기분을 느낄 수 있다.＃2. 동족상잔의 비극을 담은 기생화산-서귀포시 대정읍 상모리 섯알오름송악산 북쪽에는 오름 3개가 형성돼 있다. 동알오름,셋알오름,섯알오름이 동쪽부터 서쪽으로 늘어서 있다. 섯알오름 꼭대기에는 일제강점기에 사용한 고사포 진지가 있고 그 남쪽 언저리에는 제주 4.3사건의 비극이 묻어 있는 학살터가 있다.섯알오름의 전망은 엽서의 한 장처럼 아름답다. 최남단 섬인 마라도가 손에 잡힐 듯 다가선다. 곤을동이 포함된 올레길은 사색과 낭만이 함께하는 걷기코스다. 4.3사건 때 집이 전부 불에 타 버렸던 무등이왓까지 거닐다 보면 두 시간 정도의 겨울 한낮이 후딱 지나간다. ＃3. 제주도 유채꽃의 최고 명소-산방산, 섭지코지, 성산일출봉세계자연유산으로 제주의 핵심여행지인 성산일출봉을 위시해 해돋이 명소인 섭지코지와 제주 서쪽의 산방산 및 용머리해안은 3,4월 가볼만한 곳으로 늘 추천되는 대중적 여행지다.이런 곳은 눈이 남아 있는 2월에도 봄기운을 미리 전해준다. 유채 경작지가 가장 넓고, 바다와 어우러지는 유채꽃밭 주변의 환경이 아름답기 때문이다. ＃4. 봄여름 가을 겨울 맑은 물이 흐르는 개천-서귀포시 강정동 강정천제주도 한라산 주변에 발달한 개천들은 거의가 물이 땅속으로 스며드는 특성이 있다. 이에 비해 강정천은 설악산이나 지리산 골짜기의 계곡물처럼 물이 외부에서 계속 흘러 바다로 향한다.강정천 주변에는 바위 낭떠러지와 오랜 세월 묵은 소나무들이 어우러져 경치가 좋다. 개천물이 육지를 떠나기 전 망망대해를 향해 폭포수가 되어 떨어지는 광경은 이곳 비경의 화룡점정이다. 이를 감상하는 여행자들의 탄성은 앞 바다의 범섬에 낙조가 물들 때 절정을 이룬다.＃5. 동백꽃 군락지-제주시 조천읍 선흘곶 동백동산선흘1리는 화산섬 제주의 지질학적 특성이 고스란히 드러나는 곳이다. 선흘 동백동산의 동백나무는 꽃이 6월이 되도록 피지만 다른 상록수림이 밀집한 까닭에 꽃의 개수는 적은 편이다. 그러나 1만년 전부터 형성된 용암대지에 우거진 신비로운 숲은 원시림의 향기를 짙게 풍겨 탐방객들의 발걸음을 가볍게 한다. 먼물깎이라 불리는 람사르 습지에는 온갖 희귀한 생물이 서식하는 생태계 보고여서 찾는 이의 눈과 후각을 즐겁게 한다. 동백꽃은 개화하는 시기가 매우 길어서 한겨울부터 초여름까지도 볼 수 있다. 가장 많이 피는 시기는 3월이다.한편 요즘 제주도를 데이트코스 삼아 1박2일 정도로 여행하는 커플들이 필수코스로 즐겨 찾는 장소가 위미리 동백군락지다. 동백나무가 자생하는 것이 아니라 40여 년 전에 식재된 동백나무가 우아하게 성장해 장관을 펼쳐 보인다.횟집 맛집으로는 위미항 활어센터가 있다. 1층에서 횟감을 골라서 2층으로 가서 먹을 수 있다. Tag #2월여행지추천 #제주동백군락지 #서귀포가볼만한곳 #산방산 #섭지코지 #성산일출봉 #동백꽃개화시기 #제주도동백꽃 #선흘동백동산 #위미리맛집 도전과 열정, 위로와 영감 그리고 스포츠큐(Q) 저작권자 © 스포츠Q(큐) 무단전재 및 재배포 금지 트윗하기 이두영 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 인기기사 채팅 만남 男에게 수면제 먹이고 코인 빼돌린 간큰 女 대통령의 관심사, 토르티야 가격 내년 건강보험료율 인상, 직장인 얼마나 더 내나 지구는 대체 얼마나 아픈 걸까? 기후변화 심각 'TV 필수'라 생각하는 국민 비율 얼마나 될까 관련기사 강원도 원주의 가볼만한 곳으로 급부상한 소금산 출렁다리 요즘 주말마다 대박! 소금산 등산코스 이용하면 3시간 소요...입장료는 없으며 3월부터 주차장 요금 2천원 징수 스파, 눈꽃 설경, 송어·잉어축제 등 겨울여행 막바지, 2월에 가볼만한 국내여행지 베스트10은 태백산눈축제 한라산 수안보온천 등...덕유산 곤돌라 주말이용은 예약 필수 강릉 푸드페스티벌 덕분에 초당두부밥상등 특선음식10선과 초당순두부마을, 정동심곡바다부채길 등 가볼만한 곳! 서울서 KTX·고속버스로 경포대 해돋이 여행지까지 순식간에 지금은 스카이워크 전성시대! 시설 별나고 전망 아찔해 전국 가볼만한 곳으로 인기, 춘천소양강·단양만천하·정선병방치·부산송도·오륙도·장항스카이워크 외 목포 여수도 추진 눈내린 겨울에도 인기 많은 강원도 인제 원대리 자작나무숲, SBS 집사부일체에 최불암 이승기 등 방문해 시선집중... 2시간 걷기코스로 카메라 들고 가볼만한 추천여행지로 엄지척 봄꽃소식 들리는 전남 고택숙박체험 여행지 요즘 가볼만한 곳으로 추천! 나주남파고택, 강진달빛한옥마을, 보성목인당 등 고택숙소와 한옥 게스트하우스도 눈길 시락국 먹고 파이팅! 경남 통영 맛집으로 추천되는 명소 중앙시장과 서호시장, 통영항 여객선터미널과 게스트하우스 펜션 모텔 등 숙소 많고 동피랑벽화마을 굴삼합 식당까지 대관령눈꽃축제에 눈조각전시장 눈썰매장 등 볼거리 많고 평창송어축제2018 티켓 소지자는 입장료 20%할인, 황태·한우 맛집 많고 날씨도 좋아 강원도 가볼만한곳으로 추천! 제주도의 숨은 여행명소 ‘환상숲 곶자왈공원’ 겨울 2월에도 잎이 파릇! 인근에 바다전망 좋은 게스트하우스, 해물짬뽕맛집과 신창~차귀 해안도로 드라이브코스에 노을까지 제주도 한림공원 매화축제 한창! 3월튤립· 4월왕벚꽃 등 개화시기 맞춰 축제 잇따라, 제주시~애월읍~협재해수욕장~수월봉~모슬포 해안도로는 맛집과 펜션 즐비한 황금 여행코스 주요기사 이대호라서... 이런 은퇴식 또 있을까? 이대호라서... 이런 은퇴식 또 있을까? '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 포토Q [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 영탁 '품격있는 인사' [포토Q] 영탁 '품격있는 인사' [포토Q] 나나 '시선 끄는 타투' [포토Q] 나나 '시선 끄는 타투' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 오늘의 인기기사 스포츠 연예 라이프 1'피겨왕자' 차준환, 챌린저 쇼트 1위보다 기쁜 건? 21픽 신호진, OK금융이 그리는 미래는? [프로배구] 3넥슨 '블루 아카이브' 아트북, 일본 아마존 도서 흥행 돌풍 4엔씨소프트, '2022 글로벌 리크루팅' 온라인 설명회 진행 5넷마블, 2022년 3분기 '대한민국 100대 브랜드' 선정 6컴투스 '서머너즈 워' 뉴욕 코믹콘 출격, 글로벌 팬 만난다 7위메이드 'Gold Club' 온보딩 계약, 위믹스 생태계 확장 본격화 8위메이드, 단기 금융거래 플랫폼 CLST 전략적 시드 투자 9우즈 오버랩 김주형, 얼마나 대단하냐면 [PGA] 10컴투스 글로벌 콘텐츠문학상, 선호 장르-대세 주제는? 1염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 2정직한후보2, 김진태 도지사 글 때문에 '난감' 3남궁민 '치트키', 천원짜리 변호사 OTT도 1위! 4지코, '새삥'으로 음원차트 독주 시작 [Q차트] 5세븐틴 이어 블랙핑크도… '더블 밀리언셀러' 시대 온다 6평창·강릉 다음은 부천? 사라지는 지역영화제 7예능·드라마 공세…디즈니+, 구독자 몰이 나선다 8당당함 무기로, '4세대 걸그룹' 10월 컴백 대전 9'경북대 축제 논란' 아이브, 전말 밝혀졌다 10"안 할 이유 없었다" 김혜수는 왜 '슈룹'을 택했을까 [SQ현장] 1광양 아파트 분양, 용강지구 푸르지오 센터파크 2슈퍼주니어 이특·신동, 쿠팡라이브 출연…제품 개발 참여까지 3롯데건설, 지능형 스마트 계측기술 개발한다 4CJ올리브영 '즐거운 동행', K뷰티 유망주 찾는다 5"미래성장동력 육성" 콜마그룹, 2500억원 투자 펀드 참여 6배스킨라빈스 플래그십 스토어, 부산행 7식품업계 트렌드, 가심비 잡는 프리미엄화 8교원그룹 '데모데이' 성료, 유망 스타트업 8곳 소개 9'백해무익' 담배, 태워서 발생하는 문제점은? 10BBQ, 오클라호마 진출... 미국 20번째 주 최신뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 디케이 유 '훈남 무술가' [포토Q] 디케이 유 '훈남 무술가' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' 포토뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 회사소개 취재요청 독자투고 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 금천구 서부샛길 606 (대성디폴리스지식산업센터) A-1702호 대표전화 : 02-6959-1222 청소년보호책임자 : 이두영 법인명 : (주)와이케이미디어 제호 : 스포츠Q(큐) 등록번호 : 서울 아 02891 등록일 : 2013-11-18 발행일 : 2013-11-18 발행·편집인 : 이두영 스포츠Q(큐) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 스포츠Q(큐). All rights reserved. 기사문의 · 제보 : webmaster@sportsq.co.kr 광고문의 : biz@sportsq.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 설 연휴 관광객 상황실 운영…15만7천명 방문예상 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 설 연휴 관광객 상황실 운영…15만7천명 방문예상 등록 2018.02.15 06:08:53 작게 크게 【제주=뉴시스】조수진 기자 = 항공 이용객으로 붐비는 제주국제공항. (사진=뉴시스DB)【제주=뉴시스】강정만 기자 = 제주특별자치도는 설 연휴를 맞아 제주를 찾는 관광객의 불편해소를 위해 도와 행정시, 유관기관이 합동으로 5개 반으로 편성해 참여하는 관광대책 종합상황실을 운영한다고 15일 밝혔다. 이 상황실은 15일부터 18일까지 도 관광정책과가 총괄하며 제주국제공항과 여객터미널, 제주관광정보센터 등에서 관광안내와 설맞이 환영 분위기 조성, 관광불편신고를 접수하고 처리한다. 종합상황반인 도 관광정책과는 내외국인 등 관광객 내도현황 파악, 관광지 불편신고 사항 접수와 처리,  기상이변 시 공항 체류객 종합관리 등을 추진한다. 제주관광공사는 관광정보센터(콜센터 740-6000)를 운영하여 관광객 교통편과 숙박, 관광지 안내와 관광불편사항 접수 처리 등을 추진하고, 행정시(관광진흥과)에서도 이를 위한 관광 상황반을 운영한다. 도관광협회는 제주국제공항과 제주항여객터미널에서 여행객에 대한 불편사항 해소 지원을 한다. 협회는 특히 관광객 맞이 친절·질서 분위기 조성을 위해 연휴 첫 날인 15일에는 공항과 여객터미널에서 환영 행사도 갖는다. 도는 이번 연휴기간 동안 15만7000여명의 관광객이 제주를 찾을 것으로 예상하고 있다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 관련기사 원희룡 제주지사 공항·항만서 귀성·관광객 맞이 활동 이석주 제주항공 사장, 제주공항서 귀성객 맞이 활동 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, '관광꿈나무 양성' 학교관광교육 워킹그룹 본격 운영 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, '관광꿈나무 양성' 학교관광교육 워킹그룹 본격 운영 (제주=뉴스1) 이석형 기자					| 2018-02-15 11:38 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © News1 이석형 기자 제주도는 학생들이 관광산업을 이해하고 중요성을 인식을 위한 학교관광교육 워킹그룹을 구성·운영한다고 15일 밝혔다.지난해 12월 수립한 제주도 관광교육 종합계획(2018∼2020)은 관광유관기관·단체 등과 협력해 관광친절 중심의 학교 교육을 본격 실시하도록 하고 있다.이에 도는 교육청 관광공사와 관광협회, 전문가 등 16명으로 워킹그룹을 구성했다.  워킹그룹은 학교교육 현장의 의견을 최대한 수렴하고 실제로 학교에서 진행하는 교육에 ‘관광 꿈나무 인재양성사업’을 접목시키는 교육프로그램 개발과 자문 역할을 수행한다.현학수 도 관광정책과장은 “제주도는 관광산업이 차지하는 비중이 매우 높으며 관광산업의 양적성장에서 질적 성장으로 미래지향적인 트렌드 변화가 필요한 시점”이라며 “학교 관광교육은 제주관광질적성장 기반 구축에 마중물 역할을 할 수 있을 것”이라고 말했다. jejunews77@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>[3보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안 모텔서 숨진 채 발견 &lt; 법원·검찰·경찰 &lt; 사회 &lt; 기사본문 - 중부일보 - 경기·인천의 든든한 친구 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 경기·인천 뉴스의 중심 로그인 회원가입 2022-10-11 09:06 (화) 지면서비스 전체메뉴 버튼 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 지면보기 모바일보기 뉴스종합 정치 경제 사회 문화 스포츠 국제 지역 경기 사람들 인천 오피니언 라이프 기획취재 포토 검색하기 기사검색 검색 Trend news 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 6 [현장 24시] "일조·조망권 침해" VS "적법한 재산권 행사"…북수원패션아울렛 재건축 갈등 7 "8호선 의정부연장 조속히 해야"…김민철, 국정감사서 교통인프라 개선 촉구 8 [중부일보 사장배 유소년축구대회] 6학년 리그 우승 김지원 인천유나이티드 미추홀지부 감독 "아이들이 축구에 대한 흥미 잃지 않도록 노력" 9 공사비 오르는데 미분양 급증…경기도 건설업계 '죽을 맛' 10 '블랙, 세상의 빛을 담다'…의정부 BMF 21~22일 시청 앞 광장서 개최 ISSUE PICK 지역개발 우리동네 집값·땅값은 TV중부 뉴스를 본다 교육이 미래다 교육의 현장속으로 팩트인사이드 오직 사실! 다문화뉴스 우리 곁에 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 더보기 본문영역 서울 12℃  맑음 미세먼지 경기 14℃  맑음 미세먼지 인천 14℃  맑음 미세먼지 이전 기사보기 다음 기사보기 [3보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안 모텔서 숨진 채 발견 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 법원·검찰·경찰 [3보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안 모텔서 숨진 채 발견 기자명 홍지예 입력 2018.02.14 16:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 닫기 [3보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안 모텔서 숨진 채 발견	제주 게스트하우스 관광객 살인사건 용의자 한정민(32)이 14일 충남 천안시 한 모텔에서 숨진 채 발견됐다.제주지방경찰청에 따르면 이날 오후 3시 1분께 천안 동남구 신부동 한 모텔 목욕탕에서 한씨가 목을 매 숨져 있는 것을 모텔 주인이 발견, 경찰에 신고했다.모텔 주인이 한씨가 퇴실 시간이 지났는데도 나오지 않자 문을 열고 들어갔다가 발견했다.경찰은 소지품 중 주민등록증으로 신원을 확인했고, 지문 감정 등도 진행할 예정이다.한씨는 지난 12일 오후 4시 35분께 이 모텔에 투숙했다.한씨는 지난 10일 오후 경찰 수사망을 피해 제주를 빠져나간 후 11일까지 서울 신림동과 경기 안양, 수원 등지에서 행방이 잡혔다. 그 이후엔 행방이 묘연했다.한편 지난 11일 낮 한씨가 관리인으로 있는 제주시 구좌읍의 한 게스트하우스에서 투숙한 여성관광객 A(26)씨가 목이 졸려 숨진 채 발견됐다.경찰은 한씨가 A씨를 살해한 것으로 보고 쫓아왔다. 홍지예기자/ 페이스북 지면신문보기 다른기사 보기 홍지예 기자 hjy@joongboo.com 저작권자 © 중부일보 - 경기·인천의 든든한 친구 무단전재 및 재배포 금지 로그인하면 내지역 뉴스와 원본 지면을 보실 수 있습니다. 회원가입 로그인 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 기사 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 PREMIUM로컬프리미엄 고양시 인천동구의회 인천동구 과천시 광명시 안양시 파주시 화성시 안성시 양평군 오산시 의정부시 여주시 안산시 이천시 의왕시 군포시 평택시 구리시 용인시 광주시 눈여겨 볼만한 개발정보 GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 인천시, 재개발사업 희망지 공모…10개소 이내 구역지정 인천 2호선 김포 감정동·걸포북변·시네폴리스 3개역 신설 검토 오늘의 헤드라인 고양 탄현동·인천 부평구 등 전세보증사고 속출 올해 들어 고양 탄현동·인천 부평구·서울 화곡동 등지에서 집주인이 세입자의 전세보증금을 돌려주지 못한 전세 보증 사고가 집중됐던 것으로 나타났다.특히 고양 탄현에서 발생한 전세 보... GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 "실효성 없는 학생 자가진단 앱 언제까지 해야 하나" 불만 폭증 부담스런 점심시간…김밥 1줄 3천원 시대 로컬 인사이드 경기도 유물여행 한겹 한겹 덧칠 걷어내니 호성공신의 위엄이 돌아왔다 우리동네 책방여행 시 창작회·음악회 함께 즐기며 '생태주의 공유'…용인 '반달서림' 인문기행-경기도의 전통사찰 꺽정불 찾아 수능 대박 기원해볼까…안성 칠장사 하단영역 경기·인천의 든든한 친구 뉴스 지역종합 오피니언 라이프 기획취재 포토 TV중부 매체정보 경기도 수원시 팔달구 권선로 733 (인계동) 중부일보 문의전화 : 031-230-2114 팩스 : 031-233-3010~1 인천본사 : 인천광역시 남동구 구월남로 148 타워플러스 603호 TEL : 032) 437-0081 FAX : 032) 437-0085 중부일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 중부일보 - 경기·인천의 든든한 친구. All rights reserved. mail to webmaster@joongboo.com 위로 전체메뉴 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 오늘의운세 별자리운세 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[2보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안서 숨진 채 발견 &lt; 법원·검찰·경찰 &lt; 사회 &lt; 기사본문 - 중부일보 - 경기·인천의 든든한 친구 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 경기·인천 뉴스의 중심 로그인 회원가입 2022-10-11 09:06 (화) 지면서비스 전체메뉴 버튼 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 지면보기 모바일보기 뉴스종합 정치 경제 사회 문화 스포츠 국제 지역 경기 사람들 인천 오피니언 라이프 기획취재 포토 검색하기 기사검색 검색 Trend news 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 6 [현장 24시] "일조·조망권 침해" VS "적법한 재산권 행사"…북수원패션아울렛 재건축 갈등 7 "8호선 의정부연장 조속히 해야"…김민철, 국정감사서 교통인프라 개선 촉구 8 [중부일보 사장배 유소년축구대회] 6학년 리그 우승 김지원 인천유나이티드 미추홀지부 감독 "아이들이 축구에 대한 흥미 잃지 않도록 노력" 9 공사비 오르는데 미분양 급증…경기도 건설업계 '죽을 맛' 10 '블랙, 세상의 빛을 담다'…의정부 BMF 21~22일 시청 앞 광장서 개최 ISSUE PICK 지역개발 우리동네 집값·땅값은 TV중부 뉴스를 본다 교육이 미래다 교육의 현장속으로 팩트인사이드 오직 사실! 다문화뉴스 우리 곁에 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 더보기 본문영역 서울 12℃  맑음 미세먼지 경기 14℃  맑음 미세먼지 인천 14℃  맑음 미세먼지 이전 기사보기 다음 기사보기 [2보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안서 숨진 채 발견 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 법원·검찰·경찰 [2보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안서 숨진 채 발견 기자명 홍지예 입력 2018.02.14 16:12 수정 2018.02.14 16:41 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 닫기 [2보] 제주도 게스트하우스 여성관광객 살해용의자 한정민, 천안서 숨진 채 발견제주 게스트하우스 관광객 살인사건 용의자 한정민(32)이 14일 충남 천안시 한 모텔에서 숨진 채 발견됐다.제주지방경찰청에 따르면 이날 오후 3시 1분께 천안 동남구 신부동 한 모텔 목욕탕에서 한씨가 목을 매 숨져 있는 것을 모텔 주인이 발견, 경찰에 신고했다.한씨는 10일 오후 제주를 빠져나간 후 행방이 묘연했다. 이에 경찰은 지난 13일부터 공개수사로 전환했다. 홍지예기자/ 페이스북 지면신문보기 다른기사 보기 홍지예 기자 hjy@joongboo.com 저작권자 © 중부일보 - 경기·인천의 든든한 친구 무단전재 및 재배포 금지 로그인하면 내지역 뉴스와 원본 지면을 보실 수 있습니다. 회원가입 로그인 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 기사 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 PREMIUM로컬프리미엄 고양시 인천동구의회 인천동구 과천시 광명시 안양시 파주시 화성시 안성시 양평군 오산시 의정부시 여주시 안산시 이천시 의왕시 군포시 평택시 구리시 용인시 광주시 눈여겨 볼만한 개발정보 GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 인천시, 재개발사업 희망지 공모…10개소 이내 구역지정 인천 2호선 김포 감정동·걸포북변·시네폴리스 3개역 신설 검토 오늘의 헤드라인 고양 탄현동·인천 부평구 등 전세보증사고 속출 올해 들어 고양 탄현동·인천 부평구·서울 화곡동 등지에서 집주인이 세입자의 전세보증금을 돌려주지 못한 전세 보증 사고가 집중됐던 것으로 나타났다.특히 고양 탄현에서 발생한 전세 보... GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 "실효성 없는 학생 자가진단 앱 언제까지 해야 하나" 불만 폭증 부담스런 점심시간…김밥 1줄 3천원 시대 로컬 인사이드 경기도 유물여행 한겹 한겹 덧칠 걷어내니 호성공신의 위엄이 돌아왔다 우리동네 책방여행 시 창작회·음악회 함께 즐기며 '생태주의 공유'…용인 '반달서림' 인문기행-경기도의 전통사찰 꺽정불 찾아 수능 대박 기원해볼까…안성 칠장사 하단영역 경기·인천의 든든한 친구 뉴스 지역종합 오피니언 라이프 기획취재 포토 TV중부 매체정보 경기도 수원시 팔달구 권선로 733 (인계동) 중부일보 문의전화 : 031-230-2114 팩스 : 031-233-3010~1 인천본사 : 인천광역시 남동구 구월남로 148 타워플러스 603호 TEL : 032) 437-0081 FAX : 032) 437-0085 중부일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 중부일보 - 경기·인천의 든든한 친구. All rights reserved. mail to webmaster@joongboo.com 위로 전체메뉴 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 오늘의운세 별자리운세 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 게스트하우스 女관광객 살인 용의자 한정민 숨진채 발견 - 뉴스웨이 기업·경영 금융·증권 정치·경제 부동산 오피니언 ESG경영 기획·이슈 리포트 스토리 검색어 X 검색 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 bar_progress 제주도 게스트하우스 女관광객 살인 용의자 한정민 숨진채 발견 검색 닫기 X 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 제주도 게스트하우스 女관광객 살인 용의자 한정민 숨진채 발견 안민 기자 등록 2018.02.14 16:28 제주도 게스트하우스 女관광객 살인 용의자 한정민 숨진채 발견 사진=제주동부경찰서 제주 게스트하우스 관광객 살인사건 용의자 한정민(32)가 숨진채 발견됐다. 14일 제주지방경찰청에 따르면 이날 오후 3시 1분께 천안 동남구 신부동 한 모텔 목욕탕에서 한정민씨가 목을 매 숨져 있는 것을 모텔 주인이 발견, 경찰에 신고했다. 모텔 주인이 한정민씨가 퇴실 시간이 지났는데도 나오지 않자 문을 열고 들어갔다가 발견한 것으로 알려졌다. 경찰은 소지품 중 주민등록증으로 신원을 확인했고, 지문 감정 등도 진행할 예정이다. 한정민씨는 지난 12일 오후 4시 35분께 이 모텔에 투숙한 것으로 전해졌다. 한편 지난 11일 낮 한씨가 관리인으로 있는 제주시 구좌읍의 한 게스트하우스에서 투숙한 여성관광객 A(26)씨가 목이 졸려 숨진 채 발견됐다.경찰은 한정민씨가 A씨를 살해한 것으로 보고 쫓아왔다. 안민 기자 peteram@ &lt;저작권자 © 온라인 경제미디어 뉴스웨이 · 무단 전재 및 재배포 금지&gt; 주요뉴스 흥국생명의 '도 넘은 갑질'···설계사에게 나눠준 볼펜 값까지 급여에 반영 1호 빅테크 보험사 '카카오페이손보' 첫 상품···온라인 사기 보장 '금융안심보험' 창립 70주년 맞은 한화그룹···김승연 회장 "어제를 경계하고 늘 새로워져야" 증시서 사라지는 '코로나 이슈'···가스·배터리株만 웃었다 美경제학자 버냉키·다이아몬드·딥버그, 노벨경제학상 수상 영예 지배구조 더보기 동원산업·동원엔터프라이즈, 오늘 주총서 합병안 가결 ESG경영 더보기 추락하는 허연수號···GS리테일, '동반성장 최우수' 타이틀도 잃었다 실종아동찾기 뉴스웨이가 함께합니다. 이경미(여, 당시 만4세) 실종일자 : 1977/04/01 실종지역 : 부산광역시 연제구 카드뉴스+ 더보기 '과다 흡연, 연골 파괴, 여장까지···' 군대 안 가려고 이런 짓을? 뉴스웨이TV 더보기 'BBC 尹 풍자 영상' 튼 김경협 "한국 칭찬으로 보이나?" 박진 "영국 공식 입장은 달라" 회사소개 개인정보처리방침 이메일무단수집거부 청소년보호정책 윤리강령 고충처리 인재채용 전체 서비스보기 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 (주)뉴스웨이 서울특별시 용산구 한강대로 308, 7층 (갈월동, 한국정보통신공사협회) 등록번호 : 서울, 아00528 등록일자 : 2008.03.10 발행일자 : 2008.03.10 제호 : 뉴스웨이 회장 : 김종현 발행인 · 편집인 : 강 혁 편집국장 : 황의신 청소년보호책임자 : 안 민 Tel : 02. 799. 9700 Fax : 02. 799. 9724 mail to webmaster@newsway.co.kr 뉴스웨이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다.Copyright © Newsway. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 공·항만 관광객 수용 한계치는 '1680만명' - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도 공·항만 관광객 수용 한계치는 '1680만명' 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도 공·항만 관광객 수용 한계치는 '1680만명' 제주CBS 박정섭 기자 메일보내기 2018-02-14 11:48 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주관광공사 수용력 연구 결과…경제적 수용 한계치는 1990만명 예측 한라산 백록담. 현재 교통과 숙박 여건에서 제주도가 받아들일 수 있는 관광객 총량은 1680만명으로 나타났다. 앞으로 관광객이 2000만명을 넘어서면 교통혼잡과 폐기물 처리 등으로 인한 손해가 관광수익을 넘어설 것으로 예측됐다.이는 제주관광공사가 14일 발표한 '제주관광 수용력 연구' 결과에 따른 것으로, 연구 결과를 토대로 제주도의 분석과 대책 마련이 요구되고 있다.제주관광 수용력 연구는 정주환경과 관광 여건 개선으로 상주인구가 급증하고, 관광시장이 급성장하면서 제주사회가 포용할 수 있는 수용 수준을 모색하기 위해 제주관광공사 연구조사센터와 제주대학교 경영학과 방호진 교수에 의해 마련됐다.특정 지역을 대상으로 관광객 수용력 연구 결과가 이뤄진 건 이번이 처음이다.연구 결과에 따르면 제주공항과 제주여객터미널, 크루즈 외항 터미널 등 현재 교통 인프라와 6만7999실의 숙박 수준에서 제주도가 최대로 수용 가능한 관광객(물리적 수용력)은 1686만명으로 분석됐다.이는 항공이용객 1485만명과 선박이용객 201만명을 합친 것으로, 1년 뒤인 2019년에는 도달할 것으로 예측됐다.현재의 교통 여건과 숙박 등을 놓고 볼 때 '1680만명'이 제주도가 품을 수 있는 한계치란 얘기다.최근 2년새 제주방문객은 2016년 1585만명을 찍은 뒤 지난해 중국의 사드 보복에 따른 1475만명으로, 현재도 사실상 포화상태라는 게 연구진의 설명이다.제2공항과 강정항이 개항할 경우 현재보다 1400만명 이상 더 수용할 수 있을 것으로 보이지만 이 또한 2040년에는 포화상태에 이를 전망이다.교통체증으로 인한 혼잡비용과 폐기물 처리비용, 하수처리비용 등이 관광수익을 넘어서는 경제적 수용력 역시 2000만명을 기준으로 갈릴 것으로 보인다.연구진은 관광객 유입에 따른 경제적 수익을 초과하지 않는 경제적 비용 한계치를 1990만명으로 예측했다. 이는 2022년 도달할 것으로 보인다. 2000만명을 넘어서면 교통혼잡과 폐기물 처리 비용 등이 제주 관광기간 쓴 돈보다 더 많아 관광객을 받고도 오히려 손해를 본다는 의미다.결론적으로 관광객 2000만명 수준이 제주관광의 중요한 변곡점이 될 것으로 이번 연구는 전망하고 있다.특히 제주관광시장이 과거 20년간의 성장추이가 지속될 경우 향후 5년 이내에 과포화상태에 이를 것으로 진단, 지속적인 논의와 연구를 통해 지속가능한 제주관광을 위한 관광인프라 관리와 관광정책 수립이 요구되고 있다.제주관광공사는 앞으로 사회심리적 측면 중심의 수용력 연구를 진행하고, 관리 정책에 대한 면밀한 검토를 통해 제주관광 수용력 관리정책을 마련해 나갈 계획이다.제주관광공사 관계자는 "이번 연구 결과는 제주 사회가 안고 있는 현주소를 진단하고 질적성장 정책을 위한 하나의 좌표를 제시하고 있다"고 밝혔다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 [칼럼]핵위협 공포에 휩싸인 한반도 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 서울 한복판 공원서 권총 극단 시도…수사 착수 "경찰 아니다" 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>[종합]제주도 게스트하우스 관광객 살인용의자 천안서 숨진 채 발견 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 [종합]제주도 게스트하우스 관광객 살인용의자 천안서 숨진 채 발견 등록 2018.02.14 16:29:26수정 2018.02.14 16:34:25 작게 크게 【제주=뉴시스】우장호 기자 = 제주 게스트하우스 살인용의자 공개수배 전단지. (사진=제주지방경찰청 제공) woo1223@newsis.com·【제주=뉴시스】우장호 이종익 기자 = 제주 게스트하우스 살인용의자 한정민(32)이 도주 닷새 만에 충남 천안에서 숨진 채 발견됐다. 14일 제주지방경찰청에 따르면 한씨로 추정되는 시신이 이날 오후 3시1분께 충남 천안시 동남구 신부동의 한 모텔 객실 내 목욕탕에서 목을 맨 채 발견됐다. 경찰에 따르면 시신은 퇴실 시간이 지나서도 한씨가 방에서 나오지 않자 모텔 주인이 해당 호실을 방문해 점검하는 과정에서 서 발견된 것으로 확인됐다. 경찰은 방 안에서 나온 주민등록증 등을 토대로 시신을 살인 용의자 한씨로 특정했다. 유서 발견 여부는 아직 확인되지 않았다. 【제주=뉴시스】우장호 기자 = 제주에 관광온 20대 여성이 숨진채 발견된 가운데 12일 오전 제주시 구좌읍의 한 게스트하우스에 경찰이 찾아와 압수수색을 하고 있다. 경찰은 여성이 묵던 게스트하우스 관리인 B(33)씨를 유력한 용의자로 보고 뒤를 쫒고 있다. 2018.02.12.woo1223@newsis.com 앞서 경찰은 지난 13일 오후 3시께 한씨가 도주 나흘이 되도록 잡히지 않자 그를 전국 경찰관서 공조수사를 의미하는 공개수배 조치하고 소재를 추적해 왔다. 한씨는 지난 7일 제주로 여행 온 관광객 A(26·여)씨를 살해한 혐의를 받고 있다. 【제주=뉴시스】우장호 기자 = 지난 10일 제주에 관광온 20대 여성이 숨진채 발견된 가운데 12일 오전 제주시 구좌읍의 한 게스트하우스에 제주지방경찰청 소속 과학수사대가 출동해 관련 수사를 하고 있다. 경찰은 여성이 묵던 게스트하우스 관리인 B(33)씨를 유력한 용의자로 보고 뒤를 쫒고 있다. 2018.02.12.woo1223@newsis.comA씨의 가족들은 피해자와의 연락이 끊기자 경찰에 실종신고를 접수했고, A씨는 11일 낮 12시20분께 게스트하우스 인근 폐가에서 싸늘한 주검으로 발견됐다. 경찰은 자세한 사건 경위를 집중 조사하고 있다. woo1223@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회 제34대 회장에 김영진 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 제주도관광협회 제34대 회장에 김영진 김형훈 기자 승인 2018.02.14 09:08 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 당선증을 받은 김영진 회장(왼쪽에서 두번째). ⓒ미디어제주 제주특별자치도관광협회 제34대 회장에 김영진 현 회장이 당선됐다. 김영진 회장은 지난 13일 열린 2018년도 제1차 정기 대의원총회에서 제34대 회장 선거에 단독 출마, 참석 대의원 110명 만장일치로 회장을 다시 맡게 됐다. 김영진 회장은 각종 불합리한 규제 발굴·개선하고, 수익금을 회원사 지원사업에 재투자하겠다고 밝혔다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광객 살해 용의자 수원에 있나… 목격담 속출 &lt; 사건.사고 &lt; 사회 &lt; 기사본문 - 중부일보 - 경기·인천의 든든한 친구 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 경기·인천 뉴스의 중심 로그인 회원가입 2022-10-11 09:06 (화) 지면서비스 전체메뉴 버튼 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 지면보기 모바일보기 뉴스종합 정치 경제 사회 문화 스포츠 국제 지역 경기 사람들 인천 오피니언 라이프 기획취재 포토 검색하기 기사검색 검색 Trend news 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 6 [현장 24시] "일조·조망권 침해" VS "적법한 재산권 행사"…북수원패션아울렛 재건축 갈등 7 "8호선 의정부연장 조속히 해야"…김민철, 국정감사서 교통인프라 개선 촉구 8 [중부일보 사장배 유소년축구대회] 6학년 리그 우승 김지원 인천유나이티드 미추홀지부 감독 "아이들이 축구에 대한 흥미 잃지 않도록 노력" 9 공사비 오르는데 미분양 급증…경기도 건설업계 '죽을 맛' 10 '블랙, 세상의 빛을 담다'…의정부 BMF 21~22일 시청 앞 광장서 개최 ISSUE PICK 지역개발 우리동네 집값·땅값은 TV중부 뉴스를 본다 교육이 미래다 교육의 현장속으로 팩트인사이드 오직 사실! 다문화뉴스 우리 곁에 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 더보기 본문영역 서울 12℃  맑음 미세먼지 경기 14℃  맑음 미세먼지 인천 14℃  맑음 미세먼지 이전 기사보기 다음 기사보기 제주도 관광객 살해 용의자 수원에 있나… 목격담 속출 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사건.사고 제주도 관광객 살해 용의자 수원에 있나… 목격담 속출 기자명 김형아 입력 2018.02.13 23:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 닫기 경찰, 잇단 제보로 수사 속도 제주도에서 20대 여성 관광객을 살해한 뒤 도주한 용의자 한정민이 수원에 출몰해 경찰이 대대적인 수사에 나섰다. 경찰은 한씨에 대한 수사를 공개수사로 전환하고, 행방을 쫒고 있다. 13일 경기남부지방경찰청에 따르면 한씨가 지난 11일 오전 6시19분께 수원시내 편의점으로 들어오는 장면이 폐쇄회로(CC)TV에 포착됐다. 특히 이날 오후 4시께에는 수원시 탑동 주변에서 용의자 한정민을 목격했다는 제보가 이어져 경찰이 수사에 속도를 올리고 있다. 경찰 관계자는 “국내 어느 곳에든 한씨가 있을 수 있다”며 “조속히 검거해 국민 불안을 해소하겠다”고 말했다. 용의자 한정민은 지난 8일 자신이 관리인으로 있는 제주도 게스트 하우스에 온 A씨를 살해한 혐의를 받고 있다. 한씨는 자신이 주최한 파티에 참가한 A씨를 살해 후 인근 폐가에 방치한 뒤 A씨의 짐과 차량을 다른 곳으로 옮긴 것으로 알려졌다. 한씨는 지난해 7월 여성 투숙객을 준강간한 혐의로 법원에 기소된 상태였다. 김형아기자 페이스북 지면신문보기 저작권자 © 중부일보 - 경기·인천의 든든한 친구 무단전재 및 재배포 금지 로그인하면 내지역 뉴스와 원본 지면을 보실 수 있습니다. 회원가입 로그인 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 기사 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 PREMIUM로컬프리미엄 고양시 인천동구의회 인천동구 과천시 광명시 안양시 파주시 화성시 안성시 양평군 오산시 의정부시 여주시 안산시 이천시 의왕시 군포시 평택시 구리시 용인시 광주시 눈여겨 볼만한 개발정보 GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 인천시, 재개발사업 희망지 공모…10개소 이내 구역지정 인천 2호선 김포 감정동·걸포북변·시네폴리스 3개역 신설 검토 오늘의 헤드라인 고양 탄현동·인천 부평구 등 전세보증사고 속출 올해 들어 고양 탄현동·인천 부평구·서울 화곡동 등지에서 집주인이 세입자의 전세보증금을 돌려주지 못한 전세 보증 사고가 집중됐던 것으로 나타났다.특히 고양 탄현에서 발생한 전세 보... GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 "실효성 없는 학생 자가진단 앱 언제까지 해야 하나" 불만 폭증 부담스런 점심시간…김밥 1줄 3천원 시대 로컬 인사이드 경기도 유물여행 한겹 한겹 덧칠 걷어내니 호성공신의 위엄이 돌아왔다 우리동네 책방여행 시 창작회·음악회 함께 즐기며 '생태주의 공유'…용인 '반달서림' 인문기행-경기도의 전통사찰 꺽정불 찾아 수능 대박 기원해볼까…안성 칠장사 하단영역 경기·인천의 든든한 친구 뉴스 지역종합 오피니언 라이프 기획취재 포토 TV중부 매체정보 경기도 수원시 팔달구 권선로 733 (인계동) 중부일보 문의전화 : 031-230-2114 팩스 : 031-233-3010~1 인천본사 : 인천광역시 남동구 구월남로 148 타워플러스 603호 TEL : 032) 437-0081 FAX : 032) 437-0085 중부일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 중부일보 - 경기·인천의 든든한 친구. All rights reserved. mail to webmaster@joongboo.com 위로 전체메뉴 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 오늘의운세 별자리운세 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의회, '中 자본' 금수산장 관광단지 개발 제동 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도의회, '中 자본' 금수산장 관광단지 개발 제동 (제주=뉴스1) 오미란 기자					| 2018-02-13 18:11 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도의회 환경도시위원회.(제주도의회 제공)© News1 중국 자본이 추진하는 제주 신화련 금수산장 관광단지 개발사업이 제주도의회 상임위원회의 문턱을 넘지 못했다.제주도의회 환경도시위원회는 13일 제358회 임시회 제4차 회의에서 제주도가 제출한 '신화련 금수산장 관광단지 조성사업 환경영향평가서 협의내용 동의안'에 대해 심사 보류 결정을 내렸다.당초 도의회 환경도시위는 직전 회기였던 제357회 임시회에서 해당 동의안을 심사할 예정이었으나 일정상 현장 방문을 못 해 한 차례 심사를 보류했었다.도의회 환경도시위 소속 의원들은 이날 심의에서 사업 부지에 포함된 골프장 부지가 개발이 불가능한 지하수자원보전지구 2등급 지역인 점, 기존 골프장을 숙박시설로 변경하는 개발 방식 등에 거듭 문제를 제기했다.하민철 위원장은 모두발언에서 "기존 골프장들의 경영이 악화되는 상황에서 이 사업을 신호탄으로 유사한 형태의 개발이 연쇄적으로 일어날까 우려되는데도 집행부가 심각성을 인식하지 못해 답답한 심정"이라고 말했다.하 위원장은 "환경훼손 우려나 개발 방식에 대해 도민 사회의 관심이 지대한 상황"이라며 "집행부는 이 사업과 관련한 명확한 기준을 빠른 시일 내에 마련하고, 논란이 되는 부분에 대한 심도 있는 검토를 위해 심사를 보류한다"고 밝혔다. 제주 신화련 금수산장 개발사업 부지.© News1 이 사업은 ㈜블랙스톤리조트의 블랙스톤 골프장 일부 부지를 포함한 제주시 한림읍 금악리 부지 86만6539㎡에 관광호텔(664실)과 콘도(48실), 컨벤션, 테마몰, 가든스파, 골프아카데미, 골프코스 등을 조성하는 사업이다.총 사업비는 7239억원 규모로, 중국 신화련 그룹의 자회사 홍콩 뉴실크로드가 설립한 신화련금수산장개발㈜(대표이사 텐펑)이 추진하고 있다.신화련금수산장개발은 사업 주주로 참여하고 있는 블랙스톤리조트로부터 매입한 골프장 9홀 중 6홀은 기존 골프코스로 유지하되, 나머지 3홀은 가든스파, 골프아카데미 등으로 활용한다는 계획이다. mro1225@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회장, 34대 협회장에 당선…4선 연임 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 김영진 제주도관광협회장, 34대 협회장에 당선…4선 연임 등록 2018.02.13 17:07:25 작게 크게 【제주=뉴시스】조수진 기자 = 13일 오후에 실시된 제34대 제주특별자치도관광협회장 선거에서 김영진 협회장(왼쪽에서 두번째)이 당선됐다. 2018.02.13. (사진=제주특별자치도관광협회 제공) 【제주=뉴시스】조수진 기자 = 김영진 제주특별자치도관광협회장이 제34대 협회장에 단독 출마해 당선됐다. 제주도관광협회는 13일 오후 2018년 제1차 정기 대의원총회에서 열린 제34대 회장 선거에서 김영진 회장이 이날 참석한 대의원 110명의 만장일치로 선출됐다고 발표했다. 김영진 회장은 선거에 앞서 “지난 임기동안 협회 회원사의 결속과 제주관광의 경쟁력 강화 등을 통해 관광협회의 성장과 제주관광의 성장 하나만을 바라보고 사심 없이 치열하게 일해왔다”라며 “초심을 잊지 않고 그 바탕 위에서 더 큰 길을 가고자 한다”고 출마의 변을 밝혔다. 김 회장은 이어 “향후 34대 임기 동안에도 고질적인 제주관광의 체질 혁신에 능동적으로 움직이고 급변하는 관광환경에 대응할 수 있는 지원 체계를 마련할 것”이라며 “업계의 걸림돌로 작용하는 각종 불합리한 규제를 발굴하고 경영 안정자금 지원 및 수익금 재투자 등을 통해 회원사의 권익을 향상하기 위해 노력하겠다”고 강조했다. 이로써 김영진 회장은 지난 2011년 제31대 회장 보궐선거에서 당선된 뒤 이번 34대까지 4선 연임하게 됐다. 제주도관광협회 정관에 따르면 회장 임기는 3년이며 연임 제한 규정은 없다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 관광 기지개 속 흑돼지 맛집 ‘분주’ - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 제주도 중문관광단지 관광 기지개 속 흑돼지 맛집 ‘분주’ 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 제주도 중문관광단지 관광 기지개 속 흑돼지 맛집 ‘분주’ 유지형 승인 2018.02.13 11:28 수정 2018.02.13 11:28 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × 중문흑돼지 돈이랑 음식 알리기 활발 (사진 제공 : 돈이랑) 설 연휴의 시작과 대체로 포근한 날씨가 예상되면서, 제주도 유명 관광지는 관광객 맞이에 점차 활기를 찾고 있다. 특히 제주도 여행이 기존에 자연경관을 중심에서 맛집을 찾는 관광객이 늘어나면서 제주도 맛집들이라고 불리는 곳은 자신들을 알리기에 적극적이다. 제주도하면 떠오르는 유명 관광지인 서귀포 중문관광단지의 경우 제주도에서만 맛볼 수 있는 흑돼지 중심으로 맛집이 즐비해 관광객들의 눈길을 끌고 있다. 중문관광단지 입구에 위치한 ‘돈이랑’의 경우 국내에서는 처음으로 흑돼지 청정사육단계 HACCP 인증을 획득하고 무항상제 명품 흑돼지로 국내 유명백화점에서 유명세를 타고 있다. 돈이랑 관계자는 “지하 180미터에서 퍼올린 미네랄의 보고 화산암반수로 사육해, 위생적이고 미네랄이 풍부한 제주흑돼지로 관광객들의 관심을 받고 있다, 겉은 바삭하고 속은 부드러운 특유의 맛이 특징이다”라며 “마음 놓고 즐길 수 있는 저녁식사의 추억을 위해서 픽업서비스와 밤 12시까지 심야영업을 준비를 하고 있다”고 전했다. 현재 돈이랑은 마치 레스토랑의 코스요리처럼 숙련된 직원들이 은은한 연탄불에서 직접구운 흑돼지 요리를 제공하고 있으며, 눈길을 끄는 것은 두툼한 흑돼지가 연탄불 구이에 바삭함과 부드러운 맛을 함께 느낄 수 있다는 것이다. 한편 돈이랑은 연예인이 제주도를 방문하면 즐겨 찾는 곳으로 유명세를 타고 있으며, 손님맞이를 위해 버스까지 주차가 가능한 넓은 주차장을 운영하고 있다. /온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>혼자 제주도 관광 온 20대 여성 살인 용의자, ‘경기도 안양’서 사라졌다 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 13℃ 서울 11℃ 인천 12℃ 춘천 14℃ 강릉 13℃ 수원 13℃ 청주 14℃ 대전 15℃ 전주 16℃ 광주 15℃ 대구 15℃ 부산 15℃ 제주 혼자 제주도 관광 온 20대 여성 살인 용의자, '경기도 안양'서 사라졌다 제주 20대 여성 관광객 살해 용의자로 지목된 남성이 안양역에서 소재가 파악됐다. 김소영 기자 2018-02-13 08:12:37 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 연합뉴스[인사이트] 김소영 기자 = 제주 20대 여성 관광객 살해 용의자로 지목된 한모(33) 씨가 안양시에 나타났던 것으로 파악됐다. 12일 제주 동부경찰서와 경기지방경찰청 등에 따르면 지난 10일 제주시 구좌읍에 위치한 모 게스트하우스 인근 폐가에서 숨진 채 발견된 A(26·여) 씨 살해 혐의를 받는 한씨의 소재가 잠시간 파악됐다. 경찰은 위치 추적을 통해 한씨가 경기도 안양시 안양역 근처에 머문 것을 확인했다. 지난 11일 오전 5시경 안양역 근처에서 위치가 파악됐던 한씨는 이후 소재가 불분명한 상태다. 연합뉴스경찰은 한씨가 안양 부근에 연고가 있는지 여부를 살펴보는 등 수사력을 모으고 있다. 한씨를 신속히 검거하기 위해 경찰은 공개수배 전환도 검토 중인 것으로 알려졌다. 앞서 제주 경찰은 숨진 A씨의 부검을 통해 사인이 경부압박성질식사(목졸림사)임을 밝혀냈다. 연합뉴스A씨는 7일 오전 8시30분경 제주에 들어와 제주시 구좌읍 한동리의 한 게스트하우스에 짐을 푼 후에 11일 낮 12시20분경 게스트하우스 옆 폐가에서 주검으로 발견됐다. A씨와 연락이 끊긴 가족들이 경찰에 실종신고를 하며 사건이 밝혀지게 됐다. 한편 경찰은 A씨의 사망 사인이 살해로 밝혀진 후 범인 검거를 위한 수사에 주력하고 있다. 기사와 관련 없는 자료 사진 / gettyimagesBank제주 혼자 여행하던 20대 여성 관광객 숨진 채 발견홀로 제주도를 여행하던 20대 여성이 숨진 채 발견돼 경찰이 수사에 나섰다.제주 관광 온 20대 여성 목 졸려 숨져…"용의자는 게스트하우스 관리인"홀로 제주도를 여행하던 20대 여성이 목이 졸려 숨진 채 발견된 가운데 유력 용의자 게스트하우스 관리인 행방을 쫓고 있다.김소영 기자 soyoung@insight.co.kr 김소영 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>경찰,제주도 게스트하우스 20대여성 관광객 신체조직 국과수 보내..성폭행살해 여부 확인 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 경찰,제주도 게스트하우스 20대여성 관광객 신체조직 국과수 보내..성폭행살해 여부 확인 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 경찰,제주도 게스트하우스 20대여성 관광객 신체조직 국과수 보내..성폭행살해 여부 확인 기자정보, 기사등록일 이광효 기자 입력 2018-02-13 00:00 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 성폭행 여부 아직 몰라 20대 여성 관광객 살해 사건을 수사 중인 제주동부경찰서는 게스트하우스에 투숙했다가 목이 졸려 살해된 20대 여성의 시신을 11일 발견하고, 유력 용의자인 게스트하우스 관리인을 쫓고 있다. 12일 오전 경찰이 사건이 발생한 게스트하우스에서 압수수색을 마치고 증거품을 가지고 나오고 있다./사진=연합뉴스 경찰이 제주도 게스트하우스 20대 여성 관광객 살해 사건 피해자 A(26,울산시)씨의 신체조직을 국립과학수사연구원(이하 국과수)에 보냈다. 제주도 게스트하우스 20대 여성 관광객 살해 사건을 수사 중인 제주동부경찰서의 담당 형사는 12일 ‘아주경제’와의 통화에서 “A씨 부검 결과 A씨는 목이 졸려 죽은 것으로 드러났지만 성폭행을 당했는지 여부는 아직 모른다”며 “A씨가 성폭행을 당했는지 여부를 확인하기 위해 A씨 신체조직을 국과수에 보냈다”고 말했다. 경찰은 최근 제주도에 있는 한 병원에서 A씨 시신을 부검했고 A씨 시신은 현재 이 병원에 보관돼 있다. 20대 여성 관광객 살해 사건이 발생한 제주도 게스트하우스 관리인 B씨(33)는 10일 오후 8시 35분쯤 항공편으로 제주를 떠나 잠적했다. 경찰은 B씨를 용의자로 지목하고 추적 중이다. 관련기사제주도 20대여성 관광객 살해 용의자 게스트하우스 관리인,범행 후“예약손님들에겐 환불” 경찰은 A씨와 B씨가 모르는 사이였던 것에 주목하고 B씨가 A씨를 성폭행하고 살해했을 가능성이 있는 것으로 보고 수사 중이다. 제주동부경찰서는 12일 “피해 여성 A(26,울산시)씨가 지난 8일 새벽께 목이 졸려 숨진 것으로 추정, 정확한 사망 시각을 조사하고 있다”고 밝혔다. A씨는 지난 7일 오후 이 제주도 게스트하우스에 들어왔고 8일 오전 1∼2시까지 행적은 조사됐다. A씨 가족은 10일 오전 경찰에 실종신고를 했다. 경찰은 A씨가 제주도 게스트하우스 입실 후 게스트하우스에서 손님 등을 대상으로 마련한 파티에 참석한 다음 8일 새벽쯤 살해당한 것으로 추정하고 있다. 경찰은 A씨의 시신을 11일 낮 게스트하우스 바로 옆 폐가 방에서 발견했다. #게스트하우스 #성폭행 #제주도 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 6'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 2尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5김두관 의원 "코레일 근무태만 천태만상 심각" 6​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4신화 신혜성, 도난차량서 음주측정 거부로 체포 5대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 6강원도관광재단, 전국 최초 워케이션 상담회 개최 7前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 日 레저스포츠 관광객 유치 마케팅 전개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 日 레저스포츠 관광객 유치 마케팅 전개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 日 레저스포츠 관광객 유치 마케팅 전개 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.02.12 11:27 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 일본 아리타시관광협회 마라톤대회 참가, 제주관광 홍보 제주특별차지도와 제주특별자치도관광협회(회장 김영진)는 9일부터 12일까지 우호교류단체인 와카야마현 아리타시관광협회(회장 하시즈메 마사요시)의 마라톤대회와 연계한 협력 비즈니스 마케팅을 추진했다. 제주도관광협회는 지난 11일 아리타시 마쯔겐 아리타 구장에서 개최된 제10회 아리타시미캉카이도마라톤대회(有田市蜜柑海道マラソン大會)에 참가, 일본지역 고부가가치 FIT&amp;SIT 레저․스포츠 관광객 유치를 위한 맞춤형 제주관광 상품 홍보부스 운영 및 로드홍보를 전개했다.특히, 제주 대표선수로 참가한 황순옥 선수는 10Km 여자부 전체 1위, 김순영 선수가 50대 1위로 우수한 성적을 기록해 제주 마라토너들의 높은 기량을 알렸다.아울러 아리타시 부시장(타시로 토시히코)을 비롯한 코지마 키요아키 시의회 부의장 등 주요인사들과의 간담회를 갖고, 양 지역 간 마라톤 교류 활성화와 질적 성장을 위한 협력을 다짐했다. 이에 오는 5월 27일 개최되는 제23회 제주국제관광마라톤축제에 일본인 참가자 유치 및 양 지역 관광객 송출을 위한 노력을 함께 하기로 했다. 제주도관광협회 관계자는 "우호교류단체와의 지속적인 스포츠 교류 확대 및 협력 비즈니스 마케팅 전개로 지역 간 관광발전과 질적 성장을 구축하는데 앞장서겠다"고 말했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>경찰,제주도 20대여성 관광객 살해 용의자 게스트하우스 관리인 범행 후 2일간 방치 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 경찰,제주도 20대여성 관광객 살해 용의자 게스트하우스 관리인 범행 후 2일간 방치 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 경찰,제주도 20대여성 관광객 살해 용의자 게스트하우스 관리인 범행 후 2일간 방치 기자정보, 기사등록일 이광효 기자 입력 2018-02-12 18:38 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 제주 떠난 후에야 용의자 지목 제주동부경찰서는 게스트하우스에 투숙했다가 목이 졸려 살해된 20대 여성의 시신을 11일 발견하고, 유력 용의자인 게스트하우스 관리인을 쫓고 있다. 12일 오전 경찰이 사건이 발생한 게스트하우스에서 압수수색을 마치고 증거품을 가지고 나오고 있다./사진=연합뉴스 제주도 게스트하우스 20대 여성 관광객 살해 사건을 수사 중인 경찰은 용의자인 사건이 발생한 제주도 게스트하우스 관리인을 범행 후 2일 동안 사실상 방치한 것으로 나타났다. 제주도 게스트하우스 20대 여성 관광객 살해 사건을 수사 중인 제주동부경찰서에 따르면 사건이 발생한 제주도 게스트하우스 관리인 B씨(33)는 범행 후 인근에 시신이 있는데도 2일 동안 손님을 받는 등 정상적으로 영업했다. 제주동부경찰서는 12일 “피해 여성 A(26,울산시)씨가 지난 8일 새벽께 목이 졸려 숨진 것으로 추정, 정확한 사망 시각을 조사하고 있다”고 밝혔다. A씨는 지난 7일 오후 이 제주도 게스트하우스에 들어왔고 8일 오전 1∼2시까지 행적은 조사됐다. A씨 가족은 10일 오전 경찰에 실종신고를 했다. 경찰은 A씨가 제주도 게스트하우스 입실 후 게스트하우스에서 손님 등을 대상으로 마련한 파티에 참석한 다음 8일 새벽쯤 살해당한 것으로 추정하고 있다. 경찰은 A씨의 시신을 11일 낮 게스트하우스 바로 옆 폐가 방에서 발견했다. 관련기사제주에 혼자 관광 온 20대여성,숙소서 목 졸려 피살..경찰,사라진 관리인 추적 B씨는 10일 오후 8시 35분쯤 항공편으로 제주를 떠나 잠적했다. 경찰은 B씨가 잠적한 후에야 B씨를 제주 20대 여성 관광객 살해 사건 용의자로 지목하고 추적하고 있다. 경찰은 10일 오전 A씨의 실종 신고 접수 후 해당 제주도 게스트하우스를 찾아가 탐문하는 과정에서 용의자 B씨를 만났다. B씨는 10일 오후 1시 10분쯤 경찰과의 통화에서 “시장에 장을 보러 왔다. 잠시 기다리면 숙소로 가겠다”고 말했다. B씨는 해당 제주도 게스트하우스에서 경찰관에게 “아침에 손님들이 다 나가서 현재는 방이 비어 있다”며 8∼9일 손님을 받아 영업했음을 시사했다. 경찰은 B씨에게 “실종된 A씨가 언제 숙소에 왔느냐? 차량을 끌고 왔느냐?”고 물었고 B씨는 “모르겠다”고 답한 것으로 알려졌다. 이 때까지만 해도 경찰은 B씨에게 전혀 혐의점을 두지 않았다. 경찰은 B씨가 연락을 끊고 제주도를 떠나 잠적하고 나서야 해당 게스트하우스에 대한 압수수색을 실시해 B씨 관련 물품 등을 압수했다. 경찰은 제주도에 있는 한 병원에서 A씨 시신 부검을 실시해 A씨의 사망 원인이'경부압박성 질식'임을 밝혀냈다. 목이 졸려 살해된 것. 경찰은 현재 B씨가 경기도에 있는 것으로 추정하고 있고 전국 경찰에 제주 20대 여성 관광객 살해 사건 수사 협조를 요청했다. #20대 #경찰 #제주 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 6'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 2尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5김두관 의원 "코레일 근무태만 천태만상 심각" 6​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4신화 신혜성, 도난차량서 음주측정 거부로 체포 5대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 6강원도관광재단, 전국 최초 워케이션 상담회 개최 7前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도 게스트하우스 피살 여성 관광객, 사인은 ‘목졸림’…용의자는? TV LIVE VOD 튜브온 주요행사 채널안내 편성표 전체뉴스 MTN deep 한 발 더 깊고 한 걸음 더 넓은 뉴스 MTN hip요즘 뜨는 '힙(hip)'한 이슈 핫리포트핫라인5 생생리포트 MTN 인사이트경제에 통찰력을 더하다 MTN 기자실경제전문 기자들의 취재파일 연속 기획보도이슈를 파고드는 기획취재 연중대기획고품격 특집 다큐멘터리 여의도튜브 발칙한 경제 주식초등학교 Pick 튜브기사보다 더 깊은 이야기 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 최신뉴스 사회 제주도 게스트하우스 피살 여성 관광객, 사인은 ‘목졸림’…용의자는? 머니투데이방송 백승기 기자 입력 2018-02-12 17:16:46 가 경찰이 제주도 게스트하우스에서 피살된 여성 관광객 A씨의 사인이 목졸림이라고 밝혔다.12일 제주동부경찰서는 A씨의 시신 부검 결과 갑상선 골절과 목 부위 출혈등이 발견됐으며 직접적인 사인은 경부압박성질식사(목졸림)라고 밝혔다.경찰은 정확한 사망시간과 함게 시신에 남아있는 위 내용물과 독극물 등도 확인할 예정이다. 또 DNA 검사로 성범죄를 당했는지도 조사할 계획이다.경찰은 게스트하우스 관리인 한모씨를 유력한 용의자로 보고 행적을 쫓고 있다. 한씨는 지난 10일 제주공항을 통해 다른 지역으로 빠져나간 것으로 알려졌다.A씨는 지난 7일 울산에서 제주에 와 게스트하우스에 숙박 중이었으며, 11일 제주시 구좌읍의 모 게스트하우스 인근 폐가에서 숨진 채 발견됐다.(사진:뉴스1)[MTN 뉴스총괄부-백승기 기자(issue@mtn.co.kr)] 머니투데이방송의 기사에 대해 반론·정정추후 보도를 청구하실 분은 아래의 연락처로 연락주시길 바랍니다, 고충처리인 : 콘텐츠총괄부장 ombudsman@mtn.co.kr 02)2077-6288 MTN 기자실 경제전문 기자들의 취재파일 전체보기 Pick 튜브 기사보다 더 깊은 이야기 전체보기 많이 본 뉴스 분야별뉴스 취재와이드 MTN 기자실 Pick 튜브 바로가기 분야별뉴스 P4F MTN deep MTN hip 핫리포트 MTN 인사이트 연속 기획보도 연중대기획 MTN 기자실 Pick 튜브 여의도튜브 발칙한경제 주식초등학교 K-디펜스 월가워즈 여의도약방 니은티비 바로가기 검색 TV LIVE APP 소개 MTN YOUTUBE 회사소개 광고제휴안내 이용약관 청소년보호정책 개인정보처리방침 공시조회 (주)머니투데이방송    대표이사 유승호 (07328) 서울특별시 영등포구 여의나루로 60 (여의도동,여의도우체국) 2,4층 등록번호 : 서울 아01083    대표전화 : 02-2077-6200 기사배열책임자 콘텐츠총괄부장    청소년보호책임자 디지털기획부장 Copyright ⓒ MTN All Right Reserved</t>
+  </si>
+  <si>
+    <t>‘제주도서 연락두절…’ 20대 여성 관광객 목졸려 숨진 채 발견-국민일보 시사 시사 &gt; 전체기사 ‘제주도서 연락두절…’ 20대 여성 관광객 목졸려 숨진 채 발견 입력 : 2018-02-11 17:55 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 뉴시스제주에서 20대 여성 관광객이 숨진 채 발견됐다. 제주 동부경찰서는 수사에 나섰다.숨진 여성은 11일 낮 12시20분쯤 제주 구좌읍 일대에서 발견됐다. 이 여성은 지난 7일 오전 울산에서 관광차 제주도에 왔다가 구좌읍에 위치한 한 게스트하우스에서 숙박한 것으로 알려졌다.이후 지난 8일부터 연락이 두절됐고 이를 걱정한 여성의 가족들이 10일 경찰에 실종 신고를 했다. 여성은 경찰의 수색 끝에 숙소 인근에서 숨진 상태로 발견됐다.경찰은 검시 결과 목 졸림사로 추정하고 정확한 사인을 밝히기 위해 부검을 진행할 예정이다. 또 현재 용의선상에 있는 인물들을 대상으로 수사를 벌이고 있다.문지연 객원기자 GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>관광 도시 제주도가 앓고 있는 부작용, 오버투어리즘 [지식용어] - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 아임반 x 네이버 쇼핑 페스타 행사 진행 메이튼, 쌍용 토레스 실내 편의 용품 콘솔 트레이 990원 이벤트 진행 (사)동물보호단체 헬프애니멀, 제3회 길고양이 중성화사업 TNR시 치료지원 사업 진행 PGA TOUR &amp; LPGA 골프웨어, 2022 F/W 런칭 행사 ‘PRIVATE SOCIAL PARTY’ 마무리 이포넷, 번역 서비스 분야 국제 표준 ISO 재인증 심사 통과 코바(KOVA), 범죄 없는 따뜻한 세상 위한 ‘2022 KOVA 범국민 캠페인’ 개최 [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2022년 10월 둘째 주 육아 관련 정책 [육아 정책브리핑] 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 비타공방, 아토 비타민D 드롭 4,000IU 국내출시 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 킥고잉, 자전거 출시 효과 톡톡... 신규 가입자 30% 증가 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 구전녹용, 녹용과 석류가 달여진 ‘구전녹용 정경부인’ 11일 재출시 쌍용C&amp;B, ‘코디 아트앤 포켓몬’ 휴대용 물티슈 출시 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 관광 도시 제주도가 앓고 있는 부작용, 오버투어리즘 [지식용어] 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지식‧교양 TV지식용어 5번 박스 관광 도시 제주도가 앓고 있는 부작용, 오버투어리즘 [지식용어] 보도본부 | 심재민 기자 승인 2018.02.11 14:58 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스 심재민] 관광객을 잘 유치하는 일은 국가 경쟁력을 키우고 경제를 성장시키기 위해 반드시 필요하다. 쉽게 관광객이 많이 찾아올수록 국내 살림에 이득이 된다는 이야기. 하지만 여기에는 적당선이 필요하다. 과하게 관광객이 몰려오면 역효과가 발생하기 때문이다.그 대표적인 예가 대한민국의 제주도다. 최근 5년간 제주도를 찾는 관광객이 급증가하면서 제주도의 수용 능력이 이미 그 용량을 초과해 '오버투어리즘' 부작용이 점차 가중되고 있다는 지적이 제기 되고 있다. [사진/픽사베이] 오버투어리즘이란, ‘지나치게 많은’을 뜻하는 over와 ‘여행’을 뜻하는 tourism이 결합된 말로 ‘과잉관광’을 뜻한다. 한 지역에 지나치게 많은 관광객이 몰리면서 환경/생태계 파괴와 더불어 어딜 가도 사람이 많거나, 오래 기다려야하는 등 관광의 질이 떨어지면서 부작용이 생기는 경우를 오버투어리즘이라 칭한다.제주도는 국내에서 오랜 기간에 걸쳐 심혈을 기울여 만든 관광지이다. 군사정권 시대 지역성장이론을 바탕으로 지역마다의 특화 산업이 추진되면서 제주도는 관광 거점 도시가 되었다. 특히 1990년대 이후 적극적인 육성이 이루어지며 관광/휴양 산업의 대표 도시가 되었고 양과 질에 있어 급발전을 이루었다. 특히 중국 관광객을 중심으로 관광 수요가 늘면서 ‘유커’라는 말이 만들어지기도 했다.제주도는 이처럼 관광도시로 발전에 발전을 거듭했지만 언제부턴가 제주도를 방문한 관광객들의 불만이 불거져 나오기 시작했다. 어딜 가도 사람이 많아 관광의 질이 현저하게 낮아졌다는 불만이었다.우선 공항의 수용능력이 관광객 수를 뒷받침 하지 못한다는 목소리가 높다. 특히 최근에는 공항이 기상 악화로 폐쇄되면, 이용객이 많은 만큼 큰 혼란을 초래하기도 했다. 그로인해 공항의 안전과 시설이용에 많은 우려의 시선이 모이며 제2공항을 설립 추진 목소리에 힘이 실리기도 했다. 그 외 숱한 관광지마다 많은 인파에 ‘아름다운 제주도 경치를 관람하는 것이 아닌, 사람구경하기 바쁘다’는 불만이 이어졌고, 이로 인한 자연 훼손과 쓰레기 문제 등도 골칫덩이로 떠올랐다.이러한 오버투어리즘 폐해는 비단 관광객뿐 아니라 지역의 주민들에게도 고스란히 돌아간다. 위 사례로든 제주도 역시 한 해 1600만 명의 관광객이 찾아오자 교통 정체 및 사고 증가, 생태계 파괴, 환경오염, 쓰레기, 상하수도 과부하 등 문제가 현실로 빚어졌고 도민들은 삶의 질이 갈수록 낮아지고 있다며 울분을 토하기도 한다. 그래서 앞서 언급한 제2공항 건립 추진에 반대한 목소리도 만만치 않은 상태다.너무 많은 관광객이 찾아오면서 생겨나는 현상 오버투어리즘. 관광을 육성하는 것 만큼 이를 해결하는 것도 정말 중요하다. 오버투어리즘이 심화하면 관광객도, 지역 주민도 모두 외면하게 되고 결국 그동안 쌓아 온 공든 탑이 한순간에 무너지기 때문이다. 제주도에 드리워진 오버투어리즘 현상에 대한 명쾌한 해답이 마련되기를 기대해 본다. 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] [카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 오늘의 주요뉴스 기사더보기 &gt; 심재민 기자 bmw8234@sisunnews.co.kr 2022년 10월 둘째 주 육아 관련 정책 [육아 정책브리핑] ‘2030 부산엑스포’ 유치에 사활 걸다...정부 및 재계 노력 이어... [정책브리핑] 2022년 10월 11일 화요일 주요 정책 오늘 이 영화 어때요? 1 [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 2 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 1 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 2 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 많이 본 뉴스 종합 지식‧교양 1[정책브리핑] 2022년 10월 10일 월요일 주요 정책 2[오늘의 사자성어] 피갈회옥[被褐懷玉] 3[10년 전 오늘] 검찰, 프로포폴 판매-투약자 무더기 체포...전면 수사에 나서 4車 주요뉴스, 휘발유 30.7원·경유 18.6원↓ - 무면허 렌터카 사고 - '타다' 대법서 최종 판단 [모터그램] 5이번 주 별자리운세 '10월 10일~10월 16일' [인포그래픽] 6[뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 7앱 개발자들의 수익과 직결되는 ‘인앱 결제’, 애플 가격 인상 내걸어 [지식용어] 82022년 10월 10일, 오늘의 띠별 운세 [인포그래픽] 910월 10일 월요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] 10[시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 1‘2030 부산엑스포’ 유치에 사활 걸다...정부 및 재계 노력 이어져 [지식용어] 2[뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 3車 주요뉴스, 휘발유 30.7원·경유 18.6원↓ - 무면허 렌터카 사고 - '타다' 대법서 최종 판단 [모터그램] 4앱 개발자들의 수익과 직결되는 ‘인앱 결제’, 애플 가격 인상 내걸어 [지식용어] 5이주의 신차, 현대차 캐스퍼 ‘디 에센셜’ – 기아 ‘더 2023 K9’ – 르노코리아차 ‘SM6 필’ [모터그램] 6더 깊게-더 곧게-더 빠르게! GTX ‘수도권 광역급행철도’ [지식용어] 7미국판 당근마켓 ‘포쉬마크’, 네이버가 2조 3000억원 베팅 [지식용어] 8사생활 침해vs중요한 증거...‘통화녹음 금지 법안’ 국민들의 생각은? [지식용어] 9가해자와 함께 있어 경찰에 도움 요청하기 어려울 때 ‘똑똑’ 보이는 112 [지식용어] 10[무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 스타 인터뷰 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+  </si>
+  <si>
+    <t>겨울 끝자락 제주도 서귀포 중문관광단지에서 추억 만들기, 흑돼지 맛집은 필수 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 겨울 끝자락 제주도 서귀포 중문관광단지에서 추억 만들기, 흑돼지 맛집은 필수 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 겨울 끝자락 제주도 서귀포 중문관광단지에서 추억 만들기, 흑돼지 맛집은 필수 기자명 이수호 기자 승인 2018.02.09 17:03 댓글 0 조회수 : 2635 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 얼마 전 유난히 추웠던 입춘을 지나 어느덧 길었던 겨울의 막바지다. 얼었던 만물이 녹고 소생의 시기인 따뜻한 봄에 떠나는 여행은 계절만큼이나 설레지만, 가는 겨울이 아쉬워 겨울 끝자락에 떠나는 여행도 추억이 될 만하다. 국내에 수많은 여행지가 있지만 단연 인기는 역시 ‘제주도’. 특히 최근 겨울 제주도의 색다른 아름다움을 보여주고 있는 ‘효리네민박2’의 인기에 힘입어 제주도로 향하는 발길이 적지 않다. 특유의 이국적인 자연경관과 쾌적하고 예쁜 숙소들, 맛있는 음식과 다양한 볼거리까지. 최적의 힐링 장소이자 최고의 여행지 제주도에서 특별히 중문관광단지에 들러보길 권한다. 거센 파도가 육각기둥에 부딪히며 만들어내는 ‘지삿개 주상절리’의 절경이나 3단으로 쏟아져 내려오는 ‘천제연 폭포’의 웅장한 모습, 반달모양의 ‘색달해변’과 올레길을 따라 걷는 산책, 또 도심 속 일상에서는 경험하기 힘든 각종 테마의 박물관과 ‘여미지식물원’ 관람, 돌고래쇼를 감상할 수 있는 ‘퍼시픽랜드’까지. 특히나 여행기간이 짧다면 놀거리와 볼거리가 풍부한 중문관광단지 안에서만 시간을 보내도 부족하지 않다. 하지만 제주도에 왔으니 제주특산음식은 먹어봐야하지 않을까. 특히 제주도의 상징과도 같은 흑돼지 식사는 빠질 수 없는 코스다. 중문동 2025-1에 위치한 흑돼지 전문점 ‘돈가득’은 복분자를 뿌린 흑돼지로 관광객뿐 아니라 현재 주민들에게도 반응이 좋은 곳이다. 품질 좋은 참숯에 제주도산 두툼한 흑돼지를 굽는데, 훈연의 향과 함께 굽기 직전 복분자를 뿌려주어 잡내는 없애고 은은한 복분자 향은 더했다. 잘 구워진 흑돼지 근고기를 멜젓에 찍어 먹어도 좋고, 이곳만의 특제양파절임과 함께 먹으면 느끼함은 잡아주고 끝 맛은 깔끔하게 마무리 해준다. MBC에브리원의 먹방 프로그램 ‘맛있을 지도’에 소개되었던 ‘돈가득’은 MC 김경식과 일본여자연예인 사유리의 입맛을 사로잡으며 화제가 된 바 있다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 2018년도 관광진흥기금 500억원 융자 지원 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 2018년도 관광진흥기금 500억원 융자 지원 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 2018년도 관광진흥기금 500억원 융자 지원 기자명 이승록 기자					(leerevol@naver.com) 입력 2018.02.09 11:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도는 '2018년도 상반기 제주관광진흥기금 융자지원 계획'을 9일 도청 홈페이지를 통해 공고했다.제주관광진흥기금은 12일부터 28일까지 11일간 융자지원 신청을 접수받을 계획이다. 융자지원 규모는 총 500억 원이다.세부적으로는  관광객이용시설업 및 관광편의시설업 등의 건설자금 100억원, 관광시설 및 숙박업 등의 개보수자금 100억원, 관광사업체 경영안정자금 및 노후 전세버스 교체 등에 300억원이다.이와는 별도로 2020년까지 한시적으로 지원되는 관광사업체(법인) 및 렌터카업체에 대하여는 전기자동차 구입에 연간 500억원을 별도 배정, 전기자동차 공모기간 중 수시 접수․선착순으로 마감할 계획이다.제주관광진흥기금 융자지원은 자금별 융자추천액 대출실행에 따른 이자차액보전 방식으로 지원되며, 융자자 대출금리는 기획재정부에서 분기별로 공지하는 '공공자금관리기금 융자사업 변동금리(공자금리)'에서 0.75%우대 변동금리를 적용하며, 융자기간은 기존과 동일하게 자금별로 3년에서 5년이다.접수처는 도 관광정책과(710-3344), 행정시 관광진흥과, 도 관광협회 등이며, 대상자 선정결과는 3월중으로 도청 홈페이지 공고 및 개별 우편 발송할 예정이다.제주도 관계자는 "지난해에 사드 피해지원을 위한 특별융자(230개소 307억원)를 포함해 총 454개소 1117억원을 추천했고, 291건 2280억원에 대해서는 원금 상환유예 조치를 한 바 있다"며 "앞으로도 관광사업체의 경영안정 도모와 도민 수혜 확대를 위한 기금 운용 정책을 지속 추진할 계획"이라고 밝혔다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제이디건설, 백령면 어르신 제주도 효도관광 후원 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 구름많음동두천 11.3℃ 맑음강릉 17.4℃ 맑음서울 12.3℃ 구름조금대전 13.8℃ 맑음대구 14.8℃ 맑음울산 15.5℃ 맑음광주 16.2℃ 맑음부산 16.5℃ 맑음고창 16.3℃ 구름많음제주 18.0℃ 맑음강화 12.1℃ 맑음보은 12.3℃ 구름조금금산 13.3℃ 구름조금강진군 16.6℃ 맑음경주시 15.4℃ 맑음거제 16.4℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 검색창 열기 PDF 지면신문 보기 온라인구독 열기 닫기 메뉴 뉴스 정치 사회 경제 문화 체육 인천 지역 생활 사진 국제 기획 사설/기고 사람들 인터뷰 인사 사고 부고 결혼 독자공간 알림 우리동네 제보/투고 보도자료 사회공헌 보도평가위 불편신고 구독신청 제휴문의 광고문의 닫기 뉴스 정치 사회 경제 문화 체육 인천 지역 생활 사진 국제 기획 사설/기고 사람들 인터뷰 인사 사고 부고 결혼 독자공간 알림 우리동네 제보/투고 보도자료 사회공헌 보도평가위 불편신고 구독신청 제휴문의 광고문의 뉴스 지역 제이디건설, 백령면 어르신 제주도 효도관광 후원 이정규 기자 ljk@kgnews.co.kr 등록 2018.02.08 20:01:51 7면 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 인천 옹진군은 지난 7일부터 9일까지 백령면 어르신 31명을 모시고 제주도 효도여행을 진행한다고 8일 밝혔다. 지난 11년 간 백령여행사에서 진행하고 있는 이번 무료 효도여행은 지역 업체인 제이디건설 후원으로 마련됐다./이정규기자 ljk@ 이정규 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 저작권자 © 경기신문 무단전재 및 재배포 금지 많이 본 기사 더보기 1 [단독] 육군 장교, 부대 회식 후 극단적 선택 2 한국은행 기준금리 인상 불가피…인상 폭 관심 집중 3 ‘가스누출 추정’ 일가족 참사에 尹 “취약계층 세심한 대책” 지시 4 "재정자립도 낮은데…" 인천시 1000만원 첫만남이용권 공약 기초단체 협의 '험로' 예상 5 내일부터 ‘오미크론 대응’ 개량백신 접종 시작 6 유정복 시장, 尹대통령 만나 제물포르네상스·행정체제개편 지원 요청 7 kt 위즈 NC 다이노스 5-2 꺾고 리그 3위 유지 에디터 추천 기사 정치 경기도 다회용기 사용 지원 사업 1년째…실효성은 의문 정치 ‘道 추경처리 불발’ 도당 장외전…국힘 “문제없다” vs 민주 “발목잡기” 정치 [국감] ‘한 방’ 없는 尹 정부 첫 국정감사…고성·막말로 얼룩진 국회 체육 이민정(시흥시청) “전국체전 개인전 첫 메달 기뻐…목표는 아시안게임” 실시간 기사 더보기 “추가연장근로제 폐지 대책 없어”…30인 미만 중기 절반이상 ‘일몰 반대, 제도 유지’ 타슈켄트 인하대 학위수여식, 개최 293명 인하대 학위 취득 오락가락 이른 추위에 ‘삭제’된 가을 날씨…왜? 포은 정몽주 선생 기리는 제18회 용인 포은문화제 14~16일까지 명상으로 몸과 마음 정화…수원시립미술관, '비포 선라이즈' 참가자 모집 제4회 경기도지사배 전국사격대회 15일 개막 경기도자미술관 문화예술교육 프로그램 ‘흙이랑 나랑’ 참가자 모집 경기도여성가족재단, 여성 청년 1인가구 위한 ‘자기방어훈련’ 참여자 모집 경기문화재연구원, 태봉·태실 학술좌담회 12일 개최 [조헌정의 '오늘의 성찰'] 자신을 안다는 것은? COMMUNITY 알림 제보 보도자료 사회공헌 지면평가위 윤리강령 구독신청 불편신고 뉴스메일링 COVER STORY 147호 2022-10-11 구독신청 지난호보기 독자투고 기사제보 147호 146호 145호 144호 143호 142호 141호 140호 139호 138호 137호 136호 135호 134호 133호 132호 131호 130호 129호 128호 127호 126호 125호 124호 123호 122호 121호 120호 119호 118호 117호 116호 115호 114호 113호 112호 111호 110호 109호 108호 107호 106호 105호 104호 103호 102호 101호 100호 99호 98호 97호 96호 95호 94호 93호 92호 91호 90호 89호 88호 87호 86호 85호 84호 83호 82호 81호 80호 79호 78호 77호 76호 75호 74호 73호 72호 71호 70호 69호 68호 67호 66호 65호 64호 63호 62호 61호 60호 59호 58호 57호 56호 55호 54호 53호 52호 51호 50호 49호 48호 47호 46호 45호 44호 43호 42호 41호 40호 39호 38호 37호 36호 35호 34호 33호 32호 31호 30호 29호 28호 27호 26호 25호 24호 23호 22호 21호 20호 19호 18호 17호 16호 15호 14호 13호 12호 11호 10호 9호 8호 7호 6호 5호 4호 3호 2호 1호 신문사소개 고충처리인 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 배덕훈) 전자우편 무단수집거부 제보 불편신고 경기도 용인시 기흥구 흥덕4로 15번길 3-11 (영덕동 1111-2) 경기신문사 | 대표전화 : 031) 268-8114 | 팩스 : 031) 268-8393 | 청소년보호책임자 : 배덕훈 법인명 : ㈜경기신문사 | 제호 : 경기신문 | 등록번호 : 경기 가 00006 | 등록일 : 2002-04-06 | 발행일 : 2002-04-06 | 발행인·편집인 : 김대훈 | ISSN 2635-9790 경기신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2020 경기신문. All rights reserved. mail to webmaster@kgnews.co.kr UPDATE: 2022년 10월 11일 12시 37분 최상단으로 기사검색 전체 전체 제목 부제목 기자이름 본문 검색어를 입력해주세요 검색하기 검색창 닫기</t>
+  </si>
+  <si>
+    <t>제이디 건설, 백령 어르신 제주도 효도관광 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제이디 건설, 백령 어르신 제주도 효도관광 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제이디 건설, 백령 어르신 제주도 효도관광 기자정보, 기사등록일 박흥서 기자 입력 2018-02-08 13:23 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 백령도 지역업체들이 지난 7일 인천시 옹진군 백령도에 살고 있는 어르신 31명을 모시고 2박 3일간의 일정으로 제주도 여행을 떠났다. 지난 11년간 백령여행사에서 진행한 백령도 지역 어르신들을 위한 제주도 무료 효도관광을 올해는 백령도 업체인 제이디 건설에서 진행했다. 제이디 건설, 백령 어르신 제주도 효도관광[사진=인천시 옹진군] 김진식 대표는 “해마다 어르신들을 모시고 효도관광을 다녀오는데 즐거워하시는 아르신들을 볼 때마다 자주 해드리지 못해 죄송하다”며, “앞으로 이런 자리를 많이 만들 수 있도록 노력하겠다.”고 말했다. 이번 효도관광을 위해 해송여행사, 에이치해운, 서울우유, 아트건설, 승주건설, 나나렌트카, 이팔중기 등 지역내 업체들의 따뜻한 관심과 후원도 이어졌다. 관련기사국방부 "'북한에 피살' 공무원, 월북시도 추정 발표 유감"​인천 백령도 인근서 어선 표류… 승선원 2명 실종 #인천시 옹진군 #백령도 #제주도 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 6'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 2尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5김두관 의원 "코레일 근무태만 천태만상 심각" 6​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4신화 신혜성, 도난차량서 음주측정 거부로 체포 5대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 6강원도관광재단, 전국 최초 워케이션 상담회 개최 7前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>"몸집 불린 관광에 제주도 '포화'...하수처리장이 대표적 문제" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "몸집 불린 관광에 제주도 '포화'...하수처리장이 대표적 문제" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 "몸집 불린 관광에 제주도 '포화'...하수처리장이 대표적 문제" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.02.05 17:22 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제2공항 범도민행동-성산반대위, '관광 패러다임 전환 토론회' ▲ 5일 열린 제주관광 패러다임 전환을 위한 토론회. ⓒ헤드라인제주 최근 5년간 제주를 찾는 관광객은 크게 늘어났지만 그에 따른 기반시설을 갖추지 못하고 관광객 늘리기에만 급급하면서  '오버투어리즘'의 부작용이 심화되고 있다는 지적이 제기됐다.관광객 수용력 초과의 단적인 예로, 지난 2016년 용량 초과로 정화되지 못한 오염수가 바다로 유출됐던 제주시 도두동의 제주하수처리장 사태가 지적됐다.5일 제주시 벤처마루 10층 대강당에서 열린 '제주관광 패러다임 전환을 위한 토론회'에서 홍익대학교 과학기술연구원의 김성훈 연구원은 이같이 지적했다.'제주 관광정책과 환경.사회적 수용력'을 주제로 발표한 김 연구원은 "제주도의 관광산업은 군사정권 시대 지역성장이론에 따라 지역특화산업으로 지목되면서 본격 육성됐다"면서 "국외 관광객을 유치하기 위해 개발 중심 관광지 개발을 추진했고, 1990년대에는 제주개발계획에 이어 제주국제자유도시조성계획이 적극 추진되면서 관광.휴양산업의 양적 성장과 관광지 개발이 급속 진행됐다"고 설명했다.이어 "양적 성장을 위해 중앙정부와 지방정부가 도시계획을 적극 지원해 왔고, 관광지 개발 관련 도시계획권한이 지방으로 이전된 이후 개발허가가 증가하고 이중 대부분은 중산간에 집중됐다"면서 "소규모 도시개발 역시 2010년대 들어 지속적으로 확대됐는데, 도두 하수처리장 포화문제와 같은 명확한 실패사례를 볼때 개발행위 허가가 기반시설 용량과 보조를 맞춰 이뤄졌는지 의문"이라고 꼬집었다.그는 "국토부는 올해(2018년) 제주공항의 수송용량이 포화될 것으로 예측하고, 제주 제2공항 건설을 발표했는데, 한국개발연구원(KDI)의 사전타당성검토 결과를 모두 신뢰한다고 해도, 오름 및 철새, 동굴 등 환경파괴가 우려된다"면서 "현 도시기본계획의 계획인구 기준이 제2공항 예비타당성조사의 수요량에 미치지 못해 제2공항 건설에 따른 추가 인구증가를 감안하면 기존 도시관리 전략은 수정돼야 한다"고 지적했다. ▲ 5일 열린 제주관광 패러다임 전환을 위한 토론회. ⓒ헤드라인제주 김 연구원은 "현 제주도 도시계획 인구는 유독 관광객이 많은 제주도의 특수성을 반영하는데, 체류인구는 상주인구와 달리 관광수요가 집중되는 성수기에 급증하고 비수기에 급감하는 불안정한 양상을 보이므로 도시관리에 상당한 돌발적 변수가 될 수 있다"면서 "상주인구 또한 최근 5년간 제주인구 증가의 주 요인이 자연증가가 아닌, 전입에 따른 사회적 증가라는 점에서 제주 관광산업이 성장과 직간접적인 영향을 주고받았을 것이라 판단된다"며 제주도의 도시인구 증가를 견인한 것이 제주도의 관광산업 성장 때문으로 진단했다.그는 "급격한 도시인구 증가는 기반시설용량과 직결돼 제주도가 미처 대비하기 전에 부작용을 발생시켰다"면서 "그 대표적인 사례가 2016년 발생한 도두 하수처리장 용량 포화 문제"라고 말했다.이어 "이 사건은 국토계획법에 따라 기반시설용량과 개발행위허가를 연동해 관리해야 함에도, 사전에 개발행위허가를 제한하지 못했다는 점에서 제주도 도시관리 능력의 한계를 드러냈다"면서 "이는 제주도는 관광산업의 양적성장을 추동할 수 있어도 그 부담을 효과적으로 제어할 능력은 아직 갖추지 못했다는 것"이라고 꼬집었다.김 연구원은 "지금껏 제주도의 도시계획은 관광산업 성장을 견인하고자 다방면에서 개발위주의 정책을 펼쳐왔으나, 그 부작용이 속속 가시화되고 있고, 제주하수처리장 문제를 보면 성장을 뒷받침할 역량이 아직 부족한 것이 현실"이라며 "이런 상황에서 제주도는 관광산어 육성방향을 새로 모색하고, 성장에 따른 부담을 관리할 수 있는 능력을 시급히 갖출 필요가 있다"고 제언했다.이어 "아울러 주권자로서 도민이 최근의 양적성장 결과를 반추하고, 스스로 자신의 미래를 판단하고 결정할 수 있도록 정보를 공유하는 것이 진정한 협치의 자세를 취하는 것"이라고 강조했다.한편 이날 김 연구원의 주제발표에 이어 이상범 한국환경정책평가연구원 연구원이 '제주 관광정책과 오버투어리즘'을 주제로 발제에 나섰다.이어 △제주참여환경연대 홍영철 대표 △제주제2공항성산읍반대대책위원회 강원보 집행위원장 △이상봉 제주특별자치도의회 의원 △육지사는제주사름 박찬식 대표가 참여한 지정 토론이 진행됐다.&lt;헤드라인제주&gt; ▲ 5일 열린 제주관광 패러다임 전환을 위한 토론회. ⓒ헤드라인제주 ▲ 5일 열린 제주관광 패러다임 전환을 위한 토론회. ⓒ헤드라인제주 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 도민 2018-02-05 19:01:23 | 223.***.***.89 더보기 삭제하기 수정하기 한 10명 왔냐? ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 어휴 ㅉㅉ 답글쓰기 3 0 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>'무제한 연임' 제주도관광협회장 10년 장기집권 가시화 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 '무제한 연임' 제주도관광협회장 10년 장기집권 가시화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 '무제한 연임' 제주도관광협회장 10년 장기집권 가시화 기자명 변미루 기자 입력 2018.02.04 16:46 수정 2018.02.05 10:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 김영진 제주특별자치도관광협회 회장.후보 단독출마 4선 연임 사실상 확정한해 예산 150억원 집행 막강한 권한대의원 투표방식 놓고 형평성 문제도 김영진 제주특별자치도관광협회장의 10년 장기집권이 가시화 될 전망이다. 일각에서는 무제한 연임이 가능한 선거제도에 대한 견제의 목소리가 나오고 있다.4일 제주도관광협회에 따르면 지난 1~2일 제34대 제주도관광협회장 후보 등록기간을 운영한 결과 김영진 현 회장이 단독 출마했다. 선거는 오는 2월 13일 대의원 투표방식으로 치러질 예정이다.김 회장은 2011년 보궐선거에 당선된 이후 3선을 연임했다. 올해 4선에 성공하게 되면 2021년 2월까지 10년의 장기집권을 달성하는 셈이다. 제주도관광협회장은 무보수 명예직이지만, 한 해 협회에 책정된 예산 150억원(2018년도 기준)을 집행하는 막강한 권한을 갖는다. 또 회장의 업무추진 경비를 본회의 예산에 편성해 사용할 수 있다.도관광협회는 1962년 설립된 이후 정관상 연임 제한을 둔 적이 없다. 이를 바탕으로 고(故) 김길웅 전 회장의 경우 제 13~15대·17~19대·22대·26대까지 총 8선을 연임하기도 했다. 이같은 관행이 수십년간 이어지면서 결국 권력에 대한 견제가 약해질 수 있다는 지적이 나온다.직선제가 아닌 대의원 투표방식에 대해서도 형평성 문제가 제기되고 있다. 도관광협회 대의원은 총 134명(당연직 46·선출직 88)으로 총회를 통해 출석 과반수 득표로 당선자를 결정한다. 하지만 임원인 당연직을 제외한 선출직은 19개 분과위원회별 회원수와 회비 납부실적을 5대 5 비율로 반영해 이사회에서 정한다. 결국 회비를 많이 납부하는 분과일수록 대의원으로 선출될 가능성이 높아지는 구조다. 실제로 관광호텔업분과는 회원사가 40여곳으로 국내여행업분과 180곳의 22.2%에 불과하지만 선출직 대의원은 14명으로 여행업 10명보다 많다. 이는 일부 호텔이 한해 최고 2000만원까지 회비를 납부하는 반면 여행업의 경우 통상적으로 60만원 수준에 그치기 때문이다.이와 관련해 김영진 회장은 "20여년 전에도 직선제에 대한 논의가 있었지만 협회 운영비 등 현실적인 문제를 고려해 협의점을 찾은 것"이라며 "투표권을 보다 많은 회원들이 행사할 수 있도록 지난해 선출직도 44명에서 88명으로 늘렸다. 연임 제한 문제는 공론화 과정을 거쳐 협의해나갈 부분"이라고 말했다. 변미루 기자 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>백령도 지역업체들, 지역 어르신들 모시고 제주도 효도관광 - 매일일보 × 정치 전체 국회·정당 대통령·대통령실 외교·안보 여의도 25시 국제일반 경제 전체 정책 산업 금융·증권 건설·부동산 유통 제약·바이오 중기·벤처 국제경제 사회 전체 행정 교육 사건·사고 법조·검찰 환경·과학 문화·체육 전체 문화일반 공연·전시 출판 스포츠·레저 관광 종교 MI특별기획 MI카드뉴스 전국 전체 서울 인천·경기 세종·충청 대구·경북 부산·경남 광주·전남 전주·전북 강원·제주 기획 전체 연중기획 특집기획 영상M S부장의 시시비비 BIZ 포커스[보도자료] 풍문레이다 전화성의 스타트~UP 2018 평창 동계올림픽 NO 재팬 피플 전체 사설 기자수첩 데스크칼럼 인터뷰 세상사람들 독자기고 동정 인사 부고 NOTICE 시작페이지로 설정 즐겨찾기 추가 2022-10-11 (화) HOME 전체기사보기 로그인 회원가입 정치 국회·정당 청와대·대통령 외교·안보 여의도 25시 주호영 "北 도발, 민주당 정권 핵무장 시간 주고 대응 안 한 결과" 주호영 "北 도발, 민주당 정권 핵무장 시간 주고 대응 안 한 결과" [매일일보 김연지 기자] 주호영 국민의힘 원내대표는 11일 연일 이어지고 있는 북한의 미사일 도발과 관련해 "모두 민주당 정권하에서 이런저런 이유로 북한이 핵 무장할 시간을 주고 ... 이재명, 한·미·일 연합훈련 "안보 자해행위"…與엔 "친일파" 강공 2022-10-11 尹 "북핵 위협 날로 심각…한미일 안보협력 바탕 견고한 대응" 2022-10-11 美서도 커지는 IRA 비판론…전기차 보조금 문제 해결될까 2022-10-10 北 보름간 7차례 미사일 도발…한·미·일 긴장속 안보협력 강화 2022-10-10 마이클 멀린 전 미 합참의장 "한반도 핵전쟁 위험 최고조" 경고 2022-10-10 北, 이례적 전투기 150대 동시 출격…우리 군도 F-35A로 대응 北, 이례적 전투기 150대 동시 출격…우리 군도 F-35A로 대응 [매일일보 김연지기자] 북한이 지난 8일 전투기 150여대를 동시 출격시켜 한·미 및 한·미·일 연합훈련에 무력시위를 한 것으로 뒤늦게 확인됐다. 대북 소식통에 따르면 북한 조선중... 경제 정책 산업 금융·증권 건설·부동산 유통 제약·보건 중기·벤처 현대카드, 국내 최초 ‘인플루언서 전용 카드’ 출시 현대카드, 국내 최초 ‘인플루언서 전용 카드’ 출시 [매일일보 홍석경 기자] 현대카드는 소셜미디어 활동에 따라 캐시백을 제공하는 국내 최초의 인플루언서 전용 카드 ‘인플카 현대카드’를 11일 공개했다.이 카드는 소셜미디어 ‘인스타그... 롯데케미칼, 2차전지 핵심소재 시장 진출로 전지소재사업 밸류체인 구축 2022-10-11 LH, 11일부터 과천·의왕 등 행복주택 3570가구 청약 2022-10-11 LS그룹, GCC 대사 초청 사업협력방안 논의 2022-10-11 중기부, 삼성전자‧포스코 등 6개사 ‘이달의 상생볼’ 우수사례로 선정 2022-10-11 토요타코리아, ‘2022 토요타 서비스 캠페인’ 실시 2022-10-11 현대차·배터리업계, 정부와 美 IRA 대응방안 모색 현대차·배터리업계, 정부와 美 IRA 대응방안 모색 [매일일보 김명현 기자] 산업통상자원부는 11일 정대진 통상차관보 주재로 '미 인플레이션 감축법(IRA) 대응 제3차 민관합동 TF'를 열고 IRA 대응 방안을 논의했다고 밝혔다.... 사회 행정 교육 사건·사고 법조·검찰 환경·과학 삼육대, 공식 캐릭터 ‘수야·수호’ 공개 삼육대, 공식 캐릭터 ‘수야·수호’ 공개 [매일일보 권영현 기자] 삼육대학교는 11일 개교 116주년을 맞아 공식캐릭터인 수야(SUYA)와 수호(SUHO)를 공개했다.두 캐릭터는 삼육대 교육 이념인 ‘영(靈)·지(知)·체... 오세훈 '내곡동·용산참사' 발언 고발사건 무혐의 2022-10-07 동덕여대, 10일까지 동덕아트갤러리서 '실내디자인전공 졸업전시회' 2022-10-07 세종대, 2022년 공학교육인증 우수사례 선정 2022-10-06 [내일 날씨] 전국 흐리고 비…낮부터 '쌀쌀' 2022-10-05 보수원로 김동길 명예교수 별세…향년 94세 2022-10-05 삼육대, 2023학년도 수시모집 미술 실기고사 실시 삼육대, 2023학년도 수시모집 미술 실기고사 실시 [매일일보 권영현 기자] 삼육대학교는 지난 2일 2023학년도 아트앤디자인학과 수시모집 실기고사를 실시했다고 밝혔다.삼육대에 따르면 실기고사는 삼육대 체육관 주경기장과 제3과학관,... 문화·체육 문화일반 공연·전시 출판 스포츠·레저 관광 종교 문화재청, 국가무형문화재 궁시장 3인, 악기장 2인 보유자 인정 문화재청, 국가무형문화재 궁시장 3인, 악기장 2인 보유자 인정 [매일일보 김종혁 기자] 문화재청은 국가무형문화재 궁시장 보유자로 김성락(金成洛, 경북 예천군), 김윤경(金允炅, 경기 부천), 유세현(劉世鉉, 경기 파주) 씨를 국가무형문화재 악... 현대약품, 제147회 아트엠콘서트 현악 사중주단과 ‘로맨틱 오텀” 개최 2022-10-11 [신간] 유대인과 이스라엘을 알아가는 첫걸음 '스텝 바이 스텝 모던 히브리어' 2022-10-11 부천국제애니메이션페스티벌(BIAF2022) 개막식 사회자로 배성재 아나운서 선정 2022-10-11 영등포아트홀, 서사극 대표작 ‘사천의 선인’ 이달 28일 선봬 2022-10-10 김주형, ‘최연소’ PGA 2승 기록… 슈라이너스 칠드런스 오픈 우승 2022-10-10 한국, 브루나이 10-0으로 격파… U-17 아시안컵 본선 진출 한국, 브루나이 10-0으로 격파… U-17 아시안컵 본선 진출 [매일일보 이용 기자] 남자 U-16 축구 대표팀이 2023 AFC U-17 아시안컵 본선에 진출했다.변성환 감독이 이끄는 U-16 대표팀은 9일(한국시간) 우즈베키스탄 타슈켄트의... MI특별기획 [기획]분업구조 붕괴…갈수록 멀어지는 한중 경제 [기획]분업구조 붕괴…갈수록 멀어지는 한중 경제 [매일일보 이재영 기자]한중 무역 분업구조가 점차 붕괴되는 양상이다. 최근 잇따라 중장기 대규모 투자 계획을 발표한 삼성, SK 등 대기업의 전략에서 미국과 국내 투자는 부각됐지만... [기획]한중 30년, 中 진출기업 실적 내리막길 타나 2022-09-15 [기획] 중국서 밀린 갤럭시, 해외서도 폴더블 격돌 2022-09-15 [기획]현대차, 녹색 신차로 중국 새길 모색 2022-09-15 [기획] 중국 큰손 기다리는 '면세업계' 2022-09-12 [기획] ‘독이 든 성배’로 전락한 中…“기술유출 공포감도” 2022-09-12 [기획] 갈림길에 선 韓‧中관계…소비재 기업도 긴장 [기획] 갈림길에 선 韓‧中관계…소비재 기업도 긴장 [매일일보 이용 기자] 한·중 수교 30주년을 맞이한 가운데, 양국 정부의 수교 내용에 따라 국내 기업의 대중국 사업이 다시 활기를 띌 수 있을 것이란 전망이 나온다.12일 정치권... MI카드뉴스 [카드뉴스] 2030 부산엑스포, 대체 뭐길래? [카드뉴스] 2030 부산엑스포, 대체 뭐길래? [매일일보 여이레 기자·그래픽 오지영 기자] [카드뉴스] 창사 이래 초유의 사태…포스코 태풍 피해 복구 ‘총력전’ 2022-09-22 [카드뉴스] P2P업계 “규제완화” 한목소리 2022-09-14 [카드뉴스] 폭우가 만들어낸 영화보다 참혹했던 ‘반지하 비극’ 2022-08-29 [MI카드뉴스] 역대 최악의 침수차 사태…보상은? 2022-08-17 [카드뉴스] ‘125조’ 규모 금융민생안정 2022-08-08 [카드뉴스] 멸종위기 1급 ‘나팔고둥’ 잡지마세요 [카드뉴스] 멸종위기 1급 ‘나팔고둥’ 잡지마세요 [매일일보 이용 기자·그래픽 김현아 기자] 전국 서울 인천·경기 세종·충청 대구·경북 부산·경남 광주·전남 전주·전북 강원·제주 서대문구·금산군 다양한 정책 분야 교류 협력 맞손 서대문구·금산군 다양한 정책 분야 교류 협력 맞손 [매일일보 송미연 기자] 서대문구가 이달 5일 금산인삼관 회의실에서 금산군과 교류 협력을 위한 양해각서(MOU)를 체결했다고 11일 밝혔다. 이에 따라 두 지자체는 복지 사각지대 ... 강북구, ‘특정제품 선정심사위원회’ 확대 운영 2022-10-11 강서구, 12일 ‘2040 도시발전기본계획 공청회’ 개최 2022-10-11 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 2022-10-11 서산시 가로림만, 최상의 생태 공간으로 거듭 나 2022-10-11 3년 만에 돌아온 '마포 새우젓'…오감이 풍성 2022-10-11 연천군농업인단체협회, 취약계층 위해 백미 100포 기부 연천군농업인단체협회, 취약계층 위해 백미 100포 기부 [매일일보 윤석진 기자] 연천군농업인단체협회는 연천군청을 방문, 관내 취약계층을 위해 백미 100포(10kg)를 기탁했다.11일 군 관계자는 연천군농업인단체협회에서 연천쌀 소비촉진... 기획 안랩, 다양한 행사에 친환경 요소 적극 도입해 환경경영 실천 안랩, 다양한 행사에 친환경 요소 적극 도입해 환경경영 실천 [매일일보 박효길 기자] 안랩이 최근 진행한 크고 작은 행사에서 다양한 방식으로 친환경 요소를 적극 도입해 행사 쓰레기 배출을 최소화하는 등 환경경영을 실천하고 있다.11일 안랩에... LG유플러스-하나은행, 아동의 올바른 디지털 금융 습관 형성 돕다 2022-10-11 이천 화재현장서 환자 지킨 故 현은경 간호사에게 ‘LG 의인상’ 수여 2022-10-10 KT스카이라이프, 장애인 휠체어 지원 사업 ‘Move with 스카이라이프&amp;HCN’ 진행 2022-10-06 현대오토에버, 폐그물 재활용 ‘앞치마 만들기’ 봉사활동 2022-10-05 네오플, 제주 저소득 조손가정 위탁아동 지원 5천만원 후원 2022-10-04 카카오메이커스-카카오브레인, ‘세계 동물의 날’ 기부 프로젝트 진행 카카오메이커스-카카오브레인, ‘세계 동물의 날’ 기부 프로젝트 진행 [매일일보 박효길 기자] 카카오의 임팩트 커머스 카카오메이커스와 카카오브레인이 ‘세계 동물의 날’을 맞아 멸종 위기 동물 보호에 힘을 보탠다.카카오메이커스와 카카오브레인은 4일 세... 피플 사설 기자수첩 데스크칼럼 인터뷰 세상사람들 독자기고 동정 인사 부고 [전문가 기고] 거래정상화를 위한 실효성 있는 방안이 필요하다 [전문가 기고] 거래정상화를 위한 실효성 있는 방안이 필요하다 가파른 금리인상으로 시작된 부동산시장 빙하기가 생각보다 심각하다. 그간 집값이 많이 상승했기 때문에 어느 정도 조정이 되는 것은 정상이지만 속도가 너무 빠르다. 급히 먹은 떡이 체... [건강칼럼] 피부과 인기 시술 '스킨부스터', 부작용 줄이려면? 2022-10-11 사노피, 혈우 환자의 마음 채움 위한 세바시 협업 강연 2022-10-11 [인사] 중소벤처기업부 2022-10-11 [기자수첩] 법인세 인하는 ‘부자감세’가 아니다 2022-10-11 [기자수첩] 금융위, ‘P2P 연계투자’ 해답 제시해야 2022-10-10 [데스크칼럼] 집값 하락 확산, 270만가구 주택공급 문제없나 [데스크칼럼] 집값 하락 확산, 270만가구 주택공급 문제없나 집값 하락세가 빠르게 확산하고 있는 가운데 한국은행이 오는 12일 금융통화위원회를 열어 기준금리를 결정한다. 전문가들은 한은 금통위가 이번에 기준금리를 0.5%p 올리는 빅스텝을 ... 지면보기 검색버튼 기사검색 검색 상세검색 닫기 이전 다음 백령도 지역업체들, 지역 어르신들 모시고 제주도 효도관광 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 전국 인천·경기 백령도 지역업체들, 지역 어르신들 모시고 제주도 효도관광 김양훈 기자 승인 2018.02.08 12:17 댓글 0 페이스북 트위터 카카오스토리 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [매일일보 김양훈 기자] 인천 옹진군 백령도 지역업체들이 지난 7일 인천 옹진군 백령도에 살고 있는 어르신 31명을 모시고 2박 3일간의 일정으로 제주도 여행을 떠났다.지난 11년간 백령여행사에서 진행한 백령도 지역 어르신들을 위한 제주도 무료 효도관광을 올해는 백령도 업체인 제이디 건설에서 진행했다.김진식 대표는 “해마다 어르신들을 모시고 효도관광을 다녀오는데 즐거워하시는 아르신들을 볼 때마다 자주 해드리지 못해 죄송하다”며, “앞으로 이런 자리를 많이 만들 수 있도록 노력하겠다”라고 말했다.이번 효도관광을 위해 해송여행사, 에이치해운, 서울우유, 아트건설, 승주건설, 나나렌트카, 이팔중기 등 지역내 업체들의 따뜻한 관심과 후원도 이어졌다. 저작권자 © 매일일보 무단전재 및 재배포 금지 트윗하기 김양훈 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 인기기사 [기자수첩] ‘블루아카이브’ 등급상향에 침묵하면 안 될 이유 [기자수첩] ‘블루아카이브’ 등급상향에 침묵하면 안 될 이유 중부권 랜드마크 된 대전신세계…1년간 매출 8000억원 달성 강소슬 기자 강원대학교 ‘2022년 백령대동제’ 3년 만에 대면 개최 황경근 기자 카카오게임즈표 블록체인 ‘보라’, 하반기 공략 시동 박효길 기자 신풍제약 잇따른 악재… 코로나 치료제로 부진 털어낼까 이용 기자 ‘애플페이’ 韓 상륙에 떠는 카드업계 홍석경 기자 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 베스트 클릭 뉴스 1北 보름간 7차례 미사일 도발…한·미·일 긴장속 안보협력 강화 2‘2022 제네시스 챔피언십’ 성황리에 마쳐 3美서도 커지는 IRA 비판론…전기차 보조금 문제 해결될까 4영등포아트홀, 서사극 대표작 ‘사천의 선인’ 이달 28일 선봬 5NYT "삼성전자 입주 키이우 건물 피해…러 미사일 피격" 6마이클 멀린 전 미 합참의장 "한반도 핵전쟁 위험 최고조" 경고 7신한금융, ‘2022 신한 소셜 임팩트 챕터’ 컨퍼런스 8[기획]대기업 신규 출자로 위기극복 나서 9K-방산, 대규모 인력 채용…수주 릴레이 기세 잇는다 10'금통위 D-1' 기준금리 10년만에 3% 시대 열린다 애드버토리얼 [AD]현대자동차, 현대 모터스튜디오서 ‘지속가능 라이프스타일 프로그램’ 선보여 [AD]현대자동차, 현대 모터스튜디오서 ‘지속가능 라이프스타일 프로그램’ 선보여 PR 기자 미래에셋생명, 실속형 ‘온라인 항문&amp;폴립 수술보험’ 출시 미래에셋생명, 실속형 ‘온라인 항문&amp;폴립 수술보험’ 출시 홍석경 기자 [AD] 금호석유화학그룹,금호리조트에 럭셔리 캠핑을 더하다 ‘아산 스파포레’ [AD] 금호석유화학그룹,금호리조트에 럭셔리 캠핑을 더하다 ‘아산 스파포레’ PR 기자 [AD] 메리츠증권, 韓·美 국채 10년물 ETN 8종 상장 [AD] 메리츠증권, 韓·美 국채 10년물 ETN 8종 상장 이채원 기자 데스크칼럼 [데스크칼럼] 집값 하락 확산, 270만가구 주택공급 문제없나 [데스크칼럼] 집값 하락 확산, 270만가구 주택공급 문제없나 윤재오 기자 [데스크칼럼]'불러도 대답없는 너'…짝사랑 그만하자 [데스크칼럼]'불러도 대답없는 너'…짝사랑 그만하자 권대경 기자 [데스크칼럼] 6개월 연속 무역적자 극복 방안은 무엇? [데스크칼럼] 6개월 연속 무역적자 극복 방안은 무엇? 송영택 기자 기자수첩 [기자수첩] 금융위, ‘P2P 연계투자’ 해답 제시해야 [기자수첩] 금융위, ‘P2P 연계투자’ 해답 제시해야 홍석경 기자 [기자수첩] ‘블루아카이브’ 등급상향에 침묵하면 안 될 이유 [기자수첩] ‘블루아카이브’ 등급상향에 침묵하면 안 될 이유 박효길 기자 [기자수첩] 식품업계 쥐어짜면 물가 잡힐까? [기자수첩] 식품업계 쥐어짜면 물가 잡힐까? 강소슬 기자 [기자수첩] 증시 변동성 대응, ‘벼락치기’는 이번이 마지막이길 [기자수첩] 증시 변동성 대응, ‘벼락치기’는 이번이 마지막이길 이채원 기자 신문사소개 기사제보 광고문의 불편신고 고충처리인 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 영등포구 여의대방로65길 20 호성빌딩 신관 제호 : 매일일보 발행·편집인 : 나정영 청소년보호책임자 : 심주현 발행일 : 2022-10-11 (화) 대표전화 : 02)784-7114 팩스 : 02)3775-2119 발행처 : (주)매일일보 일간신문등록번호 : 서울 가 09920 인터넷신문등록번호 : 서울 아00231 등록일 : 2006-08-07 모든 기사의 소유권은 본사가 보유하고 있으며 발행인의 허가 없이는 기사나 사진의 무단 전재, 복사를 금합니다. [콘텐츠 문의] Copyright © 2022 매일일보. All rights reserved. mail to webmaster@m-i.kr 위로</t>
+  </si>
+  <si>
+    <t>34대 제주도관광협회 회장 선거 후보 단독 출마 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 34대 제주도관광협회 회장 선거 후보 단독 출마 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 34대 제주도관광협회 회장 선거 후보 단독 출마 부남철 기자 승인 2018.02.03 12:36 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 김영진 현 회장만 등록...오는 13일 선거 [제주일보=부남철기자] 오는 13일 치러지는 제34대 제주특별자치도 관광협회(이하 도관광협회) 회장 선거 출마자가 단독 후보로 결정됐다.도관광협회 선거관리위원회는 지난 1일부터 2일 오후6시까지 제34대 회장 선거 입후보자 등록을 받은 결과 김영진 현 회장만이 서류를 접수했다고 밝혔다.이에 따라 도관광협회는 오는 13일 대의원 투표 방식으로 회장을 선출한다. 총 대의원수는 134명으로 당연직 46명, 선출직 88명이다.선출직 대의원은 분과위원회에서 선출하고, 당연직은 협회 임원이 해당된다. 출석 대의원 과반수 득표자가 관광협회 회장으로 당선된다.　한편 김영진 회장은 2011년 2월 열린 제31대 제주도관광협회 회장 보궐선거에서 당선된 이후 남은 임기 1년간 회장직을 맡았다. 당시 홍명표 전 회장 사임으로 보궐선거가 치러지기도 했다.이후 2012년 2월 제32대 회장선거에서 만장일치로 회장에 추대됐다.2015년 2월 경선으로 치러진 33대 회장 선거에서는 89%의 득표율을 기록하며 당선됐다. 부남철 기자  bunch@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 부남철 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>하와이 관광객 2배, 제주도의 랜드마크 ‘제주드림타워’ &lt; 부동산 &lt; 경제 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 하와이 관광객 2배, 제주도의 랜드마크 ‘제주드림타워’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 부동산 하와이 관광객 2배, 제주도의 랜드마크 ‘제주드림타워’ 기자명 김영명 기자 입력 2018.02.02 10:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (서울=국제뉴스) 김영명 기자 = 제주도는 전 세계적으로 찾는 관광지다. 관광객 수로 보면 세계 5대 휴양지인 하와이보다 2배가 넘는다. 제주도의 자연환경과 섬나라라는 정의 자체가 외국인에게는 매력적으로 어필된 것이다.이러한 제주도 부동산은 최근 움직임이 심상치 않다. 제주도 현재 헬스케어타운, 신화역사공원(제주신화월드 신화테마파크), 제주국제영어교육도시, 제2신공항 등 크고 작은 사업이 진행되고 있다.관광지인만큼 수익형부동산들도 많은데 그 중에서도 관광객이 많은 만큼 투자대비 수익률이 높다는 점을 강조하는 수익형 호텔분양이 활발하다.하지만 분양 후 발생되는 유지, 관리비용으로 인해 추후 이를 유지하기가 쉽지 않다. 또 시행사가 분양을 완료하고 나면 책임질 것이 없기 때문에 수익발생이 안되면 여기에 대한 보장을 받을 길이 없어 많은 분쟁이 일어나는 경우도 있어 주의가 필요하다.전문가들은 제주도 수익형 호텔 투자 시에는 진짜 시행사와 운영사를 체크해야 하며 법적 효력이 있는 임대차계약서로 계약조건, 소유권과 사업지역, 실질적인 수익률에 대해 꼼꼼하게 따져봐야 한다고 조언하고 있다.최근에는 이러한 문제요소를 개선하기 위해 분양 이후 추가비용 전액무상으로 처리해 준다는 조건을 내거는 경우도 등장하고 있다. 물론 해당 내용은 모두 법적 문서로 계약서에 명시한다.신흥 제주도 랜드마크로 불리는 ‘제주드림타워 리조트’는 카지노시설과 백화점과 같은 60개의 전문 부띠끄 쇼핑몰, 10개의 글로벌 레스토랑, 스카이라운지, 찜질방, 스파, 실내외 수영장 등을 갖춘 복합리조트다. 시행사가 토지를 소유하면서 전체 분양이 아닌 전체 시설의 약 40%만을 분양하고, 나머지 60%는 시행사 자체 보유분으로 수분양자와 함께한다.세계적 호텔 체인 그랜드 하얏트(Grand Hayatt)와 공식 계약을 체결한 제주 드림타워는 국내 최대 규모 카지노호텔로서 계약서상 명시된 분양 이후 운영 및 관리비는 0원이다. 분양가의 일정 비율을 20년간 우선 지급하는 조건이다. 분양계약서와 동시에 롯데관광과 임대차계약서를 작성한다.단지는 서귀포나 중문과 같이 관광지에 들어오는 호텔이 아닌, 제주국제공항과 가장 가까운 5성급호텔로 제주도 공항의 3km거리, 차로 5분 거리에 자리해 있다.일대 노형동 이마트 자리는 제주도에서 가장 비싼 땅값을 자랑해 ‘제주의 명동’이라 불린다. 또 노형오거리는 중국인 관광객들이 가장 많이 찾는 바오젠 거리, 롯데시네마, CGV, 관공서등 여러 주요시설이 인접해 있으며 신라면세점, 롯데면세점은 500~600m 거리로 도보권 이용이 가능하다.제주 드림타워는 총 169m 높이로 제주도 고도제한선 55m의 3배를 뛰어넘는 높이로 들어온다. 또 62m 높이에 도심 속 초고층 야외수영장이 있어 싱가포르의 마리나베이샌즈 호텔을 연상시킨다. 김영명 기자 youngmyeong@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
   </si>
   <si>
     <t>송객수수료는 제주관광의 적폐…제주도 “반드시 고치겠다” - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 송객수수료는 제주관광의 적폐…제주도 “반드시 고치겠다” 파이낸셜뉴스입력 2018.02.01 18:17수정 2018.02.01 23:25 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 저가관광 개선, 개별 관광객 확대, 관광시장 다변화 ‘핵심과제’제도 개선 개정안에 면세점 등 자료 제출 의무화 반영 요청미신고 숙박업, 무자격 가이드, 무등록 여행업 중점 단속 추진 중국 단체 관광객(유커·遊客)의 상징인 제주시 연동 번화가인 누웨모루거리. /사진=fnDB [제주=좌승훈기자] 제주특별자치도는 제주관광의 질적 성장을 위한 핵심 정책과제로서 송객 수수료(리베이트) 제한 법제화와 함께 미신고 숙박업, 무자격 가이드, 무등록 여행업 등을 대상으로 자치경찰.제주세관.행정시가 연중 합동단속 체제를 구축한다고 1일 밝혔다. 현재 송객 수수료 개선 방안을 담은 관광진흥법 일부 개정안이 국회 상임위원회에서 심의 절차를 밟고 있다. 원희룡 제주도지사는 최근 2018 지방분권과 균형발전 비전회의(1월 24~26일, ICC JEJU)를 찾은 정세균 국회의장과 면담을 갖고 "과도한 면세점 송객 수수료가 저가 관광을 야기해 관광산업에 부정적인 영향을 미치고 있는 실정"이라며 "국회에 계류 중인 면세점 송객수수료 관련 의원 발의 법률안을 수정.보완해 대안 입법안으로 조속한 처리해 줄 것"을 요청했다. 의원 입법으로 현재 국회에 계류 중인 개정안은 2건이다. 지난 2016년 8월 '관광사업자 등에게 경제적 이익 제공 금지'를 담은 윤호중 의원의 '관세법' 개정안과 2017년 6월 '여행업자 등의 경제적 이익 수수 금지'를 담은 정병국 의원의 '관광진흥법' 개정안이 발의된 상태다. 정병국 의원 대표 발의 법안에는 여행업자 또는 관광종사원이 면세점으로부터 송객 수수료를 받을 경우, 500만원 이하의 과태료를 부과하도록 하고 있다. 그러나 과태료 처분을 위한 면세업 등 관련 자료를 행정기관에 제출토록 의무화한 규정이 없어 개정안에 대한 수정.보완이 필요한 실정이다. 제주도는 이와 관련 “송객 수수료 제도 개선을 통해 저가관광 근절 등 제주관광 이미지가 개선될 수 있도록 개정안에 면세업자 등의 자료 제출 의무를 부과함으로써 제도의 실효성 확보해달라”는 입장이다. 면세점과 여행사 등 관광업계 일각에서는 송객 수수료가 관광객 유치를 위해서는 블가피한 조치라며 법 개정안에 반대 입장을 취하고 있다. 그러나 '인두세(人頭稅)'라고도 하는 송객 수수료는 결국 제주관광의 질을 떨어뜨릴 뿐이라는게 대체적인 시각이다. 양기철 제주도 관광국장은 "올해 제주관광의 질적 성장을 위해 저가관광 개선, 개별 관광객 확대, 관광시장 다변화를 핵심과제로 중점 추진해 나갈 계획"이라며 "특히 관광 산업체의 실질적인 이익을 도모하고 일자리 창출을 통한 제주지역경제에 도움이 되는 관광정책을 펼쳐 나가겠다"고 밝혔다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
@@ -76,10 +292,10 @@
     <t>제주도 송객수수료 공방…"관광 질 저하" vs "관광객 유치 필요악" - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 송객수수료 공방…"관광 질 저하" vs "관광객 유치 필요악" 파이낸셜뉴스입력 2018.02.01 13:21수정 2018.02.02 00:09 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 저가관광 개선, 개별 관광객 확대, 관광시장 다변화 ‘핵심과제’제도 개선 개정안에 면세점 등 자료 제출 의무화 반영 요청미신고 숙박업, 무자격 가이드, 무등록 여행업 중점 단속 추진 중국 단체 관광객(유커·遊客)의 상징인 제주시 연동 번화가인 누웨모루거리. [제주=좌승훈기자] 제주특별자치도는 제주관광의 질적 성장을 위한 핵심 정책과제로서 송객 수수료(리베이트) 제한 법제화와 함께 미신고 숙박업, 무자격 가이드, 무등록 여행업 등을 대상으로 자치경찰.제주세관.행정시가 연중 합동단속 체제를 구축한다고 1일 밝혔다. 현재 송객 수수료 개선 방안을 담은 관광진흥법 일부 개정안이 국회 상임위원회에서 심의 절차를 밟고 있다. 원희룡 제주도지사는 최근 2018 지방분권과 균형발전 비전회의(1월 24~26일, ICC JEJU)를 찾은 정세균 국회의장과 면담을 갖고 “과도한 면세점 송객 수수료가 저가 관광을 야기해 관광산업에 부정적인 영향을 미치고 있는 실정”이라며 “국회에 계류 중인 면세점 송객수수료 관련 의원 발의 법률안을 수정.보완해 대안 입법안으로 조속한 처리해 줄 것”을 요청했다. 의원 입법으로 현재 국회에 계류 중인 개정안은 2건이다. 지난 2016년 8월 ‘관광사업자 등에게 경제적 이익 제공 금지’를 담은 윤호중 의원의 ‘관세법’ 개정안과 2017년 6월 ‘여행업자 등의 경제적 이익 수수 금지’를 담은 정병국 의원의 ‘관광진흥법’ 개정안이 발의된 상태다. 정병국 의원 대표 발의 법안에는 여행업자 또는 관광종사원이 면세점으로부터 송객 수수료를 받을 경우, 500만원 이하의 과태료를 부과하도록 하고 있다. 그러나 과태료 처분을 위한 면세업 등 관련 자료를 행정기관에 제출토록 의무화한 규정이 없어 개정안에 대한 수정.보완이 필요한 실정이다. 제주도는 이와 관련, “송객 수수료 제도 개선을 통해 저가관광 근절 등 제주관광 이미지가 개선될 수 있도록 개정안에 면세업자 등의 자료 제출 의무를 부과함으로써 제도의 실효성 확보해달라”는 입장이다. 반면, 면세점과 여행사 등 관광업계 일각에서는 "송객 수수료가 관광객 유치를 위해 블가피한 조치"라며 법 개정안에 반대 입장을 취하고 있다. 그러나 ‘인두세(人頭稅)’라고도 하는 송객 수수료는 결국 제주관광의 질을 떨어뜨릴 뿐이라는게 대체적인 시각이다. 양기철 제주도 관광국장은 “올해 제주관광의 질적 성장을 위해 저가관광 개선, 개별 관광객 확대, 관광시장 다변화를 핵심과제로 중점 추진해 나갈 계획”이라며 “특히 관광 산업체의 실질적인 이익을 도모하고 일자리 창출을 통한 제주지역경제에 도움이 되는 관광정책을 펼쳐 나가겠다”고 밝혔다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
   </si>
   <si>
-    <t>제주도 35개 관광지 문화관광해설사 본격 배치 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 35개 관광지 문화관광해설사 본격 배치 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 35개 관광지 문화관광해설사 본격 배치 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.02.01 14:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 2월부터 각 관광지에 제주 문화관광해설사를 배치했다고 1일 전했다.올해 배치된 문화관광해설사는 200명으로 지난해 말 신규양성교육을 이수한 40명이 추가 돼 작년 153명보다 크게 증가했다.이들은 35개 관광지에 배치되며, 최근 제주시 원도심의 30년된 목욕탕과 여관건물이 문화공간으로 재탄생한 산지천 갤러리와 개별 관광객이 많이 방문하는 5.16도로변의 한라산 마방목지에서도 올해부터 새롭게 배치된 해설사의 서비스를 받을 수 있게 된다. 제주도 관계자는 "앞으로 매년 관광전문지식, 지역문화, 관광자원, 관광트랜드, 스피치기술, 스토리텔링 등으로 구성되는 '보수교육'을 더욱 내실 있게 실시해 관광객에 대한고품격 해설 서비스 제공으로 제주 관광 질적성장을 뒷받침해 나갈 계획"이라고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 해외 관광시장 다변화 등 질적성장 추진 :: 공감언론 뉴시스통신사 :: 2022.10.04 (화) 서울 16℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]최강욱 '채널A 기자 명예훼손 혐의' 1심서 무죄 [속보]"北 탄도미사일, 4000㎞ 이상 비행…日 동쪽 약 3000km 해역 낙하 가능성" NHK [속보]尹 "서해공무원 사건 성역없는 수사가 일반 원칙" [속보]尹"北, 4천km미사일 발사...국제사회 결연히 대응할 것" [속보]尹 "대통령 외교는 국익위한 것...순방서 많은 성과 거양" [속보]尹, 감사원 文조사 논란에 "감사원은 독립기관…대통령이 언급 부적절" [속보]美 "北, 올해 탄도미사일 39발 발사…한·일 안보 약속 의심 말라" [속보]기시다 日총리 "北 탄도미사일 발사는 폭거" 강력 비난 [속보]日 관방장관 "북 미사일 동북상공 통과…EEZ 밖으로 낙하 추정" [속보]합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 오전까지 전국 가을비…비 그친 뒤 낮부터 기온 '뚝' 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 해외 관광시장 다변화 등 질적성장 추진 등록 2018.02.01 11:00:00수정 2018.02.01 11:05:09 작게 크게 【제주=뉴시스】강정만 기자 = 제주특별자치도는 저가관광 등 제주관광의 체질개선을 위해 중국은 개별관광객(싼커· 散客)을 더 많이 오도록 하는 등 제주관광의 질적 성장을 위한 정책과제들을 강력하게 추진한다고 1일 밝혔다. 도는 외국인 관광객의 대 중국 의존도에서 탈피하고 방한 수요가 많은 국가를 타깃으로 제주 방문율을 높이고 해외 관광시장 다변화 정책을 중점 추진하기로 했다. 이를 위해 중국은 개별관광과 목적관광, 대만과 홍콩은 항공사와 연계된 마케팅, 일본과 동남아는 국가별로 직항노선 마케팅을 하는 등 해외시장별 특성에 맞는 맞춤형 마케팅을 추진한다. 제주 방문객 편의 확대를 위한 제주관광정보센터 운영 내실화와 서비스를 개선하고, 맞춤형 콘텐츠 제공으로 개별관광객이 많아지도록 할 방침이다. 특히 저가관광 개선과 건전관광질서를 위해 송객 수수료 제도 개선을 정부에 지속적으로 건의하고, 무자격 가이드 등 관광사범 근절을 위한 계도·단속을 강화하기로 했다. 또 면세업계와 여행업체의 자율적 자정노력도 적극적으로 유도해 나갈 계획이다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 엔저쇼핑 러시 이제는 마약오염국 위기의 금융시장 오피니언 부부듀오 '선과영' 어른의 노래로 전하는 뭉근한 위로 담았죠 전재훈 기자 무심코 쓴 마약 신조어 범죄 경각심 낮춘다 뉴시스 PIC 中 국경절 중화인민공화국 성립 73주년 행사 거행 사진으로 보는 지난 주말 가을비 속에... 우비 입은 수문장의 임명의식 '기다려'... 기다려대회를 아시나요? 이시간 핫 뉴스 고우리, 5세 연상 사업가와 오늘 결혼 제니·뷔 '사생활 유출'에…YG, 결국 공식입장 내놨다 홍현희, 바로 둘째 임신?…사진 한장에 김지민 화들짝 성유리 "바람 피우는 사람 더 보수적"…외도에 분노 러시아인 안현수, 푸틴 징집령 이후 국내서 포착 "딸 송지아 가슴에 피멍"…박연수, 가족 험담에 분노 75세 女-38세 男 '다정한 부부' 유튜버 혼인신고 살찐 구혜선 몰라보겠네…"마음이 힘들었다" 오늘의 헤드라인 "北 탄도미사일, 4500여km 비행日상공 통과…한때 주민 대피령 북한이 최근 10일 동안 5차례 미사일 도발을 강행하며 위협 수위를 높이고 있다. 특히 앞선 4차례 미사일 발사와 달리 이번에는 일본 상공 넘어로 중거리 탄도미사일을 발사하며 동아시아 안보에 큰 위협이 되고 있다. 4일 합동참모본부는 오전 7시23분경 북한 자강도 무평리 일대에서 동쪽 방향으로 중거리 탄도미사일 1발이 발사됐다고 밝혔다. 해당 "尹 "감사원은 헌법기관…대통령이 언급 부적절" "한미연합사 평택 기지로 이전 개시…이달말 완료 "재정준칙 없으면 2060년 1인당 나랏빚 1억 넘는다 "억대 외제차 굴리며 임대주택…'가짜 서민' 수두룩 "주호영 "정부조직개편안, 국감 중 발표될 수도" "확진 1만6423명…사망 19명, 63일만에 20명 밑돌아 "네이버, 미국판 당근마켓 '포쉬마크' 2.3조에 인수 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1박유진, 16세 첫 출산→18세 새남친과 임신…'친정과 갈등' 분가 18세 엄마 박유진이 어린 나이에 출산한 뒤 새 가정을 꾸리게 된 사연을 털어놓는다. 4일 오후 10시20분 방송하는 MBN 예능 '어른들은 모르는 고딩엄빠2(이하 고딩엄빠2)' 18회에서는 박유진이 출연해 파란만장한 인생사를 솔직하게 들려준다. 박유진은 14세 중1 시절 박유진은 평소 친하게 지내던 남사친에게 고백을 받아 진지하게 만나기 시작한다. 그러나 1년 뒤 남자친구는 180도 달라진 모습을 보이고 급기야 박유진을 협박하는 극단적 행동까지 해 스튜디오를 충격에 빠뜨린다. 결국 박유진은 남자친구와 이별하지만, 2"12세 겨울 두만강 건너 탈북"…'펜트하우스' 장명진, 추위 안타는 이유 3"미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 4당정 "여가부 폐지·재외동포청 신설…조만간 정부조직개편안 발표"(종합2보) 5합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 1당정 "여가부 폐지·재외동포청 신설…조만간 정부조직개편안 발표"(종합2보) 국민의힘과 정부는 3일 "조만간 정부조직개편안을 발표하기로 했다"고 밝혔다. 윤석열 대통령의 대선 공약인 여성가족부 폐지, 재외동포청 설립, 우주항공청 신설 등이 개편안으로 논의되는 것으로 전해졌다. 국가보훈 체계 위상 강화를 위해 '국가보훈처'를 '부'로 격상하는 안도 개편 내용에 포함된 것으로 알려졌다. 또 심야 택시난 완화를 위해 ▲심야 한정 택시 탄력호출료 확대 ▲모빌리티·올빼미 버스 등 심야 교통수단 등을 확대하기로 했다. 당정은 이날 오후 서울 종로구 삼청동 총리공관에서 제5차 고위 당정협의회를 열 2합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 3"한국인 다수, 美 대북 메시지보다 인플레법 중시" 4북한, 동쪽으로 탄도미사일 발사…3일만에 미사일 도발 재개(2보) 5尹정부 첫 국정감사…與 '文 때리기' vs 野 '尹 무능론' 격돌 1"미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 우크라이나 전쟁과 관련 블라디미르 푸틴 러시아 대통령의 핵무기 사용 위협에 직면한 미국이 대응 방법을 검토중이라고 미 CNN이 3일(현지시간) 보도했다. 미국은 전쟁 초기부터 푸틴이 핵과시 공격을 시도할 가능성에 대응하는 비상계획을 준비하기 시작했다. 이와 관련 한 당국자는 러시아가 자포리자 원자력 발전소를 공격하거나 핵무기를 고공 또는 비거주지역에 폭발시키는 방안 등이 이에 해당된다고 밝혔다. 당국자들은 러시아의 핵공격 준비 움직임은 포착되지 않았다고 밝혔다. 그러나 전문가들은 러시아의 우크라이나 점령 실패와 우 2"한국인 다수, 美 대북 메시지보다 인플레법 중시" 3OPEC+, 대규모 감산 검토…"유가 100달러 복귀 전망"(종합) 4우크라군, 남부전선서 러 방어선 돌파…러, 사령관 경질한 듯 5美 '역대급' 허리케인 이언 사망자 100명 넘어…"복구에 상당한 시일" 1보호무역주의·패권경쟁 속 생존법은? '수출로 먹고사는 나라'. 우리나라의 경제 발전 과정을 설명할 때 자주 소개되는 문장이다. 그만큼 수출이 우리 경제에서 차지하는 비중은 크다. 당장 코로나19 위기를 겪었던 지난해 4%대 성장률을 기록할 수 있었던 것은 수출이 든든한 버팀목 역할을 했기 때문이다. 올해 상황은 다르다. 무역수지 적자 규모가 역대 가장 클 것이라는 전망도 나온다. 우리나라가 수출로 돈을 벌지 못한다는 뜻인데, 이는 글로벌 금융위기를 겪던 2008년 이후 14년 만이다. 여러 이유가 있겠지만 보호무역주의와 주요국 패권 경쟁에 따른 글 2금융·증권(10월4일 화요일) 3경제(10월4일 화요일) 4경매시장 '꽁꽁'…서울 아파트 낙찰가율 2년 6개월만 '최저' 5하나증권, 현직 임원 48억 배임 고소…내부 감사서 파악 1자영업자 채무조정 지원 '새출발기금', 오늘 공식 출범 코로나19 극복과정에서 불가항력적 피해를 입은 소상공인·자영업자를 돕기 위한 최대 30조원 규모의 맞춤형 채무조정 프로그램 '새출발기금'이 4일 공식 출범했다. 이날부터 전국 76개소에 마련된 오프라인 현장창구와 온라인 플랫폼을 통해 새출발기금을 신청할 수 있다. 금융위원회와 한국자산관리공사(캠코)는 이날 서울 캠코 양재타워에서 19개 금융협회·금융기관이 참석한 가운데 '새출발기금 업무협약'을 맺었다고 밝혔다. 출범식에는 백혜련 정무위원장, 이영 중소벤처기업부장관, 김주현 금융위원장, 새출발기금 이사진, 금융협회장 및 금융 2금융·증권(10월4일 화요일) 3지니언스 "EDR 제품 첫 국정원 보안기능확인서 획득" 4하나증권, 현직 임원 48억 배임 고소…내부 감사서 파악 5미 증시 랠리에 비트코인도 급등…2800만원대 1'마지막 손실보상' 9일까지 홀짝제…확인요청·보상 신청 올해 2분기(4~6월) 소상공인 손실보상 신청 5부제가 4일부터 해제된다. 이날 오프라인 신청이 시작되는 가운데 9일까지 사업자등록번호 끝자리를 기준으로 '홀짝제'가 운영된다. 확인요청·확인보상 신청도 이날부터 가능하다. 손실보상금은 소상공인지원법에 따라 방역조치 이행에 따른 손실금을 분기별로 지급하는 것이다. 일회성 지원금인 '손실보전금'과는 다르다. 사회적 거리두기 조치가 지난 4월17일자로 해제돼 보상금 지급은 이번이 마지막이다. 중소벤처기업부(중기부)에 따르면 이날부터 사업자등록번호 끝자리 기준 5부제 손실보상 신 24족 보행로봇 구경오세요…로봇세일페스타 7~9일 3보호무역주의·패권경쟁 속 생존법은? 4권태신 전경련 부회장, BIAC 행사서 부산엑스포 지지 요청 5 국내 유통 '일본산' 가전·주류 가격 내렸을까 1네이버, 북미 1위 패션플랫폼 포쉬마크에 2.3조 '베팅'…"실리콘밸리서 진검승부" 네이버는 북미 최대 패션 소비자대소비자(C2C) 커뮤니티 포쉬마크(Poshmark, Inc.)를 인수한다고 4일 밝혔다. 취득 금액은 2조3441억원 규모다. 최수연 대표가 네이버 경영을 맡은 후 던진 최대 승부수로로, 네이버 역사상 가장 큰 규모의 빅딜이다. 네이버는 포쉬마크의 순기업 가치를 주당 17.9 달러, 순기업가치 12억 달러로 평가했다. 포쉬마크가 보유한 현금 5.8억 달러에 대한 대가를 포함한 총 인수대금은 16억 달러이다. 네이버는 이번 인수가 버티컬 플랫폼으로의 진화가 빨라지고 있는 글로벌 C2C 2'일반 증인' 없는 과기정통부 국감, 망사용료·5G 현안 정조준 3폭발 화재 화일약품 "매출 피해 최소화할 것…재발 방지 최선" 4최수연號 네이버, 창사 이래 최대 빅딜…북미 C2C 정조준(종합) 5셀트리온, 27조 휴미라 시장 대체사용 추진…유럽 3상 승인 1합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 합동참모본부(합참)는 4일 북한이 동쪽 방향으로 미상의 탄도미사일을 발사했다고 밝혔다. 현재 군 당국은 미사일의 제원, 고도, 속도, 비거리 등을 정밀 조사하고 있다. 북한의 미사일 도발은 지난 1일 이후 3일 만에 다시 재개된 것으로, 최근 10일 동안 총 5번의 미사일 도발을 감행했다. 지난달 25일 지대지 단거리 탄도미사일(SRBM) 1발을 평북 태천 일대에서 발사했고, 28일에는 평양 순안 일대에서 SRBM 2발을 발사했다. 29일에는 평안남도 순천 일대에서 SRBM 2발을 발사한 바 있다. 지난 1일 2조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 3북한, 동쪽으로 탄도미사일 발사…3일만에 미사일 도발 재개(2보) 4오늘부터 요양병원 대면면회 재개…외출·외박도 허용 5"직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 1합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 합동참모본부(합참)는 4일 북한이 동쪽 방향으로 미상의 탄도미사일을 발사했다고 밝혔다. 현재 군 당국은 미사일의 제원, 고도, 속도, 비거리 등을 정밀 조사하고 있다. 북한의 미사일 도발은 지난 1일 이후 3일 만에 다시 재개된 것으로, 최근 10일 동안 총 5번의 미사일 도발을 감행했다. 지난달 25일 지대지 단거리 탄도미사일(SRBM) 1발을 평북 태천 일대에서 발사했고, 28일에는 평양 순안 일대에서 SRBM 2발을 발사했다. 29일에는 평안남도 순천 일대에서 SRBM 2발을 발사한 바 있다. 지난 1일 2조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 3북한, 동쪽으로 탄도미사일 발사…3일만에 미사일 도발 재개(2보) 4인천, 오전까지 30~60㎜ 비…낮부터 비 그치고 '쌀쌀' 5경기남부 오전까지 비온 뒤 '쌀쌀'...바람도 강해 14족 보행로봇 구경오세요…로봇세일페스타 7~9일 국내 로봇산업 신기술을 확인하고, 4족 보행로봇 시연도 볼 수 있는 행사가 창원에서 열린다. 경남도·창원시 주최, 경남로봇랜드재단 주관 '2022 로봇세일페스타' 행사가 오는 7일부터 9일까지 창원시 마산합포구 마산로봇랜드 일원에서 펼쳐진다. 다양한 최신 로봇 기술을 접할 수 있는 전시회로, 로봇기업들 제품 홍보 및 판로 확대, 로봇랜드 테마파크를 찾은 관람객들에게 로봇 신기술과 체험 기회를 제공하기 위해 마련했다. 첫날인 7일에는 국내 서비스로봇 발전을 논하는 '경남서비스로봇발전포럼'이 오전 10시부터 오후 23년간 외국산 삼결살·목살 국내산 둔갑시켜 판매한 업자 '집유' 3학교 손소독기 납품 알선, 계약금 절반 꿀꺽한 업자 집유 4제주 오후까지 비 최대 30㎜…낮 최고기온 24~26도 5‘제27회 부산국제영화제’ 화려한 개막…3년 만의 정상 개최 1조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 논란이 일고 있다. 4일 한국만화영상진흥원에 따르면 전날 폐막한 제23회 부천국제만화축제 전시장에 ‘윤석열차’라는 제목의 만화가 전시됐다. 이 작품은 고등학생이 그린 카툰으로, 윤 대통령의 얼굴을 한 열차가 연기를 내뿜으며 달리자 시민들이 놀라 달아나는 모습을 담고 있다. 또 조종석 위치에는 윤 대통령의 부인 김건희 여사로 추정되는 인물이 자리하고 있으며 나머지 열차에는 검사복을 입은 이들이 칼을 들고 서 있었다. 이 작품은 2'푸에르자 부르타', 안방서도 본다…오늘 온라인 스트리밍 3국립극장 여우락과 협업…주영한국문화원, 'K-뮤직 페스티벌' 4임동민·케이트 리우·아르멜리니, 쇼팽으로 뭉친 세 피아니스트 5‘제27회 부산국제영화제’ 화려한 개막…3년 만의 정상 개최 1최지훈, 관중과 언쟁 이유는…"어린이팬 잘못 없어요" KIA 타이거즈와 SSG 랜더스의 경기가 열린 지난 1일 광주-기아 챔피언스필드. SSG가 3-2로 앞선 9회말 1사 2루 상황에서 KIA 최형우가 친 타구가 우중간 펜스 쪽으로 날아갔다. 우중간을 갈라 2루타가 될 수도 있는 타구였는데, 당시 우익수로 나서있던 최지훈이 빠르게 달려가 정확하게 점프해 타구를 낚아챘다. 타구를 잡은 최지훈은 재빨리 내야 쪽으로 송구했다. 문제는 그 다음이었다. 타구를 잡은 뒤 펜스에 부딪힌 최지훈은 갑자기 외야 관중석 쪽을 바라보며 불만을 드러냈다. 수비를 위해 우중간 쪽으로 달려왔 2'2주 연속 우승' 김수지, 세계랭킹 38위로 점프 3무라카미, 일본인 최다 56홈런+트리플크라운…30억 집이 선물로 4올해 크리스마스 씰 주인공은 손흥민 5라 루사 감독, 내년도 복귀 없다…화이트삭스와 동행 끝 1박유진, 16세 첫 출산→18세 새남친과 임신…'친정과 갈등' 분가 18세 엄마 박유진이 어린 나이에 출산한 뒤 새 가정을 꾸리게 된 사연을 털어놓는다. 4일 오후 10시20분 방송하는 MBN 예능 '어른들은 모르는 고딩엄빠2(이하 고딩엄빠2)' 18회에서는 박유진이 출연해 파란만장한 인생사를 솔직하게 들려준다. 박유진은 14세 중1 시절 박유진은 평소 친하게 지내던 남사친에게 고백을 받아 진지하게 만나기 시작한다. 그러나 1년 뒤 남자친구는 180도 달라진 모습을 보이고 급기야 박유진을 협박하는 극단적 행동까지 해 스튜디오를 충격에 빠뜨린다. 결국 박유진은 남자친구와 이별하지만, 2"12세 겨울 두만강 건너 탈북"…'펜트하우스' 장명진, 추위 안타는 이유 3황보라, 하정우 동생과 혼인신고 "시험관 시술 준비" 4"널 사왔다"며 용돈 100만원 받는 백수남편…'결혼지옥' 5블랙핑크·레드벨벳…K팝, '클래식 샘플링' 다시 주목하는 이유 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 아이티서 콜레라환자 발생..9700명 사망 2010년 악몽 재현되나 울산 학교들은 지금, 시나브로 말·글·얼 한글 교육 활발 KT엠모바일, 'e심' 특화 요금제 7종 출시…'양심' 브랜드도 선봬 권영세, 獨 숄츠 총리 만나 "한반도 평화·통일 지지" 당부 전주기상지청, 기후변화 인식 확대 '그림그리기 대회' 개최 "정부, 식량자급 목표 달성 번번이 실패…적정 농지 확보 계획 부실" 머스크, 트위터서 우크라 평화안 투표 논란…"크름반도는 러 영토" 충북 소방설비 오작동 빈번…소방차 헛걸음 하루 평균 10건 '꼴찌에 발목' SSG, 우승 축포 어디서…숙소? 잠실? DC 원조 히어로 군단 공개…'블랙 아담' 하동군, 군민편의 위한 '스피드 행복민원 서비스' 시행 인천스타트업파크, 대학생 인턴십 프로그램 '성과' [속보]최강욱 '채널A 기자 명예훼손 혐의' 1심서 무죄 이상민 장관 "변화 기민대응 위해 정부 운영체계 개편" 北, 일본 상공 넘어로 중거리 탄도미사일 발사…10일 동안 5차례(종합) 주호영 "정부조직개편안, 국감 중 발표될 수도…정기국회 중 결론" 민주 "尹정권, 문재인·이재명 죽이기로 무능 가리려 해"(종합) 與, 국감 전 '文정부 때리기' 포문…"한번도 경험 못한 나라" 장애인보호구역 설치율 광주 6.9%, 전남 1.6% '위조 성적서' 받은 부적합 방송통신기자재 회수률 고작 5.4% 공공분양주택 청약 미달 30% 달해…"공급량만 채운 결과" 박홍근 "감사원 칼 끝, 끝내 文 전 대통령 겨냥…정치탄압" 전국 LH 어린이집 34곳서 석면 검출…10곳 중 1곳 비율 한미연합사 평택 기지로 이전 개시…미래 연합방위체제 발전기반 구축 아이티서 콜레라환자 발생..9700명 사망 2010년 악몽 재현되나 권영세, 獨 숄츠 총리 만나 "한반도 평화·통일 지지" 당부 머스크, 트위터서 우크라 평화안 투표 논란…"크름반도는 러 영토" "푸틴의 핵위협 심각하게 받아들여야" WSJ 中 국경절 중화인민공화국 성립 73주년 행사 거행 크렘린 "우크라 나토 가입 시도 예의주시" 9월 일본 자금공급량 6285조원 3.3%↓..."감소 10년5개월 만에" "미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 엔화, 북한 미사일 발사에 1달러=144엔대 중반 상승 출발 日관방장관 "北미사일 약 20분간 4000㎞ 이상 비행…안보리 결의 위반" 구글 "중국서 번역 서비스 중단"…5년 만에 철수 美 "北 발사 상황 평가 중…올해 들어 탄도미사일 39발 발사" "규제지역 풀렸다"…10월 분양 물량, 전년 동월 대비 3배 '껑충' 셀트리온, 유플라이마 유럽 임상 3상 시험계획 승인 네이버, 美 중고 패션 플랫폼 포쉬마크 2.3조 인수 9월 일본 자금공급량 6285조원 3.3%↓..."감소 10년5개월 만에" 김문수 경사노위 위원장 취임…"노동개혁 중심축 될 것" 공공분양주택 청약 미달 30% 달해…"공급량만 채운 결과" 전국 LH 어린이집 34곳서 석면 검출…10곳 중 1곳 비율 대우건설, 독립유공자 후손 노후주택 개선 LH, 임대주택 임대료 동결 1년간 연장…입주민 부담 완화 1억 넘는 외제차 굴리며 임대주택 거주…'가짜 서민' 수두룩 재정준칙 없으면 2060년 국민 1인당 국가채무 1억 넘는다 LH 전세임대주택 입주자 선정됐지만 60%가 계약 포기 네이버·F&amp;F 셀트리온, 유플라이마 유럽 임상 3상 시험계획 승인 네이버, 美 중고 패션 플랫폼 포쉬마크 2.3조 인수 유진투자선물, 해외선물 실전투자대회 개최 삼성전자·SK하이닉스 4%↑…미 증시 급등 영향 SC제일은행, 현대카드와 개인·기업 제휴카드 출시 케이뱅크, 800만 고객 돌파…3분기 여수신 1조↑ 엔화, 북한 미사일 발사에 1달러=144엔대 중반 상승 출발 신보, 삼성重 '반도체 설비 구축 프로젝트' 협력업체에 보증 지원 원달러 환율 숨고르기…1430원대 초반 지속 삼성證 "LX인터내셔널, 겨울철 성수기 도래…석탄 가격 강세" 미 증시 랠리에 비트코인도 급등…2800만원대 "정부, 식량자급 목표 달성 번번이 실패…적정 농지 확보 계획 부실" 청호나이스, 정수기 4종 'IDEA 디자인 어워드' 본상 수상 전남에 전국 첫 '저메탄 조사료' 종합유통센터 들어선다 LG 구광모, 폴란드 총리 만나 부산엑스포 지지 요청 삼성전자, KES 2022서 맞춤형 '스마트싱스' 활용법 공개 "이색 가전 직접 경험"…LG전자, KES 2022서 혁신 제품 공개 김문수 경사노위 위원장 취임…"노동개혁 중심축 될 것" 삼성SDI, '친환경경영' 선언…"2050년 탄소중립 달성" 공공분양주택 청약 미달 30% 달해…"공급량만 채운 결과" '유미의 세포들'이 전하는 침대피로…한샘 'SNS 마케팅' 전국 LH 어린이집 34곳서 석면 검출…10곳 중 1곳 비율 LH, 임대주택 임대료 동결 1년간 연장…입주민 부담 완화 KT엠모바일, 'e심' 특화 요금제 7종 출시…'양심' 브랜드도 선봬 에이비엘바이오 "이중항체 'ABL301' 美 임상 1상 신청" 삼성이 찜한 블록체인회사 '해치랩스', 120억 투자 유치 조이시티 자회사 로드비웹툰, ‘조이플 엔터테인먼트’로 사명 변경 컴투스 '멤버십 NFT 프로젝트', '붕어빵 타이쿤'으로 출발 콩스튜디오, '가디언 테일즈' 닌텐도 스위치 버전 출시 뱅크웨어글로벌, 마스턴투자운용 ERP 2차 구축 완료 KT, '올레 tv'→'지니 TV'로 바꾼다…미디어 계열사 시너지 강화 '위조 성적서' 받은 부적합 방송통신기자재 회수률 고작 5.4% '유미의 세포들'이 전하는 침대피로…한샘 'SNS 마케팅' 파수, 악성메일 모의훈련 ‘마인드 셋’에 보안 교육 서비스 결합 유유제약, 美 안과학회서 안구건조증 신약 홍보 울산 학교들은 지금, 시나브로 말·글·얼 한글 교육 활발 충북 소방설비 오작동 빈번…소방차 헛걸음 하루 평균 10건 [인사]지디넷코리아 [속보]최강욱 '채널A 기자 명예훼손 혐의' 1심서 무죄 이상민 장관 "변화 기민대응 위해 정부 운영체계 개편" GH, 청년형 매입임대주택 228가구 입주자 모집 삐딱하게 주차해 놓곤..."조수석으로 타면 되지 않냐"는 벤츠 차주 北, 일본 상공 넘어로 중거리 탄도미사일 발사…10일 동안 5차례(종합) 전북병무청, 하반기 병역판정검사 시행…12월 7일까지 신규확진 1만6423명…사망 19명 '63일만에 20명 아래'(종합) 학벌없는시민모임 "광주시교육청, 사회적기업 제품 구매 저조" 한국도자재단, '한국 현대 도예 작품' 17일까지 공개 구입 인천스타트업파크, 대학생 인턴십 프로그램 '성과' GH, 청년형 매입임대주택 228가구 입주자 모집 北, 일본 상공 넘어로 중거리 탄도미사일 발사…10일 동안 5차례(종합) 경기도, '황복' 양식 도전…성장기간 단축·상품성 제고 경기, 3일 하루 확진자 4792명, 사망 3명 한국도자재단, '한국 현대 도예 작품' 17일까지 공개 구입 경기경제자유구역청, '제53회 한국전자전'서 투자유치 한미연합사 평택 기지로 이전 개시…미래 연합방위체제 발전기반 구축 가톨릭대, 유네스코 지속가능발전교육 감사패 수상 인천환경공단, 찾아가는 VR안전체험 교육 실시 IPA, ‘2022년 인천시 포워더 인센티브’ 지원기업 모집 경기도, 가상·증강현실 기업 데모데이 25~26일 개최 울산 학교들은 지금, 시나브로 말·글·얼 한글 교육 활발 충북 소방설비 오작동 빈번…소방차 헛걸음 하루 평균 10건 하동군, 군민편의 위한 '스피드 행복민원 서비스' 시행 LH 매입임대주택 빈집 방치, 광주 124채·전남 20채 ‘2022년 건설·교통 신기술 순회 전시회’ 5일 부산시청서 사천시, 2023년 귀농·귀촌 유치지원사업공모 선정 조직개편 앞둔 장충남 남해군수 "공정·공감 인사 하겠다" 전남에 전국 첫 '저메탄 조사료' 종합유통센터 들어선다 학벌없는시민모임 "광주시교육청, 사회적기업 제품 구매 저조" 부산시, 코로나19 '화장대란' 대처 인정받다…대통령상 수상 장애인보호구역 설치율 광주 6.9%, 전남 1.6% “성추행 의혹 상병헌 세종시의장 사퇴하라” 국힘 1인 시위 시작 [인사]지디넷코리아 전주박물관·전북태권도협회, '명품 태권도 시범공연' 9일 개최 임형주, 천주교서울대교구와 평화콘서트…12일 예술의전당 "국제회의복합지구와 국제회의집적시설 지정 신청하세요" 녹유의 '오늘의 운세 2022년 10월 5일 수요일(음력 9월 10일 신묘) 국립중앙박물관, 10월 매주 수요일 '큐레이터와의 대화' 사진으로 봤던 국보·보물 등 100건 3D로 만난다 문체부, 청년정책 위한 '2030 자문단' 공모 '반 클라이번 최연소 우승' 임윤찬, '황제' 실황 앨범 11월 발매 제24회 김상열연극상에 류주연 연출가 바다가 갈라진다, 보령 ‘무창포 신비의 바닷길 축제’ 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 '꼴찌에 발목' SSG, 우승 축포 어디서…숙소? 잠실? FC서울, 레알·바르샤보다 경기당 패스 많이 했다 '홀란 해트트릭 벤치서 보던' 호날두, 내년 1월 맨유 떠나나 인도네시아 참사로 본 축구장 비극의 역사 호날두 부진해도 걱정 없는 포르투갈, 레앙 잠재력 폭발 테니스 세계 8위 노리, 코리아오픈 기권 이유는? '월드컵서 한국 상대 해트트릭' 이과인, 그라운드 떠난다 인니 참사로 부각된 축구장 안전…반입 금지 품목은? '올해만 3번째' 애런 저지, AL 이달의 선수 수상 손흥민, 5일 프랑크푸르트 상대로 UCL 시즌 첫 골 도전 올해 크리스마스 씰 주인공은 손흥민 라 루사 감독, 내년도 복귀 없다…화이트삭스와 동행 끝 DC 원조 히어로 군단 공개…'블랙 아담' 임형주, 천주교서울대교구와 평화콘서트…12일 예술의전당 '배틀 트립' 시즌2로 돌아온다…성시경→이미주 MC 트레저, 오늘 컴백…전 세계 팬들에 외칠 'Hello' 기안84, '나혼산' PD와 새 예능 함께…'태어난 김에 세계 일주' 이보람 "야구선수와 결혼?…너무 황당" 루머 해명 빨간머리 찰떡이네…박지훈 '디 앤서' 무드 프리뷰 공개 레드벨벳 슬기, 오늘 솔로 데뷔…'28 리즌스' 원위, 오늘 '기어이 또'…팬들 위한 용훈·강현 선물 AB6IX, '테이크 어 챈스' 오늘 발매…"더 넓은 세상을 향해" '클로즈' 서울국제프라이드영화제 폐막작 선정 스트레이 키즈, 첫 사랑노래…'케이스 143' MV 티저 공개 많이 본 기사 14족 보행로봇 구경오세요…로봇세일페스타 7~9일 23년간 외국산 삼결살·목살 국내산 둔갑시켜 판매한 업자 '집유' 3학교 손소독기 납품 알선, 계약금 절반 꿀꺽한 업자 집유 4제주 오후까지 비 최대 30㎜…낮 최고기온 24~26도 5‘제27회 부산국제영화제’ 화려한 개막…3년 만의 정상 개최 6현대 아웃렛 화재 참사 당시 1t 트럭에 시동 걸려 있었다 7광주서 중앙선 침범사고 낸 무면허 10대 숨져 1박유진, 16세 첫 출산→18세 새남친과 임신…'친정과 갈등' 분가 2"12세 겨울 두만강 건너 탈북"…'펜트하우스' 장명진, 추위 안타는 이유 3"미, 푸틴의 핵사용 가능성 대비한 대응책 검토중" CNN 4당정 "여가부 폐지·재외동포청 신설…조만간 정부조직개편안 발표"(종합2보) 5[속보]합참 "북한, 동쪽 방향으로 미상의 탄도미사일 발사" 6"한국인 다수, 美 대북 메시지보다 인플레법 중시" 7황보라, 하정우 동생과 혼인신고 "시험관 시술 준비" 기자수첩 무심코 쓰는 마약 신조어, 범죄 경각심 낮춘다 거대 양당, 극단의 정치에 빠지지 말아야 피플 알렉 벤자민, 역시 팝 스토리텔러…"K팝 아티스트 직업정신 투철하죠" "세계 5위 암센터 서울아산병원, 통합진료로 폐암 치료 길 활짝" 세상에 이런 일이 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 접근금지 결정 위반, 전 여친 스토킹한 20대 집유 동거녀 상해·감금 20대 男, 집행유예 생활고에 발달장애 자녀 살해한 친모, 항소심도 징역 6년 쏠쏠정보 사진으로 봤던 국보·보물 등 100건 3D로 만난다 주민등록번호 유출땐 온라인으로도 변경신청 가능 마누라·외다리…네이버, 어학사전에 차별표현 '주의' 문구 표시 "외국인도 안전 귀갓길"…안심이앱, 영‧중‧일어 서비스 DMZ·행리단길 숙박, 체험 할인…'경기도 여행상품 통합 기획전' 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+    <t>제주도 35개 관광지 문화관광해설사 본격 배치 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 35개 관광지 문화관광해설사 본격 배치 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 35개 관광지 문화관광해설사 본격 배치 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.02.01 14:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 2월부터 각 관광지에 제주 문화관광해설사를 배치했다고 1일 전했다.올해 배치된 문화관광해설사는 200명으로 지난해 말 신규양성교육을 이수한 40명이 추가 돼 작년 153명보다 크게 증가했다.이들은 35개 관광지에 배치되며, 최근 제주시 원도심의 30년된 목욕탕과 여관건물이 문화공간으로 재탄생한 산지천 갤러리와 개별 관광객이 많이 방문하는 5.16도로변의 한라산 마방목지에서도 올해부터 새롭게 배치된 해설사의 서비스를 받을 수 있게 된다. 제주도 관계자는 "앞으로 매년 관광전문지식, 지역문화, 관광자원, 관광트랜드, 스피치기술, 스토리텔링 등으로 구성되는 '보수교육'을 더욱 내실 있게 실시해 관광객에 대한고품격 해설 서비스 제공으로 제주 관광 질적성장을 뒷받침해 나갈 계획"이라고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 해외 관광시장 다변화 등 질적성장 추진 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 해외 관광시장 다변화 등 질적성장 추진 등록 2018.02.01 11:00:00수정 2018.02.01 11:05:09 작게 크게 【제주=뉴시스】강정만 기자 = 제주특별자치도는 저가관광 등 제주관광의 체질개선을 위해 중국은 개별관광객(싼커· 散客)을 더 많이 오도록 하는 등 제주관광의 질적 성장을 위한 정책과제들을 강력하게 추진한다고 1일 밝혔다. 도는 외국인 관광객의 대 중국 의존도에서 탈피하고 방한 수요가 많은 국가를 타깃으로 제주 방문율을 높이고 해외 관광시장 다변화 정책을 중점 추진하기로 했다. 이를 위해 중국은 개별관광과 목적관광, 대만과 홍콩은 항공사와 연계된 마케팅, 일본과 동남아는 국가별로 직항노선 마케팅을 하는 등 해외시장별 특성에 맞는 맞춤형 마케팅을 추진한다. 제주 방문객 편의 확대를 위한 제주관광정보센터 운영 내실화와 서비스를 개선하고, 맞춤형 콘텐츠 제공으로 개별관광객이 많아지도록 할 방침이다. 특히 저가관광 개선과 건전관광질서를 위해 송객 수수료 제도 개선을 정부에 지속적으로 건의하고, 무자격 가이드 등 관광사범 근절을 위한 계도·단속을 강화하기로 했다. 또 면세업계와 여행업체의 자율적 자정노력도 적극적으로 유도해 나갈 계획이다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
   </si>
 </sst>
 </file>
@@ -437,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +774,441 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
